--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C809935-C3DF-4480-96C8-0B9A684C42B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E03E9F9-AB8F-4FD3-A1A0-CC79D468145A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -79,6 +79,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{F9506DD4-FA85-430B-950D-606192E9512D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No Response</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J3" authorId="0" shapeId="0" xr:uid="{9B82C341-B227-4DF3-804D-7210F1F75D2C}">
       <text>
         <r>
@@ -100,6 +124,30 @@
           </rPr>
           <t xml:space="preserve">
 Joined late after 40 min for the session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{807BC031-E8D7-4F9D-ACD7-DE4B1FFDFD11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+seen message but no response</t>
         </r>
       </text>
     </comment>
@@ -125,6 +173,30 @@
           <t xml:space="preserve">
 Present for 40 min session only after that he wasn’t in the meeting
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{3E2DB972-CDCF-4808-8460-2C6753C96497}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No response</t>
         </r>
       </text>
     </comment>
@@ -390,6 +462,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7453"/>
       <color rgb="FFEB6103"/>
     </mruColors>
   </colors>
@@ -703,9 +776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E03E9F9-AB8F-4FD3-A1A0-CC79D468145A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34650FA-7D6F-4106-88EA-18D81F5E3960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -225,12 +225,205 @@
         </r>
       </text>
     </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{B7135C63-F932-4196-BC4A-E72FC838BEEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical Condition</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{C4B85032-6721-420F-B64F-7B19659864AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work not joined</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{DB68A6B4-FA58-40C9-B7A5-3E9A0EB319BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mobile and internet Issue
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{4B2C4475-121E-4054-A02A-211129BCB028}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No any response for message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{6333BA76-B929-4227-87FA-DD46C9D0307E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No any response for message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{185EC9F7-82F2-4FD9-95AD-484C9EC332F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{4C054443-203B-405B-AA6A-15BD9E1717C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No any response for message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{2D0EDD96-9BCD-4BEE-90CC-BE8329BB1426}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Personal work</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -778,7 +971,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -983,24 +1176,63 @@
       <c r="A4" s="4">
         <v>45141</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="10">
+        <v>16</v>
+      </c>
+      <c r="S4" s="11">
+        <v>8</v>
+      </c>
+      <c r="T4" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -17433,10 +17665,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124:K1048576 B11:B25 J7:P15 D11:H15 B7:H10 D18:P21 D23:P25 B26:P123 F22:P22 H3 B5:P6 B3:G4 I3:P4 B2:P2" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124:K1048576 B11:B25 J7:P15 D11:H15 B7:H10 D18:P21 D23:P25 B26:P123 F22:P22 H3 B5:P6 B3:G4 B2:P2 I3:P4" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q123" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q123 H4" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34650FA-7D6F-4106-88EA-18D81F5E3960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1A02A2-7572-41DC-8B13-5CED55AF76F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -971,7 +971,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1017,13 +1017,13 @@
       <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="8" t="s">
@@ -1238,22 +1238,63 @@
       <c r="A5" s="4">
         <v>45142</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="10">
+        <v>16</v>
+      </c>
+      <c r="S5" s="11">
+        <v>10</v>
+      </c>
+      <c r="T5" s="12">
+        <v>6</v>
+      </c>
       <c r="U5" s="3" t="s">
         <v>2</v>
       </c>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1A02A2-7572-41DC-8B13-5CED55AF76F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D879B054-7EE0-497E-91C6-ECF0D9E2E764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -415,6 +415,150 @@
           </rPr>
           <t xml:space="preserve">
 Personal work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{B20CBD6B-F27C-4AD7-9AC7-D3DD6C4D4900}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No responded to the message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{2C89696A-896D-464F-BA78-77A6AB54EB93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work not joined</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{762E97E9-EAAC-4850-BA32-375D1F5190F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No responded to the message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{86945EC2-C69F-4DBC-953A-9206FFC53807}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No responded to the message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{AF6A9046-FA71-4D35-AD0C-4F2109C991D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No responded to the message</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{E8D0BDDD-E036-4F29-8445-65B43D874557}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No responded to the message</t>
         </r>
       </text>
     </comment>
@@ -969,9 +1113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D879B054-7EE0-497E-91C6-ECF0D9E2E764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6DBFC-C59E-444F-A82A-077EE0EC231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -562,12 +562,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{827586CC-3963-475E-8411-65C329D17BDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work not joined</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{F84A4FAB-25A5-4F70-8E55-D6ABCC1BF2E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{807E3D7C-2E87-4667-91A9-4C4C55EDEFCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{7CCD070E-049E-4674-89AD-06AF21E70A26}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -605,9 +701,6 @@
     <t>Pushpak (+91 8208688932)</t>
   </si>
   <si>
-    <t>Swapnil (+91 8888327245)</t>
-  </si>
-  <si>
     <t>Tanmay (+91 8669577490)</t>
   </si>
   <si>
@@ -639,6 +732,9 @@
   </si>
   <si>
     <t>10 for first &amp; 10 for last (Check Note)</t>
+  </si>
+  <si>
+    <t>Swapnil Barangule</t>
   </si>
 </sst>
 </file>
@@ -1113,9 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1138,25 +1234,25 @@
         <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>8</v>
@@ -1171,25 +1267,25 @@
         <v>4</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -1310,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T3" s="12">
         <v>5</v>
@@ -1447,24 +1543,63 @@
       <c r="A6" s="4">
         <v>45143</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="10">
+        <v>16</v>
+      </c>
+      <c r="S6" s="11">
+        <v>12</v>
+      </c>
+      <c r="T6" s="12">
+        <v>4</v>
+      </c>
       <c r="U6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +1610,6 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -17850,7 +17984,7 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124:K1048576 B11:B25 J7:P15 D11:H15 B7:H10 D18:P21 D23:P25 B26:P123 F22:P22 H3 B5:P6 B3:G4 B2:P2 I3:P4" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124:K1048576 B11:B25 J7:P15 D11:H15 D18:P21 D23:P25 B26:P123 F22:P22 H3 B5:P6 B3:G4 B2:P2 I3:P4 D8 B9:H10 B7:C8 E7:H8" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q123 H4" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6DBFC-C59E-444F-A82A-077EE0EC231B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F9F68B-A21F-4F58-9AB4-6F3090A30C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{827586CC-3963-475E-8411-65C329D17BDE}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{A61C5936-D971-452B-A4B2-5B1CAA3BBDFC}">
       <text>
         <r>
           <rPr>
@@ -658,12 +658,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{7B865FAC-103E-40FC-A605-1FC3BF4501A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work not joined</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{21808BB0-1B9D-4811-9130-B41A47CEA2FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{39CBE4E3-9363-4C44-B434-212A93CB56A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{6ABFE4EF-10CE-4777-866A-D9313952E57B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -736,12 +832,15 @@
   <si>
     <t>Swapnil Barangule</t>
   </si>
+  <si>
+    <t>SUNDAY OFF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -785,8 +884,34 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,6 +948,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -851,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,6 +1018,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,6 +1032,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFF7453"/>
       <color rgb="FFEB6103"/>
     </mruColors>
@@ -1209,9 +1347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1219,7 +1357,9 @@
     <col min="1" max="1" width="20.09765625" customWidth="1"/>
     <col min="2" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="37.3984375" customWidth="1"/>
-    <col min="5" max="11" width="30.5" customWidth="1"/>
+    <col min="5" max="8" width="30.5" customWidth="1"/>
+    <col min="9" max="9" width="30.5" style="3" customWidth="1"/>
+    <col min="10" max="11" width="30.5" customWidth="1"/>
     <col min="12" max="26" width="32.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1266,7 +1406,7 @@
       <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P1" s="8" t="s">
@@ -1608,46 +1748,125 @@
       <c r="A7" s="4">
         <v>45144</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>45145</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="B8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="10">
+        <v>16</v>
+      </c>
+      <c r="S8" s="11">
+        <v>12</v>
+      </c>
+      <c r="T8" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -1835,7 +2054,6 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1858,7 +2076,6 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1881,7 +2098,6 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1904,7 +2120,6 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1925,7 +2140,6 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1948,7 +2162,6 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1971,7 +2184,6 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1994,7 +2206,6 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2018,7 +2229,6 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2042,7 +2252,6 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2066,7 +2275,6 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2090,7 +2298,6 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2114,7 +2321,6 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2138,7 +2344,6 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2162,7 +2367,6 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2186,7 +2390,6 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2210,7 +2413,6 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2234,7 +2436,6 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2258,7 +2459,6 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2282,7 +2482,6 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2306,7 +2505,6 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2330,7 +2528,6 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2354,7 +2551,6 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2378,7 +2574,6 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2402,7 +2597,6 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2426,7 +2620,6 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2450,7 +2643,6 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -2474,7 +2666,6 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -2498,7 +2689,6 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2522,7 +2712,6 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2546,7 +2735,6 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -2570,7 +2758,6 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2594,7 +2781,6 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2618,7 +2804,6 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -2642,7 +2827,6 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -2666,7 +2850,6 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -2690,7 +2873,6 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -2714,7 +2896,6 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2738,7 +2919,6 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -2762,7 +2942,6 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -2786,7 +2965,6 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -2810,7 +2988,6 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -2834,7 +3011,6 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -2858,7 +3034,6 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -2882,7 +3057,6 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -2906,7 +3080,6 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -2930,7 +3103,6 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -2954,7 +3126,6 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -2978,7 +3149,6 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -3002,7 +3172,6 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -3026,7 +3195,6 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -3050,7 +3218,6 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -3074,7 +3241,6 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -3098,7 +3264,6 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -3122,7 +3287,6 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -3146,7 +3310,6 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -3170,7 +3333,6 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -3194,7 +3356,6 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -3218,7 +3379,6 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -3242,7 +3402,6 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -3266,7 +3425,6 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -3290,7 +3448,6 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -3314,7 +3471,6 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -3338,7 +3494,6 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -3362,7 +3517,6 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
@@ -3386,7 +3540,6 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -3410,7 +3563,6 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -3434,7 +3586,6 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -3458,7 +3609,6 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -3482,7 +3632,6 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -3506,7 +3655,6 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -3530,7 +3678,6 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -3554,7 +3701,6 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -3578,7 +3724,6 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -3602,7 +3747,6 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -3626,7 +3770,6 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -3650,7 +3793,6 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -3674,7 +3816,6 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -3698,7 +3839,6 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -3722,7 +3862,6 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -3746,7 +3885,6 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -3770,7 +3908,6 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -3794,7 +3931,6 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -3818,7 +3954,6 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -3842,7 +3977,6 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -3866,7 +4000,6 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -3890,7 +4023,6 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
@@ -3914,7 +4046,6 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
@@ -3938,7 +4069,6 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
@@ -3962,7 +4092,6 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -3986,7 +4115,6 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -4010,7 +4138,6 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -4034,7 +4161,6 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -4058,7 +4184,6 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -4082,7 +4207,6 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -4106,7 +4230,6 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -4130,7 +4253,6 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -4154,7 +4276,6 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -4178,7 +4299,6 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -4202,7 +4322,6 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -4226,7 +4345,6 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -4250,7 +4368,6 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -4274,7 +4391,6 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -4298,7 +4414,6 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -4322,7 +4437,6 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -4346,7 +4460,6 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -4368,7 +4481,6 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -4390,7 +4502,6 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -4412,7 +4523,6 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
@@ -4434,7 +4544,6 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
@@ -4456,7 +4565,6 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
@@ -4478,7 +4586,6 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -4500,7 +4607,6 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -4522,7 +4628,6 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
@@ -4544,7 +4649,6 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
@@ -4566,7 +4670,6 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
@@ -4588,7 +4691,6 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -4610,7 +4712,6 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
@@ -4632,7 +4733,6 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -4654,7 +4754,6 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -4676,7 +4775,6 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
@@ -4698,7 +4796,6 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -4720,7 +4817,6 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -4742,7 +4838,6 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -4764,7 +4859,6 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
@@ -4786,7 +4880,6 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
@@ -4808,7 +4901,6 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
@@ -4830,7 +4922,6 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -4852,7 +4943,6 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
@@ -4874,7 +4964,6 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -4896,7 +4985,6 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -4918,7 +5006,6 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -4940,7 +5027,6 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -4962,7 +5048,6 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -4984,7 +5069,6 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -5006,7 +5090,6 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -5028,7 +5111,6 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -5050,7 +5132,6 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -5072,7 +5153,6 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -5094,7 +5174,6 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -5116,7 +5195,6 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -5138,7 +5216,6 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -5160,7 +5237,6 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -5182,7 +5258,6 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -5204,7 +5279,6 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -5226,7 +5300,6 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -5248,7 +5321,6 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
@@ -5270,7 +5342,6 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
@@ -5292,7 +5363,6 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
@@ -5314,7 +5384,6 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
@@ -5336,7 +5405,6 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
@@ -5358,7 +5426,6 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
@@ -5380,7 +5447,6 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
@@ -5402,7 +5468,6 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
@@ -5424,7 +5489,6 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
@@ -5446,7 +5510,6 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
@@ -5468,7 +5531,6 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
@@ -5490,7 +5552,6 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
@@ -5512,7 +5573,6 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
@@ -5534,7 +5594,6 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
@@ -5556,7 +5615,6 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -5578,7 +5636,6 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -5600,7 +5657,6 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -5622,7 +5678,6 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -5644,7 +5699,6 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
@@ -5666,7 +5720,6 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -5688,7 +5741,6 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
@@ -5710,7 +5762,6 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
@@ -5732,7 +5783,6 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
@@ -5754,7 +5804,6 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
@@ -5776,7 +5825,6 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
@@ -5798,7 +5846,6 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
@@ -5820,7 +5867,6 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
@@ -5842,7 +5888,6 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
@@ -5864,7 +5909,6 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
@@ -5886,7 +5930,6 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
@@ -5908,7 +5951,6 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
@@ -5930,7 +5972,6 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
@@ -5952,7 +5993,6 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
@@ -5974,7 +6014,6 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
@@ -5996,7 +6035,6 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
@@ -6018,7 +6056,6 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
@@ -6040,7 +6077,6 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
@@ -6062,7 +6098,6 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
@@ -6084,7 +6119,6 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
@@ -6106,7 +6140,6 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
@@ -6128,7 +6161,6 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
@@ -6150,7 +6182,6 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
@@ -6172,7 +6203,6 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
@@ -6194,7 +6224,6 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
@@ -6216,7 +6245,6 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
@@ -6238,7 +6266,6 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
@@ -6260,7 +6287,6 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
@@ -6282,7 +6308,6 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
@@ -6304,7 +6329,6 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
@@ -6326,7 +6350,6 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
@@ -6348,7 +6371,6 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
@@ -6370,7 +6392,6 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
@@ -6392,7 +6413,6 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
@@ -6414,7 +6434,6 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
@@ -6436,7 +6455,6 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
@@ -6458,7 +6476,6 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
@@ -6480,7 +6497,6 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
@@ -6502,7 +6518,6 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
@@ -6524,7 +6539,6 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
@@ -6546,7 +6560,6 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
@@ -6568,7 +6581,6 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
@@ -6590,7 +6602,6 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
@@ -6612,7 +6623,6 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
@@ -6634,7 +6644,6 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
@@ -6656,7 +6665,6 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
@@ -6678,7 +6686,6 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
@@ -6700,7 +6707,6 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
@@ -6722,7 +6728,6 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
@@ -6744,7 +6749,6 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
@@ -6766,7 +6770,6 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
@@ -6788,7 +6791,6 @@
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
@@ -6810,7 +6812,6 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
@@ -6832,7 +6833,6 @@
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
@@ -6854,7 +6854,6 @@
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
@@ -6876,7 +6875,6 @@
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
@@ -6898,7 +6896,6 @@
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -6920,7 +6917,6 @@
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
@@ -6942,7 +6938,6 @@
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
@@ -6964,7 +6959,6 @@
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
@@ -6986,7 +6980,6 @@
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -7008,7 +7001,6 @@
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
@@ -7030,7 +7022,6 @@
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
@@ -7052,7 +7043,6 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
@@ -7074,7 +7064,6 @@
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
@@ -7096,7 +7085,6 @@
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
@@ -7118,7 +7106,6 @@
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
@@ -7140,7 +7127,6 @@
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
@@ -7162,7 +7148,6 @@
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
@@ -7184,7 +7169,6 @@
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
@@ -7206,7 +7190,6 @@
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
@@ -7228,7 +7211,6 @@
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
@@ -7250,7 +7232,6 @@
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
@@ -7272,7 +7253,6 @@
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
@@ -7294,7 +7274,6 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
@@ -7316,7 +7295,6 @@
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
-      <c r="I258" s="3"/>
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
@@ -7338,7 +7316,6 @@
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
-      <c r="I259" s="3"/>
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -7360,7 +7337,6 @@
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
-      <c r="I260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
@@ -7382,7 +7358,6 @@
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
-      <c r="I261" s="3"/>
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
@@ -7404,7 +7379,6 @@
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
-      <c r="I262" s="3"/>
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
@@ -7426,7 +7400,6 @@
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
-      <c r="I263" s="3"/>
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
@@ -7448,7 +7421,6 @@
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
-      <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
@@ -7470,7 +7442,6 @@
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
-      <c r="I265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
@@ -7492,7 +7463,6 @@
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
-      <c r="I266" s="3"/>
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
@@ -7514,7 +7484,6 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
-      <c r="I267" s="3"/>
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
@@ -7536,7 +7505,6 @@
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
-      <c r="I268" s="3"/>
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
@@ -7558,7 +7526,6 @@
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
-      <c r="I269" s="3"/>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
@@ -7580,7 +7547,6 @@
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
-      <c r="I270" s="3"/>
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
@@ -7602,7 +7568,6 @@
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
-      <c r="I271" s="3"/>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
@@ -7624,7 +7589,6 @@
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
-      <c r="I272" s="3"/>
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
@@ -7646,7 +7610,6 @@
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
-      <c r="I273" s="3"/>
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
@@ -7668,7 +7631,6 @@
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
-      <c r="I274" s="3"/>
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
@@ -7690,7 +7652,6 @@
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
-      <c r="I275" s="3"/>
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
@@ -7712,7 +7673,6 @@
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
-      <c r="I276" s="3"/>
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
@@ -7734,7 +7694,6 @@
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
-      <c r="I277" s="3"/>
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
@@ -7756,7 +7715,6 @@
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
-      <c r="I278" s="3"/>
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
@@ -7778,7 +7736,6 @@
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
-      <c r="I279" s="3"/>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
       <c r="L279" s="3"/>
@@ -7800,7 +7757,6 @@
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
-      <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
@@ -7822,7 +7778,6 @@
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
-      <c r="I281" s="3"/>
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
@@ -7844,7 +7799,6 @@
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
-      <c r="I282" s="3"/>
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
@@ -7866,7 +7820,6 @@
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
-      <c r="I283" s="3"/>
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
@@ -7888,7 +7841,6 @@
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
-      <c r="I284" s="3"/>
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
@@ -7910,7 +7862,6 @@
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
-      <c r="I285" s="3"/>
       <c r="J285" s="3"/>
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
@@ -7932,7 +7883,6 @@
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
-      <c r="I286" s="3"/>
       <c r="J286" s="3"/>
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
@@ -7954,7 +7904,6 @@
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
-      <c r="I287" s="3"/>
       <c r="J287" s="3"/>
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
@@ -7976,7 +7925,6 @@
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
-      <c r="I288" s="3"/>
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
@@ -7998,7 +7946,6 @@
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
-      <c r="I289" s="3"/>
       <c r="J289" s="3"/>
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
@@ -8020,7 +7967,6 @@
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
-      <c r="I290" s="3"/>
       <c r="J290" s="3"/>
       <c r="K290" s="3"/>
       <c r="L290" s="3"/>
@@ -8042,7 +7988,6 @@
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
-      <c r="I291" s="3"/>
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
@@ -8064,7 +8009,6 @@
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
-      <c r="I292" s="3"/>
       <c r="J292" s="3"/>
       <c r="K292" s="3"/>
       <c r="L292" s="3"/>
@@ -8086,7 +8030,6 @@
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
-      <c r="I293" s="3"/>
       <c r="J293" s="3"/>
       <c r="K293" s="3"/>
       <c r="L293" s="3"/>
@@ -8108,7 +8051,6 @@
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
-      <c r="I294" s="3"/>
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
@@ -8130,7 +8072,6 @@
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
-      <c r="I295" s="3"/>
       <c r="J295" s="3"/>
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
@@ -8152,7 +8093,6 @@
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
-      <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
@@ -8174,7 +8114,6 @@
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
-      <c r="I297" s="3"/>
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
@@ -8196,7 +8135,6 @@
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
-      <c r="I298" s="3"/>
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
@@ -8218,7 +8156,6 @@
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
-      <c r="I299" s="3"/>
       <c r="J299" s="3"/>
       <c r="K299" s="3"/>
       <c r="L299" s="3"/>
@@ -8240,7 +8177,6 @@
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
-      <c r="I300" s="3"/>
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
       <c r="L300" s="3"/>
@@ -8262,7 +8198,6 @@
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
-      <c r="I301" s="3"/>
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
       <c r="L301" s="3"/>
@@ -8284,7 +8219,6 @@
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
-      <c r="I302" s="3"/>
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
@@ -8306,7 +8240,6 @@
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
-      <c r="I303" s="3"/>
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
@@ -8328,7 +8261,6 @@
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
-      <c r="I304" s="3"/>
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
@@ -8350,7 +8282,6 @@
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
-      <c r="I305" s="3"/>
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
       <c r="L305" s="3"/>
@@ -8372,7 +8303,6 @@
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
-      <c r="I306" s="3"/>
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
@@ -8394,7 +8324,6 @@
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
-      <c r="I307" s="3"/>
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
       <c r="L307" s="3"/>
@@ -8416,7 +8345,6 @@
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
-      <c r="I308" s="3"/>
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
@@ -8438,7 +8366,6 @@
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
-      <c r="I309" s="3"/>
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
@@ -8460,7 +8387,6 @@
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
-      <c r="I310" s="3"/>
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
@@ -8482,7 +8408,6 @@
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
-      <c r="I311" s="3"/>
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
@@ -8504,7 +8429,6 @@
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
-      <c r="I312" s="3"/>
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
@@ -8526,7 +8450,6 @@
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
-      <c r="I313" s="3"/>
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
       <c r="L313" s="3"/>
@@ -8548,7 +8471,6 @@
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
-      <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
       <c r="L314" s="3"/>
@@ -8570,7 +8492,6 @@
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
-      <c r="I315" s="3"/>
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
@@ -8592,7 +8513,6 @@
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
-      <c r="I316" s="3"/>
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
@@ -8614,7 +8534,6 @@
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
-      <c r="I317" s="3"/>
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
@@ -8636,7 +8555,6 @@
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
-      <c r="I318" s="3"/>
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
@@ -8658,7 +8576,6 @@
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
-      <c r="I319" s="3"/>
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
@@ -8680,7 +8597,6 @@
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
-      <c r="I320" s="3"/>
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
@@ -8702,7 +8618,6 @@
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
-      <c r="I321" s="3"/>
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
@@ -8724,7 +8639,6 @@
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
-      <c r="I322" s="3"/>
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
       <c r="L322" s="3"/>
@@ -8746,7 +8660,6 @@
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
-      <c r="I323" s="3"/>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
@@ -8768,7 +8681,6 @@
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
-      <c r="I324" s="3"/>
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
@@ -8790,7 +8702,6 @@
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
-      <c r="I325" s="3"/>
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
@@ -8812,7 +8723,6 @@
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
@@ -8834,7 +8744,6 @@
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
-      <c r="I327" s="3"/>
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
@@ -8856,7 +8765,6 @@
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
-      <c r="I328" s="3"/>
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
@@ -8878,7 +8786,6 @@
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
-      <c r="I329" s="3"/>
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
@@ -8900,7 +8807,6 @@
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
-      <c r="I330" s="3"/>
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
@@ -8922,7 +8828,6 @@
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
-      <c r="I331" s="3"/>
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
@@ -8944,7 +8849,6 @@
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
-      <c r="I332" s="3"/>
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
@@ -8966,7 +8870,6 @@
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
-      <c r="I333" s="3"/>
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
@@ -8988,7 +8891,6 @@
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
-      <c r="I334" s="3"/>
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
@@ -9010,7 +8912,6 @@
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
-      <c r="I335" s="3"/>
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
       <c r="L335" s="3"/>
@@ -9032,7 +8933,6 @@
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
-      <c r="I336" s="3"/>
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
@@ -9054,7 +8954,6 @@
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
-      <c r="I337" s="3"/>
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
@@ -9076,7 +8975,6 @@
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
-      <c r="I338" s="3"/>
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
@@ -9098,7 +8996,6 @@
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
-      <c r="I339" s="3"/>
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
@@ -9120,7 +9017,6 @@
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
-      <c r="I340" s="3"/>
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
@@ -9142,7 +9038,6 @@
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
-      <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
@@ -9164,7 +9059,6 @@
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
-      <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
       <c r="L342" s="3"/>
@@ -9186,7 +9080,6 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
-      <c r="I343" s="3"/>
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
@@ -9208,7 +9101,6 @@
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
-      <c r="I344" s="3"/>
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
@@ -9230,7 +9122,6 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
-      <c r="I345" s="3"/>
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
@@ -9252,7 +9143,6 @@
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
-      <c r="I346" s="3"/>
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
@@ -9274,7 +9164,6 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
-      <c r="I347" s="3"/>
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
@@ -9296,7 +9185,6 @@
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
-      <c r="I348" s="3"/>
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
@@ -9318,7 +9206,6 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
-      <c r="I349" s="3"/>
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
@@ -9340,7 +9227,6 @@
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
-      <c r="I350" s="3"/>
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
@@ -9362,7 +9248,6 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
-      <c r="I351" s="3"/>
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
@@ -9384,7 +9269,6 @@
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
-      <c r="I352" s="3"/>
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
@@ -9406,7 +9290,6 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
-      <c r="I353" s="3"/>
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
@@ -9428,7 +9311,6 @@
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
-      <c r="I354" s="3"/>
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
@@ -9450,7 +9332,6 @@
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
-      <c r="I355" s="3"/>
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
@@ -9472,7 +9353,6 @@
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
-      <c r="I356" s="3"/>
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
@@ -9494,7 +9374,6 @@
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
-      <c r="I357" s="3"/>
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
       <c r="L357" s="3"/>
@@ -9516,7 +9395,6 @@
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
-      <c r="I358" s="3"/>
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
       <c r="L358" s="3"/>
@@ -9538,7 +9416,6 @@
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
-      <c r="I359" s="3"/>
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
@@ -9560,7 +9437,6 @@
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
-      <c r="I360" s="3"/>
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
       <c r="L360" s="3"/>
@@ -9582,7 +9458,6 @@
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
-      <c r="I361" s="3"/>
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
       <c r="L361" s="3"/>
@@ -9604,7 +9479,6 @@
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
-      <c r="I362" s="3"/>
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
@@ -9626,7 +9500,6 @@
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
-      <c r="I363" s="3"/>
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
@@ -9648,7 +9521,6 @@
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
-      <c r="I364" s="3"/>
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
       <c r="L364" s="3"/>
@@ -9670,7 +9542,6 @@
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
-      <c r="I365" s="3"/>
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
@@ -9692,7 +9563,6 @@
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
-      <c r="I366" s="3"/>
       <c r="J366" s="3"/>
       <c r="K366" s="3"/>
       <c r="L366" s="3"/>
@@ -9714,7 +9584,6 @@
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
-      <c r="I367" s="3"/>
       <c r="J367" s="3"/>
       <c r="K367" s="3"/>
       <c r="L367" s="3"/>
@@ -9736,7 +9605,6 @@
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
-      <c r="I368" s="3"/>
       <c r="J368" s="3"/>
       <c r="K368" s="3"/>
       <c r="L368" s="3"/>
@@ -9758,7 +9626,6 @@
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
-      <c r="I369" s="3"/>
       <c r="J369" s="3"/>
       <c r="K369" s="3"/>
       <c r="L369" s="3"/>
@@ -9780,7 +9647,6 @@
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
-      <c r="I370" s="3"/>
       <c r="J370" s="3"/>
       <c r="K370" s="3"/>
       <c r="L370" s="3"/>
@@ -9802,7 +9668,6 @@
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
-      <c r="I371" s="3"/>
       <c r="J371" s="3"/>
       <c r="K371" s="3"/>
       <c r="L371" s="3"/>
@@ -9824,7 +9689,6 @@
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
-      <c r="I372" s="3"/>
       <c r="J372" s="3"/>
       <c r="K372" s="3"/>
       <c r="L372" s="3"/>
@@ -9846,7 +9710,6 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
-      <c r="I373" s="3"/>
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
       <c r="L373" s="3"/>
@@ -9868,7 +9731,6 @@
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
       <c r="L374" s="3"/>
@@ -9890,7 +9752,6 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
-      <c r="I375" s="3"/>
       <c r="J375" s="3"/>
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
@@ -9912,7 +9773,6 @@
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
-      <c r="I376" s="3"/>
       <c r="J376" s="3"/>
       <c r="K376" s="3"/>
       <c r="L376" s="3"/>
@@ -9934,7 +9794,6 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
-      <c r="I377" s="3"/>
       <c r="J377" s="3"/>
       <c r="K377" s="3"/>
       <c r="L377" s="3"/>
@@ -9956,7 +9815,6 @@
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
-      <c r="I378" s="3"/>
       <c r="J378" s="3"/>
       <c r="K378" s="3"/>
       <c r="L378" s="3"/>
@@ -9978,7 +9836,6 @@
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
-      <c r="I379" s="3"/>
       <c r="J379" s="3"/>
       <c r="K379" s="3"/>
       <c r="L379" s="3"/>
@@ -10000,7 +9857,6 @@
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
-      <c r="I380" s="3"/>
       <c r="J380" s="3"/>
       <c r="K380" s="3"/>
       <c r="L380" s="3"/>
@@ -10022,7 +9878,6 @@
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
-      <c r="I381" s="3"/>
       <c r="J381" s="3"/>
       <c r="K381" s="3"/>
       <c r="L381" s="3"/>
@@ -10044,7 +9899,6 @@
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
-      <c r="I382" s="3"/>
       <c r="J382" s="3"/>
       <c r="K382" s="3"/>
       <c r="L382" s="3"/>
@@ -10066,7 +9920,6 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
-      <c r="I383" s="3"/>
       <c r="J383" s="3"/>
       <c r="K383" s="3"/>
       <c r="L383" s="3"/>
@@ -10088,7 +9941,6 @@
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
-      <c r="I384" s="3"/>
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
       <c r="L384" s="3"/>
@@ -10110,7 +9962,6 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
-      <c r="I385" s="3"/>
       <c r="J385" s="3"/>
       <c r="K385" s="3"/>
       <c r="L385" s="3"/>
@@ -10132,7 +9983,6 @@
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
-      <c r="I386" s="3"/>
       <c r="J386" s="3"/>
       <c r="K386" s="3"/>
       <c r="L386" s="3"/>
@@ -10154,7 +10004,6 @@
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
-      <c r="I387" s="3"/>
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
       <c r="L387" s="3"/>
@@ -10176,7 +10025,6 @@
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
-      <c r="I388" s="3"/>
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
       <c r="L388" s="3"/>
@@ -10198,7 +10046,6 @@
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
-      <c r="I389" s="3"/>
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
       <c r="L389" s="3"/>
@@ -10220,7 +10067,6 @@
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
-      <c r="I390" s="3"/>
       <c r="J390" s="3"/>
       <c r="K390" s="3"/>
       <c r="L390" s="3"/>
@@ -10242,7 +10088,6 @@
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
-      <c r="I391" s="3"/>
       <c r="J391" s="3"/>
       <c r="K391" s="3"/>
       <c r="L391" s="3"/>
@@ -10264,7 +10109,6 @@
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
-      <c r="I392" s="3"/>
       <c r="J392" s="3"/>
       <c r="K392" s="3"/>
       <c r="L392" s="3"/>
@@ -10286,7 +10130,6 @@
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
-      <c r="I393" s="3"/>
       <c r="J393" s="3"/>
       <c r="K393" s="3"/>
       <c r="L393" s="3"/>
@@ -10308,7 +10151,6 @@
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
-      <c r="I394" s="3"/>
       <c r="J394" s="3"/>
       <c r="K394" s="3"/>
       <c r="L394" s="3"/>
@@ -10330,7 +10172,6 @@
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
-      <c r="I395" s="3"/>
       <c r="J395" s="3"/>
       <c r="K395" s="3"/>
       <c r="L395" s="3"/>
@@ -10352,7 +10193,6 @@
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
-      <c r="I396" s="3"/>
       <c r="J396" s="3"/>
       <c r="K396" s="3"/>
       <c r="L396" s="3"/>
@@ -10374,7 +10214,6 @@
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
-      <c r="I397" s="3"/>
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
       <c r="L397" s="3"/>
@@ -10396,7 +10235,6 @@
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
-      <c r="I398" s="3"/>
       <c r="J398" s="3"/>
       <c r="K398" s="3"/>
       <c r="L398" s="3"/>
@@ -10418,7 +10256,6 @@
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
-      <c r="I399" s="3"/>
       <c r="J399" s="3"/>
       <c r="K399" s="3"/>
       <c r="L399" s="3"/>
@@ -10440,7 +10277,6 @@
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
-      <c r="I400" s="3"/>
       <c r="J400" s="3"/>
       <c r="K400" s="3"/>
       <c r="L400" s="3"/>
@@ -10462,7 +10298,6 @@
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
-      <c r="I401" s="3"/>
       <c r="J401" s="3"/>
       <c r="K401" s="3"/>
       <c r="L401" s="3"/>
@@ -10484,7 +10319,6 @@
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
-      <c r="I402" s="3"/>
       <c r="J402" s="3"/>
       <c r="K402" s="3"/>
       <c r="L402" s="3"/>
@@ -10506,7 +10340,6 @@
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
-      <c r="I403" s="3"/>
       <c r="J403" s="3"/>
       <c r="K403" s="3"/>
       <c r="L403" s="3"/>
@@ -10528,7 +10361,6 @@
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
-      <c r="I404" s="3"/>
       <c r="J404" s="3"/>
       <c r="K404" s="3"/>
       <c r="L404" s="3"/>
@@ -10550,7 +10382,6 @@
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
-      <c r="I405" s="3"/>
       <c r="J405" s="3"/>
       <c r="K405" s="3"/>
       <c r="L405" s="3"/>
@@ -10572,7 +10403,6 @@
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
-      <c r="I406" s="3"/>
       <c r="J406" s="3"/>
       <c r="K406" s="3"/>
       <c r="L406" s="3"/>
@@ -10594,7 +10424,6 @@
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
-      <c r="I407" s="3"/>
       <c r="J407" s="3"/>
       <c r="K407" s="3"/>
       <c r="L407" s="3"/>
@@ -10616,7 +10445,6 @@
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
-      <c r="I408" s="3"/>
       <c r="J408" s="3"/>
       <c r="K408" s="3"/>
       <c r="L408" s="3"/>
@@ -10638,7 +10466,6 @@
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
-      <c r="I409" s="3"/>
       <c r="J409" s="3"/>
       <c r="K409" s="3"/>
       <c r="L409" s="3"/>
@@ -10660,7 +10487,6 @@
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
-      <c r="I410" s="3"/>
       <c r="J410" s="3"/>
       <c r="K410" s="3"/>
       <c r="L410" s="3"/>
@@ -10682,7 +10508,6 @@
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
-      <c r="I411" s="3"/>
       <c r="J411" s="3"/>
       <c r="K411" s="3"/>
       <c r="L411" s="3"/>
@@ -10704,7 +10529,6 @@
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
-      <c r="I412" s="3"/>
       <c r="J412" s="3"/>
       <c r="K412" s="3"/>
       <c r="L412" s="3"/>
@@ -10726,7 +10550,6 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
-      <c r="I413" s="3"/>
       <c r="J413" s="3"/>
       <c r="K413" s="3"/>
       <c r="L413" s="3"/>
@@ -10748,7 +10571,6 @@
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
-      <c r="I414" s="3"/>
       <c r="J414" s="3"/>
       <c r="K414" s="3"/>
       <c r="L414" s="3"/>
@@ -10770,7 +10592,6 @@
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
-      <c r="I415" s="3"/>
       <c r="J415" s="3"/>
       <c r="K415" s="3"/>
       <c r="L415" s="3"/>
@@ -10792,7 +10613,6 @@
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
-      <c r="I416" s="3"/>
       <c r="J416" s="3"/>
       <c r="K416" s="3"/>
       <c r="L416" s="3"/>
@@ -10814,7 +10634,6 @@
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
-      <c r="I417" s="3"/>
       <c r="J417" s="3"/>
       <c r="K417" s="3"/>
       <c r="L417" s="3"/>
@@ -10836,7 +10655,6 @@
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
-      <c r="I418" s="3"/>
       <c r="J418" s="3"/>
       <c r="K418" s="3"/>
       <c r="L418" s="3"/>
@@ -10858,7 +10676,6 @@
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
-      <c r="I419" s="3"/>
       <c r="J419" s="3"/>
       <c r="K419" s="3"/>
       <c r="L419" s="3"/>
@@ -10880,7 +10697,6 @@
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
-      <c r="I420" s="3"/>
       <c r="J420" s="3"/>
       <c r="K420" s="3"/>
       <c r="L420" s="3"/>
@@ -10902,7 +10718,6 @@
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
-      <c r="I421" s="3"/>
       <c r="J421" s="3"/>
       <c r="K421" s="3"/>
       <c r="L421" s="3"/>
@@ -10924,7 +10739,6 @@
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
-      <c r="I422" s="3"/>
       <c r="J422" s="3"/>
       <c r="K422" s="3"/>
       <c r="L422" s="3"/>
@@ -10946,7 +10760,6 @@
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
-      <c r="I423" s="3"/>
       <c r="J423" s="3"/>
       <c r="K423" s="3"/>
       <c r="L423" s="3"/>
@@ -10968,7 +10781,6 @@
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
-      <c r="I424" s="3"/>
       <c r="J424" s="3"/>
       <c r="K424" s="3"/>
       <c r="L424" s="3"/>
@@ -10990,7 +10802,6 @@
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
-      <c r="I425" s="3"/>
       <c r="J425" s="3"/>
       <c r="K425" s="3"/>
       <c r="L425" s="3"/>
@@ -11012,7 +10823,6 @@
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
-      <c r="I426" s="3"/>
       <c r="J426" s="3"/>
       <c r="K426" s="3"/>
       <c r="L426" s="3"/>
@@ -11034,7 +10844,6 @@
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
-      <c r="I427" s="3"/>
       <c r="J427" s="3"/>
       <c r="K427" s="3"/>
       <c r="L427" s="3"/>
@@ -11056,7 +10865,6 @@
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
-      <c r="I428" s="3"/>
       <c r="J428" s="3"/>
       <c r="K428" s="3"/>
       <c r="L428" s="3"/>
@@ -11078,7 +10886,6 @@
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
-      <c r="I429" s="3"/>
       <c r="J429" s="3"/>
       <c r="K429" s="3"/>
       <c r="L429" s="3"/>
@@ -11100,7 +10907,6 @@
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
-      <c r="I430" s="3"/>
       <c r="J430" s="3"/>
       <c r="K430" s="3"/>
       <c r="L430" s="3"/>
@@ -11122,7 +10928,6 @@
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
-      <c r="I431" s="3"/>
       <c r="J431" s="3"/>
       <c r="K431" s="3"/>
       <c r="L431" s="3"/>
@@ -11144,7 +10949,6 @@
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
-      <c r="I432" s="3"/>
       <c r="J432" s="3"/>
       <c r="K432" s="3"/>
       <c r="L432" s="3"/>
@@ -11166,7 +10970,6 @@
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
-      <c r="I433" s="3"/>
       <c r="J433" s="3"/>
       <c r="K433" s="3"/>
       <c r="L433" s="3"/>
@@ -11188,7 +10991,6 @@
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
-      <c r="I434" s="3"/>
       <c r="J434" s="3"/>
       <c r="K434" s="3"/>
       <c r="L434" s="3"/>
@@ -11210,7 +11012,6 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
-      <c r="I435" s="3"/>
       <c r="J435" s="3"/>
       <c r="K435" s="3"/>
       <c r="L435" s="3"/>
@@ -11232,7 +11033,6 @@
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
-      <c r="I436" s="3"/>
       <c r="J436" s="3"/>
       <c r="K436" s="3"/>
       <c r="L436" s="3"/>
@@ -11254,7 +11054,6 @@
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
-      <c r="I437" s="3"/>
       <c r="J437" s="3"/>
       <c r="K437" s="3"/>
       <c r="L437" s="3"/>
@@ -11276,7 +11075,6 @@
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
-      <c r="I438" s="3"/>
       <c r="J438" s="3"/>
       <c r="K438" s="3"/>
       <c r="L438" s="3"/>
@@ -11298,7 +11096,6 @@
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
-      <c r="I439" s="3"/>
       <c r="J439" s="3"/>
       <c r="K439" s="3"/>
       <c r="L439" s="3"/>
@@ -11320,7 +11117,6 @@
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
-      <c r="I440" s="3"/>
       <c r="J440" s="3"/>
       <c r="K440" s="3"/>
       <c r="L440" s="3"/>
@@ -11342,7 +11138,6 @@
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
-      <c r="I441" s="3"/>
       <c r="J441" s="3"/>
       <c r="K441" s="3"/>
       <c r="L441" s="3"/>
@@ -11364,7 +11159,6 @@
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
-      <c r="I442" s="3"/>
       <c r="J442" s="3"/>
       <c r="K442" s="3"/>
       <c r="L442" s="3"/>
@@ -11386,7 +11180,6 @@
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
-      <c r="I443" s="3"/>
       <c r="J443" s="3"/>
       <c r="K443" s="3"/>
       <c r="L443" s="3"/>
@@ -11408,7 +11201,6 @@
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
-      <c r="I444" s="3"/>
       <c r="J444" s="3"/>
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
@@ -11430,7 +11222,6 @@
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
-      <c r="I445" s="3"/>
       <c r="J445" s="3"/>
       <c r="K445" s="3"/>
       <c r="L445" s="3"/>
@@ -11452,7 +11243,6 @@
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
-      <c r="I446" s="3"/>
       <c r="J446" s="3"/>
       <c r="K446" s="3"/>
       <c r="L446" s="3"/>
@@ -11474,7 +11264,6 @@
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
-      <c r="I447" s="3"/>
       <c r="J447" s="3"/>
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
@@ -11496,7 +11285,6 @@
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
-      <c r="I448" s="3"/>
       <c r="J448" s="3"/>
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
@@ -11518,7 +11306,6 @@
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
-      <c r="I449" s="3"/>
       <c r="J449" s="3"/>
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
@@ -11540,7 +11327,6 @@
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
-      <c r="I450" s="3"/>
       <c r="J450" s="3"/>
       <c r="K450" s="3"/>
       <c r="L450" s="3"/>
@@ -11562,7 +11348,6 @@
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
-      <c r="I451" s="3"/>
       <c r="J451" s="3"/>
       <c r="K451" s="3"/>
       <c r="L451" s="3"/>
@@ -11584,7 +11369,6 @@
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
-      <c r="I452" s="3"/>
       <c r="J452" s="3"/>
       <c r="K452" s="3"/>
       <c r="L452" s="3"/>
@@ -11606,7 +11390,6 @@
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
-      <c r="I453" s="3"/>
       <c r="J453" s="3"/>
       <c r="K453" s="3"/>
       <c r="L453" s="3"/>
@@ -11628,7 +11411,6 @@
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
-      <c r="I454" s="3"/>
       <c r="J454" s="3"/>
       <c r="K454" s="3"/>
       <c r="L454" s="3"/>
@@ -11650,7 +11432,6 @@
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
-      <c r="I455" s="3"/>
       <c r="J455" s="3"/>
       <c r="K455" s="3"/>
       <c r="L455" s="3"/>
@@ -11672,7 +11453,6 @@
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
-      <c r="I456" s="3"/>
       <c r="J456" s="3"/>
       <c r="K456" s="3"/>
       <c r="L456" s="3"/>
@@ -11694,7 +11474,6 @@
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
-      <c r="I457" s="3"/>
       <c r="J457" s="3"/>
       <c r="K457" s="3"/>
       <c r="L457" s="3"/>
@@ -11716,7 +11495,6 @@
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
-      <c r="I458" s="3"/>
       <c r="J458" s="3"/>
       <c r="K458" s="3"/>
       <c r="L458" s="3"/>
@@ -11738,7 +11516,6 @@
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
-      <c r="I459" s="3"/>
       <c r="J459" s="3"/>
       <c r="K459" s="3"/>
       <c r="L459" s="3"/>
@@ -11760,7 +11537,6 @@
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
-      <c r="I460" s="3"/>
       <c r="J460" s="3"/>
       <c r="K460" s="3"/>
       <c r="L460" s="3"/>
@@ -11782,7 +11558,6 @@
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
-      <c r="I461" s="3"/>
       <c r="J461" s="3"/>
       <c r="K461" s="3"/>
       <c r="L461" s="3"/>
@@ -11804,7 +11579,6 @@
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
-      <c r="I462" s="3"/>
       <c r="J462" s="3"/>
       <c r="K462" s="3"/>
       <c r="L462" s="3"/>
@@ -11826,7 +11600,6 @@
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
-      <c r="I463" s="3"/>
       <c r="J463" s="3"/>
       <c r="K463" s="3"/>
       <c r="L463" s="3"/>
@@ -11848,7 +11621,6 @@
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
-      <c r="I464" s="3"/>
       <c r="J464" s="3"/>
       <c r="K464" s="3"/>
       <c r="L464" s="3"/>
@@ -11870,7 +11642,6 @@
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
-      <c r="I465" s="3"/>
       <c r="J465" s="3"/>
       <c r="K465" s="3"/>
       <c r="L465" s="3"/>
@@ -11892,7 +11663,6 @@
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
-      <c r="I466" s="3"/>
       <c r="J466" s="3"/>
       <c r="K466" s="3"/>
       <c r="L466" s="3"/>
@@ -11914,7 +11684,6 @@
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
-      <c r="I467" s="3"/>
       <c r="J467" s="3"/>
       <c r="K467" s="3"/>
       <c r="L467" s="3"/>
@@ -11936,7 +11705,6 @@
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
-      <c r="I468" s="3"/>
       <c r="J468" s="3"/>
       <c r="K468" s="3"/>
       <c r="L468" s="3"/>
@@ -11958,7 +11726,6 @@
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
-      <c r="I469" s="3"/>
       <c r="J469" s="3"/>
       <c r="K469" s="3"/>
       <c r="L469" s="3"/>
@@ -11980,7 +11747,6 @@
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
-      <c r="I470" s="3"/>
       <c r="J470" s="3"/>
       <c r="K470" s="3"/>
       <c r="L470" s="3"/>
@@ -12002,7 +11768,6 @@
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
-      <c r="I471" s="3"/>
       <c r="J471" s="3"/>
       <c r="K471" s="3"/>
       <c r="L471" s="3"/>
@@ -12024,7 +11789,6 @@
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
-      <c r="I472" s="3"/>
       <c r="J472" s="3"/>
       <c r="K472" s="3"/>
       <c r="L472" s="3"/>
@@ -12046,7 +11810,6 @@
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
-      <c r="I473" s="3"/>
       <c r="J473" s="3"/>
       <c r="K473" s="3"/>
       <c r="L473" s="3"/>
@@ -12068,7 +11831,6 @@
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
-      <c r="I474" s="3"/>
       <c r="J474" s="3"/>
       <c r="K474" s="3"/>
       <c r="L474" s="3"/>
@@ -12090,7 +11852,6 @@
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
-      <c r="I475" s="3"/>
       <c r="J475" s="3"/>
       <c r="K475" s="3"/>
       <c r="L475" s="3"/>
@@ -12112,7 +11873,6 @@
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
       <c r="H476" s="3"/>
-      <c r="I476" s="3"/>
       <c r="J476" s="3"/>
       <c r="K476" s="3"/>
       <c r="L476" s="3"/>
@@ -12134,7 +11894,6 @@
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
-      <c r="I477" s="3"/>
       <c r="J477" s="3"/>
       <c r="K477" s="3"/>
       <c r="L477" s="3"/>
@@ -12156,7 +11915,6 @@
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
-      <c r="I478" s="3"/>
       <c r="J478" s="3"/>
       <c r="K478" s="3"/>
       <c r="L478" s="3"/>
@@ -12178,7 +11936,6 @@
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
-      <c r="I479" s="3"/>
       <c r="J479" s="3"/>
       <c r="K479" s="3"/>
       <c r="L479" s="3"/>
@@ -12200,7 +11957,6 @@
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
       <c r="H480" s="3"/>
-      <c r="I480" s="3"/>
       <c r="J480" s="3"/>
       <c r="K480" s="3"/>
       <c r="L480" s="3"/>
@@ -12222,7 +11978,6 @@
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
-      <c r="I481" s="3"/>
       <c r="J481" s="3"/>
       <c r="K481" s="3"/>
       <c r="L481" s="3"/>
@@ -12244,7 +11999,6 @@
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
       <c r="H482" s="3"/>
-      <c r="I482" s="3"/>
       <c r="J482" s="3"/>
       <c r="K482" s="3"/>
       <c r="L482" s="3"/>
@@ -12266,7 +12020,6 @@
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
-      <c r="I483" s="3"/>
       <c r="J483" s="3"/>
       <c r="K483" s="3"/>
       <c r="L483" s="3"/>
@@ -12288,7 +12041,6 @@
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
       <c r="H484" s="3"/>
-      <c r="I484" s="3"/>
       <c r="J484" s="3"/>
       <c r="K484" s="3"/>
       <c r="L484" s="3"/>
@@ -12310,7 +12062,6 @@
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
-      <c r="I485" s="3"/>
       <c r="J485" s="3"/>
       <c r="K485" s="3"/>
       <c r="L485" s="3"/>
@@ -12332,7 +12083,6 @@
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
-      <c r="I486" s="3"/>
       <c r="J486" s="3"/>
       <c r="K486" s="3"/>
       <c r="L486" s="3"/>
@@ -12354,7 +12104,6 @@
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
-      <c r="I487" s="3"/>
       <c r="J487" s="3"/>
       <c r="K487" s="3"/>
       <c r="L487" s="3"/>
@@ -12376,7 +12125,6 @@
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
-      <c r="I488" s="3"/>
       <c r="J488" s="3"/>
       <c r="K488" s="3"/>
       <c r="L488" s="3"/>
@@ -12398,7 +12146,6 @@
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
-      <c r="I489" s="3"/>
       <c r="J489" s="3"/>
       <c r="K489" s="3"/>
       <c r="L489" s="3"/>
@@ -12420,7 +12167,6 @@
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
-      <c r="I490" s="3"/>
       <c r="J490" s="3"/>
       <c r="K490" s="3"/>
       <c r="L490" s="3"/>
@@ -12442,7 +12188,6 @@
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
-      <c r="I491" s="3"/>
       <c r="J491" s="3"/>
       <c r="K491" s="3"/>
       <c r="L491" s="3"/>
@@ -12464,7 +12209,6 @@
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
-      <c r="I492" s="3"/>
       <c r="J492" s="3"/>
       <c r="K492" s="3"/>
       <c r="L492" s="3"/>
@@ -12486,7 +12230,6 @@
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
-      <c r="I493" s="3"/>
       <c r="J493" s="3"/>
       <c r="K493" s="3"/>
       <c r="L493" s="3"/>
@@ -12508,7 +12251,6 @@
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
-      <c r="I494" s="3"/>
       <c r="J494" s="3"/>
       <c r="K494" s="3"/>
       <c r="L494" s="3"/>
@@ -12530,7 +12272,6 @@
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
-      <c r="I495" s="3"/>
       <c r="J495" s="3"/>
       <c r="K495" s="3"/>
       <c r="L495" s="3"/>
@@ -12552,7 +12293,6 @@
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
-      <c r="I496" s="3"/>
       <c r="J496" s="3"/>
       <c r="K496" s="3"/>
       <c r="L496" s="3"/>
@@ -12574,7 +12314,6 @@
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
-      <c r="I497" s="3"/>
       <c r="J497" s="3"/>
       <c r="K497" s="3"/>
       <c r="L497" s="3"/>
@@ -12596,7 +12335,6 @@
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
-      <c r="I498" s="3"/>
       <c r="J498" s="3"/>
       <c r="K498" s="3"/>
       <c r="L498" s="3"/>
@@ -12618,7 +12356,6 @@
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
-      <c r="I499" s="3"/>
       <c r="J499" s="3"/>
       <c r="K499" s="3"/>
       <c r="L499" s="3"/>
@@ -12640,7 +12377,6 @@
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
-      <c r="I500" s="3"/>
       <c r="J500" s="3"/>
       <c r="K500" s="3"/>
       <c r="L500" s="3"/>
@@ -12662,7 +12398,6 @@
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
-      <c r="I501" s="3"/>
       <c r="J501" s="3"/>
       <c r="K501" s="3"/>
       <c r="L501" s="3"/>
@@ -12684,7 +12419,6 @@
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
-      <c r="I502" s="3"/>
       <c r="J502" s="3"/>
       <c r="K502" s="3"/>
       <c r="L502" s="3"/>
@@ -12706,7 +12440,6 @@
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
-      <c r="I503" s="3"/>
       <c r="J503" s="3"/>
       <c r="K503" s="3"/>
       <c r="L503" s="3"/>
@@ -12728,7 +12461,6 @@
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
-      <c r="I504" s="3"/>
       <c r="J504" s="3"/>
       <c r="K504" s="3"/>
       <c r="L504" s="3"/>
@@ -12750,7 +12482,6 @@
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
-      <c r="I505" s="3"/>
       <c r="J505" s="3"/>
       <c r="K505" s="3"/>
       <c r="L505" s="3"/>
@@ -12772,7 +12503,6 @@
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
-      <c r="I506" s="3"/>
       <c r="J506" s="3"/>
       <c r="K506" s="3"/>
       <c r="L506" s="3"/>
@@ -12794,7 +12524,6 @@
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
-      <c r="I507" s="3"/>
       <c r="J507" s="3"/>
       <c r="K507" s="3"/>
       <c r="L507" s="3"/>
@@ -12816,7 +12545,6 @@
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
-      <c r="I508" s="3"/>
       <c r="J508" s="3"/>
       <c r="K508" s="3"/>
       <c r="L508" s="3"/>
@@ -12838,7 +12566,6 @@
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
-      <c r="I509" s="3"/>
       <c r="J509" s="3"/>
       <c r="K509" s="3"/>
       <c r="L509" s="3"/>
@@ -12860,7 +12587,6 @@
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
-      <c r="I510" s="3"/>
       <c r="J510" s="3"/>
       <c r="K510" s="3"/>
       <c r="L510" s="3"/>
@@ -12882,7 +12608,6 @@
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
-      <c r="I511" s="3"/>
       <c r="J511" s="3"/>
       <c r="K511" s="3"/>
       <c r="L511" s="3"/>
@@ -12904,7 +12629,6 @@
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
-      <c r="I512" s="3"/>
       <c r="J512" s="3"/>
       <c r="K512" s="3"/>
       <c r="L512" s="3"/>
@@ -12926,7 +12650,6 @@
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
-      <c r="I513" s="3"/>
       <c r="J513" s="3"/>
       <c r="K513" s="3"/>
       <c r="L513" s="3"/>
@@ -12948,7 +12671,6 @@
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
-      <c r="I514" s="3"/>
       <c r="J514" s="3"/>
       <c r="K514" s="3"/>
       <c r="L514" s="3"/>
@@ -12970,7 +12692,6 @@
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
-      <c r="I515" s="3"/>
       <c r="J515" s="3"/>
       <c r="K515" s="3"/>
       <c r="L515" s="3"/>
@@ -12992,7 +12713,6 @@
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
-      <c r="I516" s="3"/>
       <c r="J516" s="3"/>
       <c r="K516" s="3"/>
       <c r="L516" s="3"/>
@@ -13014,7 +12734,6 @@
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
-      <c r="I517" s="3"/>
       <c r="J517" s="3"/>
       <c r="K517" s="3"/>
       <c r="L517" s="3"/>
@@ -13036,7 +12755,6 @@
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
-      <c r="I518" s="3"/>
       <c r="J518" s="3"/>
       <c r="K518" s="3"/>
       <c r="L518" s="3"/>
@@ -13058,7 +12776,6 @@
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
-      <c r="I519" s="3"/>
       <c r="J519" s="3"/>
       <c r="K519" s="3"/>
       <c r="L519" s="3"/>
@@ -13080,7 +12797,6 @@
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
-      <c r="I520" s="3"/>
       <c r="J520" s="3"/>
       <c r="K520" s="3"/>
       <c r="L520" s="3"/>
@@ -13102,7 +12818,6 @@
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
-      <c r="I521" s="3"/>
       <c r="J521" s="3"/>
       <c r="K521" s="3"/>
       <c r="L521" s="3"/>
@@ -13124,7 +12839,6 @@
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
-      <c r="I522" s="3"/>
       <c r="J522" s="3"/>
       <c r="K522" s="3"/>
       <c r="L522" s="3"/>
@@ -13146,7 +12860,6 @@
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
-      <c r="I523" s="3"/>
       <c r="J523" s="3"/>
       <c r="K523" s="3"/>
       <c r="L523" s="3"/>
@@ -13168,7 +12881,6 @@
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
-      <c r="I524" s="3"/>
       <c r="J524" s="3"/>
       <c r="K524" s="3"/>
       <c r="L524" s="3"/>
@@ -13190,7 +12902,6 @@
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
-      <c r="I525" s="3"/>
       <c r="J525" s="3"/>
       <c r="K525" s="3"/>
       <c r="L525" s="3"/>
@@ -13212,7 +12923,6 @@
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
-      <c r="I526" s="3"/>
       <c r="J526" s="3"/>
       <c r="K526" s="3"/>
       <c r="L526" s="3"/>
@@ -13234,7 +12944,6 @@
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
-      <c r="I527" s="3"/>
       <c r="J527" s="3"/>
       <c r="K527" s="3"/>
       <c r="L527" s="3"/>
@@ -13256,7 +12965,6 @@
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
-      <c r="I528" s="3"/>
       <c r="J528" s="3"/>
       <c r="K528" s="3"/>
       <c r="L528" s="3"/>
@@ -13278,7 +12986,6 @@
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
-      <c r="I529" s="3"/>
       <c r="J529" s="3"/>
       <c r="K529" s="3"/>
       <c r="L529" s="3"/>
@@ -13300,7 +13007,6 @@
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
-      <c r="I530" s="3"/>
       <c r="J530" s="3"/>
       <c r="K530" s="3"/>
       <c r="L530" s="3"/>
@@ -13322,7 +13028,6 @@
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
-      <c r="I531" s="3"/>
       <c r="J531" s="3"/>
       <c r="K531" s="3"/>
       <c r="L531" s="3"/>
@@ -13344,7 +13049,6 @@
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
-      <c r="I532" s="3"/>
       <c r="J532" s="3"/>
       <c r="K532" s="3"/>
       <c r="L532" s="3"/>
@@ -13366,7 +13070,6 @@
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
-      <c r="I533" s="3"/>
       <c r="J533" s="3"/>
       <c r="K533" s="3"/>
       <c r="L533" s="3"/>
@@ -13388,7 +13091,6 @@
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
-      <c r="I534" s="3"/>
       <c r="J534" s="3"/>
       <c r="K534" s="3"/>
       <c r="L534" s="3"/>
@@ -13410,7 +13112,6 @@
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
-      <c r="I535" s="3"/>
       <c r="J535" s="3"/>
       <c r="K535" s="3"/>
       <c r="L535" s="3"/>
@@ -13432,7 +13133,6 @@
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
-      <c r="I536" s="3"/>
       <c r="J536" s="3"/>
       <c r="K536" s="3"/>
       <c r="L536" s="3"/>
@@ -13454,7 +13154,6 @@
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
-      <c r="I537" s="3"/>
       <c r="J537" s="3"/>
       <c r="K537" s="3"/>
       <c r="L537" s="3"/>
@@ -13476,7 +13175,6 @@
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
-      <c r="I538" s="3"/>
       <c r="J538" s="3"/>
       <c r="K538" s="3"/>
       <c r="L538" s="3"/>
@@ -13498,7 +13196,6 @@
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
-      <c r="I539" s="3"/>
       <c r="J539" s="3"/>
       <c r="K539" s="3"/>
       <c r="L539" s="3"/>
@@ -13520,7 +13217,6 @@
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
-      <c r="I540" s="3"/>
       <c r="J540" s="3"/>
       <c r="K540" s="3"/>
       <c r="L540" s="3"/>
@@ -13542,7 +13238,6 @@
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
-      <c r="I541" s="3"/>
       <c r="J541" s="3"/>
       <c r="K541" s="3"/>
       <c r="L541" s="3"/>
@@ -13564,7 +13259,6 @@
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
-      <c r="I542" s="3"/>
       <c r="J542" s="3"/>
       <c r="K542" s="3"/>
       <c r="L542" s="3"/>
@@ -13586,7 +13280,6 @@
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
-      <c r="I543" s="3"/>
       <c r="J543" s="3"/>
       <c r="K543" s="3"/>
       <c r="L543" s="3"/>
@@ -13608,7 +13301,6 @@
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
-      <c r="I544" s="3"/>
       <c r="J544" s="3"/>
       <c r="K544" s="3"/>
       <c r="L544" s="3"/>
@@ -13630,7 +13322,6 @@
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
-      <c r="I545" s="3"/>
       <c r="J545" s="3"/>
       <c r="K545" s="3"/>
       <c r="L545" s="3"/>
@@ -13652,7 +13343,6 @@
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
-      <c r="I546" s="3"/>
       <c r="J546" s="3"/>
       <c r="K546" s="3"/>
       <c r="L546" s="3"/>
@@ -13674,7 +13364,6 @@
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
-      <c r="I547" s="3"/>
       <c r="J547" s="3"/>
       <c r="K547" s="3"/>
       <c r="L547" s="3"/>
@@ -13696,7 +13385,6 @@
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
-      <c r="I548" s="3"/>
       <c r="J548" s="3"/>
       <c r="K548" s="3"/>
       <c r="L548" s="3"/>
@@ -13718,7 +13406,6 @@
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
-      <c r="I549" s="3"/>
       <c r="J549" s="3"/>
       <c r="K549" s="3"/>
       <c r="L549" s="3"/>
@@ -13740,7 +13427,6 @@
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
-      <c r="I550" s="3"/>
       <c r="J550" s="3"/>
       <c r="K550" s="3"/>
       <c r="L550" s="3"/>
@@ -13762,7 +13448,6 @@
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
-      <c r="I551" s="3"/>
       <c r="J551" s="3"/>
       <c r="K551" s="3"/>
       <c r="L551" s="3"/>
@@ -13784,7 +13469,6 @@
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
-      <c r="I552" s="3"/>
       <c r="J552" s="3"/>
       <c r="K552" s="3"/>
       <c r="L552" s="3"/>
@@ -13806,7 +13490,6 @@
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
-      <c r="I553" s="3"/>
       <c r="J553" s="3"/>
       <c r="K553" s="3"/>
       <c r="L553" s="3"/>
@@ -13828,7 +13511,6 @@
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
-      <c r="I554" s="3"/>
       <c r="J554" s="3"/>
       <c r="K554" s="3"/>
       <c r="L554" s="3"/>
@@ -13850,7 +13532,6 @@
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
-      <c r="I555" s="3"/>
       <c r="J555" s="3"/>
       <c r="K555" s="3"/>
       <c r="L555" s="3"/>
@@ -13872,7 +13553,6 @@
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
-      <c r="I556" s="3"/>
       <c r="J556" s="3"/>
       <c r="K556" s="3"/>
       <c r="L556" s="3"/>
@@ -13894,7 +13574,6 @@
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
-      <c r="I557" s="3"/>
       <c r="J557" s="3"/>
       <c r="K557" s="3"/>
       <c r="L557" s="3"/>
@@ -13916,7 +13595,6 @@
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
-      <c r="I558" s="3"/>
       <c r="J558" s="3"/>
       <c r="K558" s="3"/>
       <c r="L558" s="3"/>
@@ -13938,7 +13616,6 @@
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
-      <c r="I559" s="3"/>
       <c r="J559" s="3"/>
       <c r="K559" s="3"/>
       <c r="L559" s="3"/>
@@ -13960,7 +13637,6 @@
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
-      <c r="I560" s="3"/>
       <c r="J560" s="3"/>
       <c r="K560" s="3"/>
       <c r="L560" s="3"/>
@@ -13982,7 +13658,6 @@
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
-      <c r="I561" s="3"/>
       <c r="J561" s="3"/>
       <c r="K561" s="3"/>
       <c r="L561" s="3"/>
@@ -14004,7 +13679,6 @@
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
       <c r="H562" s="3"/>
-      <c r="I562" s="3"/>
       <c r="J562" s="3"/>
       <c r="K562" s="3"/>
       <c r="L562" s="3"/>
@@ -14026,7 +13700,6 @@
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
       <c r="H563" s="3"/>
-      <c r="I563" s="3"/>
       <c r="J563" s="3"/>
       <c r="K563" s="3"/>
       <c r="L563" s="3"/>
@@ -14048,7 +13721,6 @@
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
       <c r="H564" s="3"/>
-      <c r="I564" s="3"/>
       <c r="J564" s="3"/>
       <c r="K564" s="3"/>
       <c r="L564" s="3"/>
@@ -14070,7 +13742,6 @@
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
       <c r="H565" s="3"/>
-      <c r="I565" s="3"/>
       <c r="J565" s="3"/>
       <c r="K565" s="3"/>
       <c r="L565" s="3"/>
@@ -14092,7 +13763,6 @@
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
       <c r="H566" s="3"/>
-      <c r="I566" s="3"/>
       <c r="J566" s="3"/>
       <c r="K566" s="3"/>
       <c r="L566" s="3"/>
@@ -14114,7 +13784,6 @@
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
       <c r="H567" s="3"/>
-      <c r="I567" s="3"/>
       <c r="J567" s="3"/>
       <c r="K567" s="3"/>
       <c r="L567" s="3"/>
@@ -14136,7 +13805,6 @@
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
-      <c r="I568" s="3"/>
       <c r="J568" s="3"/>
       <c r="K568" s="3"/>
       <c r="L568" s="3"/>
@@ -14158,7 +13826,6 @@
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
       <c r="H569" s="3"/>
-      <c r="I569" s="3"/>
       <c r="J569" s="3"/>
       <c r="K569" s="3"/>
       <c r="L569" s="3"/>
@@ -14180,7 +13847,6 @@
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
-      <c r="I570" s="3"/>
       <c r="J570" s="3"/>
       <c r="K570" s="3"/>
       <c r="L570" s="3"/>
@@ -14202,7 +13868,6 @@
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
-      <c r="I571" s="3"/>
       <c r="J571" s="3"/>
       <c r="K571" s="3"/>
       <c r="L571" s="3"/>
@@ -14224,7 +13889,6 @@
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
       <c r="H572" s="3"/>
-      <c r="I572" s="3"/>
       <c r="J572" s="3"/>
       <c r="K572" s="3"/>
       <c r="L572" s="3"/>
@@ -14246,7 +13910,6 @@
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
       <c r="H573" s="3"/>
-      <c r="I573" s="3"/>
       <c r="J573" s="3"/>
       <c r="K573" s="3"/>
       <c r="L573" s="3"/>
@@ -14268,7 +13931,6 @@
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
       <c r="H574" s="3"/>
-      <c r="I574" s="3"/>
       <c r="J574" s="3"/>
       <c r="K574" s="3"/>
       <c r="L574" s="3"/>
@@ -14290,7 +13952,6 @@
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
       <c r="H575" s="3"/>
-      <c r="I575" s="3"/>
       <c r="J575" s="3"/>
       <c r="K575" s="3"/>
       <c r="L575" s="3"/>
@@ -14312,7 +13973,6 @@
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
       <c r="H576" s="3"/>
-      <c r="I576" s="3"/>
       <c r="J576" s="3"/>
       <c r="K576" s="3"/>
       <c r="L576" s="3"/>
@@ -14334,7 +13994,6 @@
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
       <c r="H577" s="3"/>
-      <c r="I577" s="3"/>
       <c r="J577" s="3"/>
       <c r="K577" s="3"/>
       <c r="L577" s="3"/>
@@ -14356,7 +14015,6 @@
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
       <c r="H578" s="3"/>
-      <c r="I578" s="3"/>
       <c r="J578" s="3"/>
       <c r="K578" s="3"/>
       <c r="L578" s="3"/>
@@ -14378,7 +14036,6 @@
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
       <c r="H579" s="3"/>
-      <c r="I579" s="3"/>
       <c r="J579" s="3"/>
       <c r="K579" s="3"/>
       <c r="L579" s="3"/>
@@ -14400,7 +14057,6 @@
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
       <c r="H580" s="3"/>
-      <c r="I580" s="3"/>
       <c r="J580" s="3"/>
       <c r="K580" s="3"/>
       <c r="L580" s="3"/>
@@ -14422,7 +14078,6 @@
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
       <c r="H581" s="3"/>
-      <c r="I581" s="3"/>
       <c r="J581" s="3"/>
       <c r="K581" s="3"/>
       <c r="L581" s="3"/>
@@ -14444,7 +14099,6 @@
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
       <c r="H582" s="3"/>
-      <c r="I582" s="3"/>
       <c r="J582" s="3"/>
       <c r="K582" s="3"/>
       <c r="L582" s="3"/>
@@ -14466,7 +14120,6 @@
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
       <c r="H583" s="3"/>
-      <c r="I583" s="3"/>
       <c r="J583" s="3"/>
       <c r="K583" s="3"/>
       <c r="L583" s="3"/>
@@ -14488,7 +14141,6 @@
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
       <c r="H584" s="3"/>
-      <c r="I584" s="3"/>
       <c r="J584" s="3"/>
       <c r="K584" s="3"/>
       <c r="L584" s="3"/>
@@ -14510,7 +14162,6 @@
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
       <c r="H585" s="3"/>
-      <c r="I585" s="3"/>
       <c r="J585" s="3"/>
       <c r="K585" s="3"/>
       <c r="L585" s="3"/>
@@ -14532,7 +14183,6 @@
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
       <c r="H586" s="3"/>
-      <c r="I586" s="3"/>
       <c r="J586" s="3"/>
       <c r="K586" s="3"/>
       <c r="L586" s="3"/>
@@ -14554,7 +14204,6 @@
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
       <c r="H587" s="3"/>
-      <c r="I587" s="3"/>
       <c r="J587" s="3"/>
       <c r="K587" s="3"/>
       <c r="L587" s="3"/>
@@ -14576,7 +14225,6 @@
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
       <c r="H588" s="3"/>
-      <c r="I588" s="3"/>
       <c r="J588" s="3"/>
       <c r="K588" s="3"/>
       <c r="L588" s="3"/>
@@ -14598,7 +14246,6 @@
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
       <c r="H589" s="3"/>
-      <c r="I589" s="3"/>
       <c r="J589" s="3"/>
       <c r="K589" s="3"/>
       <c r="L589" s="3"/>
@@ -14620,7 +14267,6 @@
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
       <c r="H590" s="3"/>
-      <c r="I590" s="3"/>
       <c r="J590" s="3"/>
       <c r="K590" s="3"/>
       <c r="L590" s="3"/>
@@ -14642,7 +14288,6 @@
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
       <c r="H591" s="3"/>
-      <c r="I591" s="3"/>
       <c r="J591" s="3"/>
       <c r="K591" s="3"/>
       <c r="L591" s="3"/>
@@ -14664,7 +14309,6 @@
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
       <c r="H592" s="3"/>
-      <c r="I592" s="3"/>
       <c r="J592" s="3"/>
       <c r="K592" s="3"/>
       <c r="L592" s="3"/>
@@ -14686,7 +14330,6 @@
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
       <c r="H593" s="3"/>
-      <c r="I593" s="3"/>
       <c r="J593" s="3"/>
       <c r="K593" s="3"/>
       <c r="L593" s="3"/>
@@ -14708,7 +14351,6 @@
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
       <c r="H594" s="3"/>
-      <c r="I594" s="3"/>
       <c r="J594" s="3"/>
       <c r="K594" s="3"/>
       <c r="L594" s="3"/>
@@ -14730,7 +14372,6 @@
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
       <c r="H595" s="3"/>
-      <c r="I595" s="3"/>
       <c r="J595" s="3"/>
       <c r="K595" s="3"/>
       <c r="L595" s="3"/>
@@ -14752,7 +14393,6 @@
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
       <c r="H596" s="3"/>
-      <c r="I596" s="3"/>
       <c r="J596" s="3"/>
       <c r="K596" s="3"/>
       <c r="L596" s="3"/>
@@ -14774,7 +14414,6 @@
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
       <c r="H597" s="3"/>
-      <c r="I597" s="3"/>
       <c r="J597" s="3"/>
       <c r="K597" s="3"/>
       <c r="L597" s="3"/>
@@ -14796,7 +14435,6 @@
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
       <c r="H598" s="3"/>
-      <c r="I598" s="3"/>
       <c r="J598" s="3"/>
       <c r="K598" s="3"/>
       <c r="L598" s="3"/>
@@ -14818,7 +14456,6 @@
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
       <c r="H599" s="3"/>
-      <c r="I599" s="3"/>
       <c r="J599" s="3"/>
       <c r="K599" s="3"/>
       <c r="L599" s="3"/>
@@ -14840,7 +14477,6 @@
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
       <c r="H600" s="3"/>
-      <c r="I600" s="3"/>
       <c r="J600" s="3"/>
       <c r="K600" s="3"/>
       <c r="L600" s="3"/>
@@ -14862,7 +14498,6 @@
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
       <c r="H601" s="3"/>
-      <c r="I601" s="3"/>
       <c r="J601" s="3"/>
       <c r="K601" s="3"/>
       <c r="L601" s="3"/>
@@ -14884,7 +14519,6 @@
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
       <c r="H602" s="3"/>
-      <c r="I602" s="3"/>
       <c r="J602" s="3"/>
       <c r="K602" s="3"/>
       <c r="L602" s="3"/>
@@ -14906,7 +14540,6 @@
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
       <c r="H603" s="3"/>
-      <c r="I603" s="3"/>
       <c r="J603" s="3"/>
       <c r="K603" s="3"/>
       <c r="L603" s="3"/>
@@ -14928,7 +14561,6 @@
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
       <c r="H604" s="3"/>
-      <c r="I604" s="3"/>
       <c r="J604" s="3"/>
       <c r="K604" s="3"/>
       <c r="L604" s="3"/>
@@ -14950,7 +14582,6 @@
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
       <c r="H605" s="3"/>
-      <c r="I605" s="3"/>
       <c r="J605" s="3"/>
       <c r="K605" s="3"/>
       <c r="L605" s="3"/>
@@ -14972,7 +14603,6 @@
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
       <c r="H606" s="3"/>
-      <c r="I606" s="3"/>
       <c r="J606" s="3"/>
       <c r="K606" s="3"/>
       <c r="L606" s="3"/>
@@ -14994,7 +14624,6 @@
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
       <c r="H607" s="3"/>
-      <c r="I607" s="3"/>
       <c r="J607" s="3"/>
       <c r="K607" s="3"/>
       <c r="L607" s="3"/>
@@ -15016,7 +14645,6 @@
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
       <c r="H608" s="3"/>
-      <c r="I608" s="3"/>
       <c r="J608" s="3"/>
       <c r="K608" s="3"/>
       <c r="L608" s="3"/>
@@ -15038,7 +14666,6 @@
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
       <c r="H609" s="3"/>
-      <c r="I609" s="3"/>
       <c r="J609" s="3"/>
       <c r="K609" s="3"/>
       <c r="L609" s="3"/>
@@ -15060,7 +14687,6 @@
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
       <c r="H610" s="3"/>
-      <c r="I610" s="3"/>
       <c r="J610" s="3"/>
       <c r="K610" s="3"/>
       <c r="L610" s="3"/>
@@ -15082,7 +14708,6 @@
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
       <c r="H611" s="3"/>
-      <c r="I611" s="3"/>
       <c r="J611" s="3"/>
       <c r="K611" s="3"/>
       <c r="L611" s="3"/>
@@ -15104,7 +14729,6 @@
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
       <c r="H612" s="3"/>
-      <c r="I612" s="3"/>
       <c r="J612" s="3"/>
       <c r="K612" s="3"/>
       <c r="L612" s="3"/>
@@ -15126,7 +14750,6 @@
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
       <c r="H613" s="3"/>
-      <c r="I613" s="3"/>
       <c r="J613" s="3"/>
       <c r="K613" s="3"/>
       <c r="L613" s="3"/>
@@ -15148,7 +14771,6 @@
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
       <c r="H614" s="3"/>
-      <c r="I614" s="3"/>
       <c r="J614" s="3"/>
       <c r="K614" s="3"/>
       <c r="L614" s="3"/>
@@ -15170,7 +14792,6 @@
       <c r="F615" s="3"/>
       <c r="G615" s="3"/>
       <c r="H615" s="3"/>
-      <c r="I615" s="3"/>
       <c r="J615" s="3"/>
       <c r="K615" s="3"/>
       <c r="L615" s="3"/>
@@ -15192,7 +14813,6 @@
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
       <c r="H616" s="3"/>
-      <c r="I616" s="3"/>
       <c r="J616" s="3"/>
       <c r="K616" s="3"/>
       <c r="L616" s="3"/>
@@ -15214,7 +14834,6 @@
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
       <c r="H617" s="3"/>
-      <c r="I617" s="3"/>
       <c r="J617" s="3"/>
       <c r="K617" s="3"/>
       <c r="L617" s="3"/>
@@ -15236,7 +14855,6 @@
       <c r="F618" s="3"/>
       <c r="G618" s="3"/>
       <c r="H618" s="3"/>
-      <c r="I618" s="3"/>
       <c r="J618" s="3"/>
       <c r="K618" s="3"/>
       <c r="L618" s="3"/>
@@ -15258,7 +14876,6 @@
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
       <c r="H619" s="3"/>
-      <c r="I619" s="3"/>
       <c r="J619" s="3"/>
       <c r="K619" s="3"/>
       <c r="L619" s="3"/>
@@ -15280,7 +14897,6 @@
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
       <c r="H620" s="3"/>
-      <c r="I620" s="3"/>
       <c r="J620" s="3"/>
       <c r="K620" s="3"/>
       <c r="L620" s="3"/>
@@ -15302,7 +14918,6 @@
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
       <c r="H621" s="3"/>
-      <c r="I621" s="3"/>
       <c r="J621" s="3"/>
       <c r="K621" s="3"/>
       <c r="L621" s="3"/>
@@ -15324,7 +14939,6 @@
       <c r="F622" s="3"/>
       <c r="G622" s="3"/>
       <c r="H622" s="3"/>
-      <c r="I622" s="3"/>
       <c r="J622" s="3"/>
       <c r="K622" s="3"/>
       <c r="L622" s="3"/>
@@ -15346,7 +14960,6 @@
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
       <c r="H623" s="3"/>
-      <c r="I623" s="3"/>
       <c r="J623" s="3"/>
       <c r="K623" s="3"/>
       <c r="L623" s="3"/>
@@ -15368,7 +14981,6 @@
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
       <c r="H624" s="3"/>
-      <c r="I624" s="3"/>
       <c r="J624" s="3"/>
       <c r="K624" s="3"/>
       <c r="L624" s="3"/>
@@ -15390,7 +15002,6 @@
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
       <c r="H625" s="3"/>
-      <c r="I625" s="3"/>
       <c r="J625" s="3"/>
       <c r="K625" s="3"/>
       <c r="L625" s="3"/>
@@ -15412,7 +15023,6 @@
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
       <c r="H626" s="3"/>
-      <c r="I626" s="3"/>
       <c r="J626" s="3"/>
       <c r="K626" s="3"/>
       <c r="L626" s="3"/>
@@ -15434,7 +15044,6 @@
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
       <c r="H627" s="3"/>
-      <c r="I627" s="3"/>
       <c r="J627" s="3"/>
       <c r="K627" s="3"/>
       <c r="L627" s="3"/>
@@ -15456,7 +15065,6 @@
       <c r="F628" s="3"/>
       <c r="G628" s="3"/>
       <c r="H628" s="3"/>
-      <c r="I628" s="3"/>
       <c r="J628" s="3"/>
       <c r="K628" s="3"/>
       <c r="L628" s="3"/>
@@ -15478,7 +15086,6 @@
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
       <c r="H629" s="3"/>
-      <c r="I629" s="3"/>
       <c r="J629" s="3"/>
       <c r="K629" s="3"/>
       <c r="L629" s="3"/>
@@ -15500,7 +15107,6 @@
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
       <c r="H630" s="3"/>
-      <c r="I630" s="3"/>
       <c r="J630" s="3"/>
       <c r="K630" s="3"/>
       <c r="L630" s="3"/>
@@ -15522,7 +15128,6 @@
       <c r="F631" s="3"/>
       <c r="G631" s="3"/>
       <c r="H631" s="3"/>
-      <c r="I631" s="3"/>
       <c r="J631" s="3"/>
       <c r="K631" s="3"/>
       <c r="L631" s="3"/>
@@ -15544,7 +15149,6 @@
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
       <c r="H632" s="3"/>
-      <c r="I632" s="3"/>
       <c r="J632" s="3"/>
       <c r="K632" s="3"/>
       <c r="L632" s="3"/>
@@ -15566,7 +15170,6 @@
       <c r="F633" s="3"/>
       <c r="G633" s="3"/>
       <c r="H633" s="3"/>
-      <c r="I633" s="3"/>
       <c r="J633" s="3"/>
       <c r="K633" s="3"/>
       <c r="L633" s="3"/>
@@ -15588,7 +15191,6 @@
       <c r="F634" s="3"/>
       <c r="G634" s="3"/>
       <c r="H634" s="3"/>
-      <c r="I634" s="3"/>
       <c r="J634" s="3"/>
       <c r="K634" s="3"/>
       <c r="L634" s="3"/>
@@ -15610,7 +15212,6 @@
       <c r="F635" s="3"/>
       <c r="G635" s="3"/>
       <c r="H635" s="3"/>
-      <c r="I635" s="3"/>
       <c r="J635" s="3"/>
       <c r="K635" s="3"/>
       <c r="L635" s="3"/>
@@ -15632,7 +15233,6 @@
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
-      <c r="I636" s="3"/>
       <c r="J636" s="3"/>
       <c r="K636" s="3"/>
       <c r="L636" s="3"/>
@@ -15654,7 +15254,6 @@
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
       <c r="H637" s="3"/>
-      <c r="I637" s="3"/>
       <c r="J637" s="3"/>
       <c r="K637" s="3"/>
       <c r="L637" s="3"/>
@@ -15676,7 +15275,6 @@
       <c r="F638" s="3"/>
       <c r="G638" s="3"/>
       <c r="H638" s="3"/>
-      <c r="I638" s="3"/>
       <c r="J638" s="3"/>
       <c r="K638" s="3"/>
       <c r="L638" s="3"/>
@@ -15698,7 +15296,6 @@
       <c r="F639" s="3"/>
       <c r="G639" s="3"/>
       <c r="H639" s="3"/>
-      <c r="I639" s="3"/>
       <c r="J639" s="3"/>
       <c r="K639" s="3"/>
       <c r="L639" s="3"/>
@@ -15720,7 +15317,6 @@
       <c r="F640" s="3"/>
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
-      <c r="I640" s="3"/>
       <c r="J640" s="3"/>
       <c r="K640" s="3"/>
       <c r="L640" s="3"/>
@@ -15742,7 +15338,6 @@
       <c r="F641" s="3"/>
       <c r="G641" s="3"/>
       <c r="H641" s="3"/>
-      <c r="I641" s="3"/>
       <c r="J641" s="3"/>
       <c r="K641" s="3"/>
       <c r="L641" s="3"/>
@@ -15764,7 +15359,6 @@
       <c r="F642" s="3"/>
       <c r="G642" s="3"/>
       <c r="H642" s="3"/>
-      <c r="I642" s="3"/>
       <c r="J642" s="3"/>
       <c r="K642" s="3"/>
       <c r="L642" s="3"/>
@@ -15786,7 +15380,6 @@
       <c r="F643" s="3"/>
       <c r="G643" s="3"/>
       <c r="H643" s="3"/>
-      <c r="I643" s="3"/>
       <c r="J643" s="3"/>
       <c r="K643" s="3"/>
       <c r="L643" s="3"/>
@@ -15808,7 +15401,6 @@
       <c r="F644" s="3"/>
       <c r="G644" s="3"/>
       <c r="H644" s="3"/>
-      <c r="I644" s="3"/>
       <c r="J644" s="3"/>
       <c r="K644" s="3"/>
       <c r="L644" s="3"/>
@@ -15830,7 +15422,6 @@
       <c r="F645" s="3"/>
       <c r="G645" s="3"/>
       <c r="H645" s="3"/>
-      <c r="I645" s="3"/>
       <c r="J645" s="3"/>
       <c r="K645" s="3"/>
       <c r="L645" s="3"/>
@@ -15852,7 +15443,6 @@
       <c r="F646" s="3"/>
       <c r="G646" s="3"/>
       <c r="H646" s="3"/>
-      <c r="I646" s="3"/>
       <c r="J646" s="3"/>
       <c r="K646" s="3"/>
       <c r="L646" s="3"/>
@@ -15874,7 +15464,6 @@
       <c r="F647" s="3"/>
       <c r="G647" s="3"/>
       <c r="H647" s="3"/>
-      <c r="I647" s="3"/>
       <c r="J647" s="3"/>
       <c r="K647" s="3"/>
       <c r="L647" s="3"/>
@@ -15896,7 +15485,6 @@
       <c r="F648" s="3"/>
       <c r="G648" s="3"/>
       <c r="H648" s="3"/>
-      <c r="I648" s="3"/>
       <c r="J648" s="3"/>
       <c r="K648" s="3"/>
       <c r="L648" s="3"/>
@@ -15918,7 +15506,6 @@
       <c r="F649" s="3"/>
       <c r="G649" s="3"/>
       <c r="H649" s="3"/>
-      <c r="I649" s="3"/>
       <c r="J649" s="3"/>
       <c r="K649" s="3"/>
       <c r="L649" s="3"/>
@@ -15940,7 +15527,6 @@
       <c r="F650" s="3"/>
       <c r="G650" s="3"/>
       <c r="H650" s="3"/>
-      <c r="I650" s="3"/>
       <c r="J650" s="3"/>
       <c r="K650" s="3"/>
       <c r="L650" s="3"/>
@@ -15962,7 +15548,6 @@
       <c r="F651" s="3"/>
       <c r="G651" s="3"/>
       <c r="H651" s="3"/>
-      <c r="I651" s="3"/>
       <c r="J651" s="3"/>
       <c r="K651" s="3"/>
       <c r="L651" s="3"/>
@@ -15984,7 +15569,6 @@
       <c r="F652" s="3"/>
       <c r="G652" s="3"/>
       <c r="H652" s="3"/>
-      <c r="I652" s="3"/>
       <c r="J652" s="3"/>
       <c r="K652" s="3"/>
       <c r="L652" s="3"/>
@@ -16006,7 +15590,6 @@
       <c r="F653" s="3"/>
       <c r="G653" s="3"/>
       <c r="H653" s="3"/>
-      <c r="I653" s="3"/>
       <c r="J653" s="3"/>
       <c r="K653" s="3"/>
       <c r="L653" s="3"/>
@@ -16028,7 +15611,6 @@
       <c r="F654" s="3"/>
       <c r="G654" s="3"/>
       <c r="H654" s="3"/>
-      <c r="I654" s="3"/>
       <c r="J654" s="3"/>
       <c r="K654" s="3"/>
       <c r="L654" s="3"/>
@@ -16050,7 +15632,6 @@
       <c r="F655" s="3"/>
       <c r="G655" s="3"/>
       <c r="H655" s="3"/>
-      <c r="I655" s="3"/>
       <c r="J655" s="3"/>
       <c r="K655" s="3"/>
       <c r="L655" s="3"/>
@@ -16072,7 +15653,6 @@
       <c r="F656" s="3"/>
       <c r="G656" s="3"/>
       <c r="H656" s="3"/>
-      <c r="I656" s="3"/>
       <c r="J656" s="3"/>
       <c r="K656" s="3"/>
       <c r="L656" s="3"/>
@@ -16094,7 +15674,6 @@
       <c r="F657" s="3"/>
       <c r="G657" s="3"/>
       <c r="H657" s="3"/>
-      <c r="I657" s="3"/>
       <c r="J657" s="3"/>
       <c r="K657" s="3"/>
       <c r="L657" s="3"/>
@@ -16116,7 +15695,6 @@
       <c r="F658" s="3"/>
       <c r="G658" s="3"/>
       <c r="H658" s="3"/>
-      <c r="I658" s="3"/>
       <c r="J658" s="3"/>
       <c r="K658" s="3"/>
       <c r="L658" s="3"/>
@@ -16138,7 +15716,6 @@
       <c r="F659" s="3"/>
       <c r="G659" s="3"/>
       <c r="H659" s="3"/>
-      <c r="I659" s="3"/>
       <c r="J659" s="3"/>
       <c r="K659" s="3"/>
       <c r="L659" s="3"/>
@@ -16160,7 +15737,6 @@
       <c r="F660" s="3"/>
       <c r="G660" s="3"/>
       <c r="H660" s="3"/>
-      <c r="I660" s="3"/>
       <c r="J660" s="3"/>
       <c r="K660" s="3"/>
       <c r="L660" s="3"/>
@@ -16182,7 +15758,6 @@
       <c r="F661" s="3"/>
       <c r="G661" s="3"/>
       <c r="H661" s="3"/>
-      <c r="I661" s="3"/>
       <c r="J661" s="3"/>
       <c r="K661" s="3"/>
       <c r="L661" s="3"/>
@@ -16204,7 +15779,6 @@
       <c r="F662" s="3"/>
       <c r="G662" s="3"/>
       <c r="H662" s="3"/>
-      <c r="I662" s="3"/>
       <c r="J662" s="3"/>
       <c r="K662" s="3"/>
       <c r="L662" s="3"/>
@@ -16226,7 +15800,6 @@
       <c r="F663" s="3"/>
       <c r="G663" s="3"/>
       <c r="H663" s="3"/>
-      <c r="I663" s="3"/>
       <c r="J663" s="3"/>
       <c r="K663" s="3"/>
       <c r="L663" s="3"/>
@@ -16248,7 +15821,6 @@
       <c r="F664" s="3"/>
       <c r="G664" s="3"/>
       <c r="H664" s="3"/>
-      <c r="I664" s="3"/>
       <c r="J664" s="3"/>
       <c r="K664" s="3"/>
       <c r="L664" s="3"/>
@@ -16270,7 +15842,6 @@
       <c r="F665" s="3"/>
       <c r="G665" s="3"/>
       <c r="H665" s="3"/>
-      <c r="I665" s="3"/>
       <c r="J665" s="3"/>
       <c r="K665" s="3"/>
       <c r="L665" s="3"/>
@@ -16292,7 +15863,6 @@
       <c r="F666" s="3"/>
       <c r="G666" s="3"/>
       <c r="H666" s="3"/>
-      <c r="I666" s="3"/>
       <c r="J666" s="3"/>
       <c r="K666" s="3"/>
       <c r="L666" s="3"/>
@@ -16314,7 +15884,6 @@
       <c r="F667" s="3"/>
       <c r="G667" s="3"/>
       <c r="H667" s="3"/>
-      <c r="I667" s="3"/>
       <c r="J667" s="3"/>
       <c r="K667" s="3"/>
       <c r="L667" s="3"/>
@@ -16336,7 +15905,6 @@
       <c r="F668" s="3"/>
       <c r="G668" s="3"/>
       <c r="H668" s="3"/>
-      <c r="I668" s="3"/>
       <c r="J668" s="3"/>
       <c r="K668" s="3"/>
       <c r="L668" s="3"/>
@@ -16358,7 +15926,6 @@
       <c r="F669" s="3"/>
       <c r="G669" s="3"/>
       <c r="H669" s="3"/>
-      <c r="I669" s="3"/>
       <c r="J669" s="3"/>
       <c r="K669" s="3"/>
       <c r="L669" s="3"/>
@@ -16380,7 +15947,6 @@
       <c r="F670" s="3"/>
       <c r="G670" s="3"/>
       <c r="H670" s="3"/>
-      <c r="I670" s="3"/>
       <c r="J670" s="3"/>
       <c r="K670" s="3"/>
       <c r="L670" s="3"/>
@@ -16402,7 +15968,6 @@
       <c r="F671" s="3"/>
       <c r="G671" s="3"/>
       <c r="H671" s="3"/>
-      <c r="I671" s="3"/>
       <c r="J671" s="3"/>
       <c r="K671" s="3"/>
       <c r="L671" s="3"/>
@@ -16424,7 +15989,6 @@
       <c r="F672" s="3"/>
       <c r="G672" s="3"/>
       <c r="H672" s="3"/>
-      <c r="I672" s="3"/>
       <c r="J672" s="3"/>
       <c r="K672" s="3"/>
       <c r="L672" s="3"/>
@@ -16446,7 +16010,6 @@
       <c r="F673" s="3"/>
       <c r="G673" s="3"/>
       <c r="H673" s="3"/>
-      <c r="I673" s="3"/>
       <c r="J673" s="3"/>
       <c r="K673" s="3"/>
       <c r="L673" s="3"/>
@@ -16468,7 +16031,6 @@
       <c r="F674" s="3"/>
       <c r="G674" s="3"/>
       <c r="H674" s="3"/>
-      <c r="I674" s="3"/>
       <c r="J674" s="3"/>
       <c r="K674" s="3"/>
       <c r="L674" s="3"/>
@@ -16490,7 +16052,6 @@
       <c r="F675" s="3"/>
       <c r="G675" s="3"/>
       <c r="H675" s="3"/>
-      <c r="I675" s="3"/>
       <c r="J675" s="3"/>
       <c r="K675" s="3"/>
       <c r="L675" s="3"/>
@@ -16512,7 +16073,6 @@
       <c r="F676" s="3"/>
       <c r="G676" s="3"/>
       <c r="H676" s="3"/>
-      <c r="I676" s="3"/>
       <c r="J676" s="3"/>
       <c r="K676" s="3"/>
       <c r="L676" s="3"/>
@@ -16534,7 +16094,6 @@
       <c r="F677" s="3"/>
       <c r="G677" s="3"/>
       <c r="H677" s="3"/>
-      <c r="I677" s="3"/>
       <c r="J677" s="3"/>
       <c r="K677" s="3"/>
       <c r="L677" s="3"/>
@@ -16556,7 +16115,6 @@
       <c r="F678" s="3"/>
       <c r="G678" s="3"/>
       <c r="H678" s="3"/>
-      <c r="I678" s="3"/>
       <c r="J678" s="3"/>
       <c r="K678" s="3"/>
       <c r="L678" s="3"/>
@@ -16578,7 +16136,6 @@
       <c r="F679" s="3"/>
       <c r="G679" s="3"/>
       <c r="H679" s="3"/>
-      <c r="I679" s="3"/>
       <c r="J679" s="3"/>
       <c r="K679" s="3"/>
       <c r="L679" s="3"/>
@@ -16600,7 +16157,6 @@
       <c r="F680" s="3"/>
       <c r="G680" s="3"/>
       <c r="H680" s="3"/>
-      <c r="I680" s="3"/>
       <c r="J680" s="3"/>
       <c r="K680" s="3"/>
       <c r="L680" s="3"/>
@@ -16622,7 +16178,6 @@
       <c r="F681" s="3"/>
       <c r="G681" s="3"/>
       <c r="H681" s="3"/>
-      <c r="I681" s="3"/>
       <c r="J681" s="3"/>
       <c r="K681" s="3"/>
       <c r="L681" s="3"/>
@@ -16644,7 +16199,6 @@
       <c r="F682" s="3"/>
       <c r="G682" s="3"/>
       <c r="H682" s="3"/>
-      <c r="I682" s="3"/>
       <c r="J682" s="3"/>
       <c r="K682" s="3"/>
       <c r="L682" s="3"/>
@@ -16666,7 +16220,6 @@
       <c r="F683" s="3"/>
       <c r="G683" s="3"/>
       <c r="H683" s="3"/>
-      <c r="I683" s="3"/>
       <c r="J683" s="3"/>
       <c r="K683" s="3"/>
       <c r="L683" s="3"/>
@@ -16688,7 +16241,6 @@
       <c r="F684" s="3"/>
       <c r="G684" s="3"/>
       <c r="H684" s="3"/>
-      <c r="I684" s="3"/>
       <c r="J684" s="3"/>
       <c r="K684" s="3"/>
       <c r="L684" s="3"/>
@@ -16710,7 +16262,6 @@
       <c r="F685" s="3"/>
       <c r="G685" s="3"/>
       <c r="H685" s="3"/>
-      <c r="I685" s="3"/>
       <c r="J685" s="3"/>
       <c r="K685" s="3"/>
       <c r="L685" s="3"/>
@@ -16732,7 +16283,6 @@
       <c r="F686" s="3"/>
       <c r="G686" s="3"/>
       <c r="H686" s="3"/>
-      <c r="I686" s="3"/>
       <c r="J686" s="3"/>
       <c r="K686" s="3"/>
       <c r="L686" s="3"/>
@@ -16754,7 +16304,6 @@
       <c r="F687" s="3"/>
       <c r="G687" s="3"/>
       <c r="H687" s="3"/>
-      <c r="I687" s="3"/>
       <c r="J687" s="3"/>
       <c r="K687" s="3"/>
       <c r="L687" s="3"/>
@@ -16776,7 +16325,6 @@
       <c r="F688" s="3"/>
       <c r="G688" s="3"/>
       <c r="H688" s="3"/>
-      <c r="I688" s="3"/>
       <c r="J688" s="3"/>
       <c r="K688" s="3"/>
       <c r="L688" s="3"/>
@@ -16798,7 +16346,6 @@
       <c r="F689" s="3"/>
       <c r="G689" s="3"/>
       <c r="H689" s="3"/>
-      <c r="I689" s="3"/>
       <c r="J689" s="3"/>
       <c r="K689" s="3"/>
       <c r="L689" s="3"/>
@@ -16820,7 +16367,6 @@
       <c r="F690" s="3"/>
       <c r="G690" s="3"/>
       <c r="H690" s="3"/>
-      <c r="I690" s="3"/>
       <c r="J690" s="3"/>
       <c r="K690" s="3"/>
       <c r="L690" s="3"/>
@@ -16842,7 +16388,6 @@
       <c r="F691" s="3"/>
       <c r="G691" s="3"/>
       <c r="H691" s="3"/>
-      <c r="I691" s="3"/>
       <c r="J691" s="3"/>
       <c r="K691" s="3"/>
       <c r="L691" s="3"/>
@@ -16864,7 +16409,6 @@
       <c r="F692" s="3"/>
       <c r="G692" s="3"/>
       <c r="H692" s="3"/>
-      <c r="I692" s="3"/>
       <c r="J692" s="3"/>
       <c r="K692" s="3"/>
       <c r="L692" s="3"/>
@@ -16886,7 +16430,6 @@
       <c r="F693" s="3"/>
       <c r="G693" s="3"/>
       <c r="H693" s="3"/>
-      <c r="I693" s="3"/>
       <c r="J693" s="3"/>
       <c r="K693" s="3"/>
       <c r="L693" s="3"/>
@@ -16908,7 +16451,6 @@
       <c r="F694" s="3"/>
       <c r="G694" s="3"/>
       <c r="H694" s="3"/>
-      <c r="I694" s="3"/>
       <c r="J694" s="3"/>
       <c r="K694" s="3"/>
       <c r="L694" s="3"/>
@@ -16930,7 +16472,6 @@
       <c r="F695" s="3"/>
       <c r="G695" s="3"/>
       <c r="H695" s="3"/>
-      <c r="I695" s="3"/>
       <c r="J695" s="3"/>
       <c r="K695" s="3"/>
       <c r="L695" s="3"/>
@@ -16952,7 +16493,6 @@
       <c r="F696" s="3"/>
       <c r="G696" s="3"/>
       <c r="H696" s="3"/>
-      <c r="I696" s="3"/>
       <c r="J696" s="3"/>
       <c r="K696" s="3"/>
       <c r="L696" s="3"/>
@@ -16974,7 +16514,6 @@
       <c r="F697" s="3"/>
       <c r="G697" s="3"/>
       <c r="H697" s="3"/>
-      <c r="I697" s="3"/>
       <c r="J697" s="3"/>
       <c r="K697" s="3"/>
       <c r="L697" s="3"/>
@@ -16996,7 +16535,6 @@
       <c r="F698" s="3"/>
       <c r="G698" s="3"/>
       <c r="H698" s="3"/>
-      <c r="I698" s="3"/>
       <c r="J698" s="3"/>
       <c r="K698" s="3"/>
       <c r="L698" s="3"/>
@@ -17018,7 +16556,6 @@
       <c r="F699" s="3"/>
       <c r="G699" s="3"/>
       <c r="H699" s="3"/>
-      <c r="I699" s="3"/>
       <c r="J699" s="3"/>
       <c r="K699" s="3"/>
       <c r="L699" s="3"/>
@@ -17040,7 +16577,6 @@
       <c r="F700" s="3"/>
       <c r="G700" s="3"/>
       <c r="H700" s="3"/>
-      <c r="I700" s="3"/>
       <c r="J700" s="3"/>
       <c r="K700" s="3"/>
       <c r="L700" s="3"/>
@@ -17062,7 +16598,6 @@
       <c r="F701" s="3"/>
       <c r="G701" s="3"/>
       <c r="H701" s="3"/>
-      <c r="I701" s="3"/>
       <c r="J701" s="3"/>
       <c r="K701" s="3"/>
       <c r="L701" s="3"/>
@@ -17084,7 +16619,6 @@
       <c r="F702" s="3"/>
       <c r="G702" s="3"/>
       <c r="H702" s="3"/>
-      <c r="I702" s="3"/>
       <c r="J702" s="3"/>
       <c r="K702" s="3"/>
       <c r="L702" s="3"/>
@@ -17106,7 +16640,6 @@
       <c r="F703" s="3"/>
       <c r="G703" s="3"/>
       <c r="H703" s="3"/>
-      <c r="I703" s="3"/>
       <c r="J703" s="3"/>
       <c r="K703" s="3"/>
       <c r="L703" s="3"/>
@@ -17128,7 +16661,6 @@
       <c r="F704" s="3"/>
       <c r="G704" s="3"/>
       <c r="H704" s="3"/>
-      <c r="I704" s="3"/>
       <c r="J704" s="3"/>
       <c r="K704" s="3"/>
       <c r="L704" s="3"/>
@@ -17150,7 +16682,6 @@
       <c r="F705" s="3"/>
       <c r="G705" s="3"/>
       <c r="H705" s="3"/>
-      <c r="I705" s="3"/>
       <c r="J705" s="3"/>
       <c r="K705" s="3"/>
       <c r="L705" s="3"/>
@@ -17172,7 +16703,6 @@
       <c r="F706" s="3"/>
       <c r="G706" s="3"/>
       <c r="H706" s="3"/>
-      <c r="I706" s="3"/>
       <c r="J706" s="3"/>
       <c r="K706" s="3"/>
       <c r="L706" s="3"/>
@@ -17194,7 +16724,6 @@
       <c r="F707" s="3"/>
       <c r="G707" s="3"/>
       <c r="H707" s="3"/>
-      <c r="I707" s="3"/>
       <c r="J707" s="3"/>
       <c r="K707" s="3"/>
       <c r="L707" s="3"/>
@@ -17216,7 +16745,6 @@
       <c r="F708" s="3"/>
       <c r="G708" s="3"/>
       <c r="H708" s="3"/>
-      <c r="I708" s="3"/>
       <c r="J708" s="3"/>
       <c r="K708" s="3"/>
       <c r="L708" s="3"/>
@@ -17238,7 +16766,6 @@
       <c r="F709" s="3"/>
       <c r="G709" s="3"/>
       <c r="H709" s="3"/>
-      <c r="I709" s="3"/>
       <c r="J709" s="3"/>
       <c r="K709" s="3"/>
       <c r="L709" s="3"/>
@@ -17260,7 +16787,6 @@
       <c r="F710" s="3"/>
       <c r="G710" s="3"/>
       <c r="H710" s="3"/>
-      <c r="I710" s="3"/>
       <c r="J710" s="3"/>
       <c r="K710" s="3"/>
       <c r="L710" s="3"/>
@@ -17282,7 +16808,6 @@
       <c r="F711" s="3"/>
       <c r="G711" s="3"/>
       <c r="H711" s="3"/>
-      <c r="I711" s="3"/>
       <c r="J711" s="3"/>
       <c r="K711" s="3"/>
       <c r="L711" s="3"/>
@@ -17304,7 +16829,6 @@
       <c r="F712" s="3"/>
       <c r="G712" s="3"/>
       <c r="H712" s="3"/>
-      <c r="I712" s="3"/>
       <c r="J712" s="3"/>
       <c r="K712" s="3"/>
       <c r="L712" s="3"/>
@@ -17326,7 +16850,6 @@
       <c r="F713" s="3"/>
       <c r="G713" s="3"/>
       <c r="H713" s="3"/>
-      <c r="I713" s="3"/>
       <c r="J713" s="3"/>
       <c r="K713" s="3"/>
       <c r="L713" s="3"/>
@@ -17348,7 +16871,6 @@
       <c r="F714" s="3"/>
       <c r="G714" s="3"/>
       <c r="H714" s="3"/>
-      <c r="I714" s="3"/>
       <c r="J714" s="3"/>
       <c r="K714" s="3"/>
       <c r="L714" s="3"/>
@@ -17370,7 +16892,6 @@
       <c r="F715" s="3"/>
       <c r="G715" s="3"/>
       <c r="H715" s="3"/>
-      <c r="I715" s="3"/>
       <c r="J715" s="3"/>
       <c r="K715" s="3"/>
       <c r="L715" s="3"/>
@@ -17392,7 +16913,6 @@
       <c r="F716" s="3"/>
       <c r="G716" s="3"/>
       <c r="H716" s="3"/>
-      <c r="I716" s="3"/>
       <c r="J716" s="3"/>
       <c r="K716" s="3"/>
       <c r="L716" s="3"/>
@@ -17414,7 +16934,6 @@
       <c r="F717" s="3"/>
       <c r="G717" s="3"/>
       <c r="H717" s="3"/>
-      <c r="I717" s="3"/>
       <c r="J717" s="3"/>
       <c r="K717" s="3"/>
       <c r="L717" s="3"/>
@@ -17436,7 +16955,6 @@
       <c r="F718" s="3"/>
       <c r="G718" s="3"/>
       <c r="H718" s="3"/>
-      <c r="I718" s="3"/>
       <c r="J718" s="3"/>
       <c r="K718" s="3"/>
       <c r="L718" s="3"/>
@@ -17458,7 +16976,6 @@
       <c r="F719" s="3"/>
       <c r="G719" s="3"/>
       <c r="H719" s="3"/>
-      <c r="I719" s="3"/>
       <c r="J719" s="3"/>
       <c r="K719" s="3"/>
       <c r="L719" s="3"/>
@@ -17480,7 +16997,6 @@
       <c r="F720" s="3"/>
       <c r="G720" s="3"/>
       <c r="H720" s="3"/>
-      <c r="I720" s="3"/>
       <c r="J720" s="3"/>
       <c r="K720" s="3"/>
       <c r="L720" s="3"/>
@@ -17502,7 +17018,6 @@
       <c r="F721" s="3"/>
       <c r="G721" s="3"/>
       <c r="H721" s="3"/>
-      <c r="I721" s="3"/>
       <c r="J721" s="3"/>
       <c r="K721" s="3"/>
       <c r="L721" s="3"/>
@@ -17524,7 +17039,6 @@
       <c r="F722" s="3"/>
       <c r="G722" s="3"/>
       <c r="H722" s="3"/>
-      <c r="I722" s="3"/>
       <c r="J722" s="3"/>
       <c r="K722" s="3"/>
       <c r="L722" s="3"/>
@@ -17546,7 +17060,6 @@
       <c r="F723" s="3"/>
       <c r="G723" s="3"/>
       <c r="H723" s="3"/>
-      <c r="I723" s="3"/>
       <c r="J723" s="3"/>
       <c r="K723" s="3"/>
       <c r="L723" s="3"/>
@@ -17568,7 +17081,6 @@
       <c r="F724" s="3"/>
       <c r="G724" s="3"/>
       <c r="H724" s="3"/>
-      <c r="I724" s="3"/>
       <c r="J724" s="3"/>
       <c r="K724" s="3"/>
       <c r="L724" s="3"/>
@@ -17590,7 +17102,6 @@
       <c r="F725" s="3"/>
       <c r="G725" s="3"/>
       <c r="H725" s="3"/>
-      <c r="I725" s="3"/>
       <c r="J725" s="3"/>
       <c r="K725" s="3"/>
       <c r="L725" s="3"/>
@@ -17612,7 +17123,6 @@
       <c r="F726" s="3"/>
       <c r="G726" s="3"/>
       <c r="H726" s="3"/>
-      <c r="I726" s="3"/>
       <c r="J726" s="3"/>
       <c r="K726" s="3"/>
       <c r="L726" s="3"/>
@@ -17634,7 +17144,6 @@
       <c r="F727" s="3"/>
       <c r="G727" s="3"/>
       <c r="H727" s="3"/>
-      <c r="I727" s="3"/>
       <c r="J727" s="3"/>
       <c r="K727" s="3"/>
       <c r="L727" s="3"/>
@@ -17656,7 +17165,6 @@
       <c r="F728" s="3"/>
       <c r="G728" s="3"/>
       <c r="H728" s="3"/>
-      <c r="I728" s="3"/>
       <c r="J728" s="3"/>
       <c r="K728" s="3"/>
       <c r="L728" s="3"/>
@@ -17678,7 +17186,6 @@
       <c r="F729" s="3"/>
       <c r="G729" s="3"/>
       <c r="H729" s="3"/>
-      <c r="I729" s="3"/>
       <c r="J729" s="3"/>
       <c r="K729" s="3"/>
       <c r="L729" s="3"/>
@@ -17700,7 +17207,6 @@
       <c r="F730" s="3"/>
       <c r="G730" s="3"/>
       <c r="H730" s="3"/>
-      <c r="I730" s="3"/>
       <c r="J730" s="3"/>
       <c r="K730" s="3"/>
       <c r="L730" s="3"/>
@@ -17722,7 +17228,6 @@
       <c r="F731" s="3"/>
       <c r="G731" s="3"/>
       <c r="H731" s="3"/>
-      <c r="I731" s="3"/>
       <c r="J731" s="3"/>
       <c r="K731" s="3"/>
       <c r="L731" s="3"/>
@@ -17744,7 +17249,6 @@
       <c r="F732" s="3"/>
       <c r="G732" s="3"/>
       <c r="H732" s="3"/>
-      <c r="I732" s="3"/>
       <c r="J732" s="3"/>
       <c r="K732" s="3"/>
       <c r="L732" s="3"/>
@@ -17766,7 +17270,6 @@
       <c r="F733" s="3"/>
       <c r="G733" s="3"/>
       <c r="H733" s="3"/>
-      <c r="I733" s="3"/>
       <c r="J733" s="3"/>
       <c r="K733" s="3"/>
       <c r="L733" s="3"/>
@@ -17788,7 +17291,6 @@
       <c r="F734" s="3"/>
       <c r="G734" s="3"/>
       <c r="H734" s="3"/>
-      <c r="I734" s="3"/>
       <c r="J734" s="3"/>
       <c r="K734" s="3"/>
       <c r="L734" s="3"/>
@@ -17810,7 +17312,6 @@
       <c r="F735" s="3"/>
       <c r="G735" s="3"/>
       <c r="H735" s="3"/>
-      <c r="I735" s="3"/>
       <c r="J735" s="3"/>
       <c r="K735" s="3"/>
       <c r="L735" s="3"/>
@@ -17832,7 +17333,6 @@
       <c r="F736" s="3"/>
       <c r="G736" s="3"/>
       <c r="H736" s="3"/>
-      <c r="I736" s="3"/>
       <c r="J736" s="3"/>
       <c r="K736" s="3"/>
       <c r="L736" s="3"/>
@@ -17854,7 +17354,6 @@
       <c r="F737" s="3"/>
       <c r="G737" s="3"/>
       <c r="H737" s="3"/>
-      <c r="I737" s="3"/>
       <c r="J737" s="3"/>
       <c r="K737" s="3"/>
       <c r="L737" s="3"/>
@@ -17876,7 +17375,6 @@
       <c r="F738" s="3"/>
       <c r="G738" s="3"/>
       <c r="H738" s="3"/>
-      <c r="I738" s="3"/>
       <c r="J738" s="3"/>
       <c r="K738" s="3"/>
       <c r="L738" s="3"/>
@@ -17898,7 +17396,6 @@
       <c r="F739" s="3"/>
       <c r="G739" s="3"/>
       <c r="H739" s="3"/>
-      <c r="I739" s="3"/>
       <c r="J739" s="3"/>
       <c r="K739" s="3"/>
       <c r="L739" s="3"/>
@@ -17920,7 +17417,6 @@
       <c r="F740" s="3"/>
       <c r="G740" s="3"/>
       <c r="H740" s="3"/>
-      <c r="I740" s="3"/>
       <c r="J740" s="3"/>
       <c r="K740" s="3"/>
       <c r="L740" s="3"/>
@@ -17942,7 +17438,6 @@
       <c r="F741" s="3"/>
       <c r="G741" s="3"/>
       <c r="H741" s="3"/>
-      <c r="I741" s="3"/>
       <c r="J741" s="3"/>
       <c r="K741" s="3"/>
       <c r="L741" s="3"/>
@@ -17964,7 +17459,6 @@
       <c r="F742" s="3"/>
       <c r="G742" s="3"/>
       <c r="H742" s="3"/>
-      <c r="I742" s="3"/>
       <c r="J742" s="3"/>
       <c r="K742" s="3"/>
       <c r="L742" s="3"/>
@@ -17984,10 +17478,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124:K1048576 B11:B25 J7:P15 D11:H15 D18:P21 D23:P25 B26:P123 F22:P22 H3 B5:P6 B3:G4 B2:P2 I3:P4 D8 B9:H10 B7:C8 E7:H8" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18:P21 B11:B25 D11:H15 J23:P25 J26:P123 J22:P22 J5:P6 H3 J2:P2 B3:G4 J3:P4 J8:P15 B8:H10 B2:H2 B5:H6 F22:H22 B26:H123 D23:H25 D18:H21 B124:H1048576 J124:K1048576" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q123 H4" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F9F68B-A21F-4F58-9AB4-6F3090A30C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F84EA-86C7-4EDA-87B4-C30809C1F40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -754,12 +754,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{325453B3-625E-4549-87F9-8003320B8E23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office work not joined</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{859443A0-EA5F-4605-AC75-4EAE9A16D8DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{9BCF088D-250F-48AE-80E0-92883C91085F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{F74BBD4B-B0A7-4D3C-82D5-618C9CFDC1A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0" shapeId="0" xr:uid="{92235DA3-D4B6-427E-BCCD-BF6B1F60125C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0" shapeId="0" xr:uid="{61928EF2-F699-48A2-A5B2-7870195D3D55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1347,9 +1491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1872,24 +2016,63 @@
       <c r="A9" s="4">
         <v>45146</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="10">
+        <v>16</v>
+      </c>
+      <c r="S9" s="11">
+        <v>10</v>
+      </c>
+      <c r="T9" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -1904,7 +2087,6 @@
       <c r="H10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -17478,7 +17660,7 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18:P21 B11:B25 D11:H15 J23:P25 J26:P123 J22:P22 J5:P6 H3 J2:P2 B3:G4 J3:P4 J8:P15 B8:H10 B2:H2 B5:H6 F22:H22 B26:H123 D23:H25 D18:H21 B124:H1048576 J124:K1048576" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B25 D11:H15 J18:P123 H3 B3:G4 J2:P6 B8:H10 B2:H2 B5:H6 F22:H22 D23:H25 D18:H21 B26:H1048576 J124:K1048576 L9 J8:P8 J11:P15 J9:K10 M9:P10" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F84EA-86C7-4EDA-87B4-C30809C1F40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941CBAC7-5E1B-4670-A893-6178E4707CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -898,12 +898,228 @@
         </r>
       </text>
     </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{BC8F98C0-89F0-47CA-BEB5-B79C860342AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{71BB372C-01CA-43DE-AECC-4522C1D3C332}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{91AB678E-E6AA-489C-BAE9-2BE8871F0FEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No response</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{02EF0140-5C64-46F6-BE73-E120F4C904C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Personal work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{AA14F1D7-65C8-45A5-A87B-EE7AE2FE6EAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{2EC71452-BFF2-4DB0-A476-72AB2D781437}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{DC2F19E1-4B46-423F-8226-747F80FB217F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical appointmnent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{73400845-C529-4B83-9B65-1736FD63F572}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0" shapeId="0" xr:uid="{8C18C50B-4AAB-4238-BE47-45B76C2D37F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Device Not available</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1491,9 +1707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1553,7 +1769,7 @@
       <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="6" t="s">
@@ -2078,23 +2294,63 @@
       <c r="A10" s="4">
         <v>45147</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="10">
+        <v>16</v>
+      </c>
+      <c r="S10" s="11">
+        <v>7</v>
+      </c>
+      <c r="T10" s="12">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -17663,7 +17919,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B25 D11:H15 J18:P123 H3 B3:G4 J2:P6 B8:H10 B2:H2 B5:H6 F22:H22 D23:H25 D18:H21 B26:H1048576 J124:K1048576 L9 J8:P8 J11:P15 J9:K10 M9:P10" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576 L10" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941CBAC7-5E1B-4670-A893-6178E4707CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC2FC6-9A3C-4285-A86E-14EFAB361A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1114,12 +1114,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{77AC4AE6-E150-4683-9307-70166EAA5F8F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{25D99D81-A84C-42D3-8FB6-DE02F24BA6E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{2B8322C3-5CC2-45C4-975E-42EFC09EAE53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{FD398497-B1ED-4D3A-AA90-625CDDC2B28C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{445CBD04-787E-4BBB-BF09-54117A959EAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1708,8 +1828,8 @@
   <dimension ref="A1:U742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2356,23 +2476,63 @@
       <c r="A11" s="4">
         <v>45148</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="10">
+        <v>16</v>
+      </c>
+      <c r="S11" s="11">
+        <v>11</v>
+      </c>
+      <c r="T11" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -17919,7 +18079,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B25 D11:H15 J18:P123 H3 B3:G4 J2:P6 B8:H10 B2:H2 B5:H6 F22:H22 D23:H25 D18:H21 B26:H1048576 J124:K1048576 L9 J8:P8 J11:P15 J9:K10 M9:P10" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576 L10" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576 L10 C11" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC2FC6-9A3C-4285-A86E-14EFAB361A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED60F7C-1987-4B5A-8FAF-801E6C2C53D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1234,12 +1234,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{08F1BE2B-C3AB-4219-9B85-2401C9AEC50E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{65D010FA-20ED-4819-B70B-046EBF292FC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Personal Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{A947F546-781E-4C97-9831-AB7C51D9D4B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{EDF345BC-FED6-4DDF-A372-E0BD10379048}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mrdical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{68ACE509-BF0C-437E-819A-C97323361DA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{C7DB3AC0-FA5F-4046-937A-083740A67FCD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{862F6C5D-DFA0-4844-AB3D-9F9279AEE52A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1827,9 +1995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2538,23 +2706,63 @@
       <c r="A12" s="4">
         <v>45149</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="10">
+        <v>16</v>
+      </c>
+      <c r="S12" s="11">
+        <v>9</v>
+      </c>
+      <c r="T12" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -18079,7 +18287,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B25 D11:H15 J18:P123 H3 B3:G4 J2:P6 B8:H10 B2:H2 B5:H6 F22:H22 D23:H25 D18:H21 B26:H1048576 J124:K1048576 L9 J8:P8 J11:P15 J9:K10 M9:P10" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576 L10 C11" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576 L10 C11 C12" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED60F7C-1987-4B5A-8FAF-801E6C2C53D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BEE328-B761-4619-9846-1EC9A50BAEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1402,12 +1402,238 @@
         </r>
       </text>
     </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{C8099AB4-90E4-4C9D-BFDD-B994E38AF804}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{7DDDAACE-4814-417A-968A-4417A2A91E65}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{798746A3-2DCB-4A47-9D10-755C346923DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{E03758FF-1CE2-4E90-A8B2-B2B9573FCB1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{AC31E2FB-0AE8-4D2E-93EF-35102D0733A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{95F3245D-7C76-435C-8EEC-122F4E6A161D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{A56913C0-ABBC-424B-9CE8-6703C2344AF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{F17B3B47-F0E3-4F56-81D4-3DEE3966BB44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{830F9AEE-42FC-4126-92BE-55024040B822}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -1995,15 +2221,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23:Q24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.09765625" customWidth="1"/>
-    <col min="2" max="3" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="37.3984375" customWidth="1"/>
     <col min="5" max="8" width="30.5" customWidth="1"/>
     <col min="9" max="9" width="30.5" style="3" customWidth="1"/>
@@ -2768,23 +2995,63 @@
       <c r="A13" s="4">
         <v>45150</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="10">
+        <v>16</v>
+      </c>
+      <c r="S13" s="11">
+        <v>7</v>
+      </c>
+      <c r="T13" s="12">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -3029,7 +3296,6 @@
         <v>45163</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3052,7 +3318,6 @@
         <v>45164</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3075,7 +3340,6 @@
         <v>45165</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3098,7 +3362,6 @@
         <v>45166</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3121,7 +3384,6 @@
         <v>45167</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3144,7 +3406,6 @@
         <v>45168</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3167,7 +3428,6 @@
         <v>45169</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3190,7 +3450,6 @@
         <v>45170</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3213,7 +3472,6 @@
         <v>45171</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3236,7 +3494,6 @@
         <v>45172</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3259,7 +3516,6 @@
         <v>45173</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3282,7 +3538,6 @@
         <v>45174</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3305,7 +3560,6 @@
         <v>45175</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3328,7 +3582,6 @@
         <v>45176</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3351,7 +3604,6 @@
         <v>45177</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3374,7 +3626,6 @@
         <v>45178</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3397,7 +3648,6 @@
         <v>45179</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3420,7 +3670,6 @@
         <v>45180</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3443,7 +3692,6 @@
         <v>45181</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3466,7 +3714,6 @@
         <v>45182</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -3489,7 +3736,6 @@
         <v>45183</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3512,7 +3758,6 @@
         <v>45184</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -3535,7 +3780,6 @@
         <v>45185</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -3558,7 +3802,6 @@
         <v>45186</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3581,7 +3824,6 @@
         <v>45187</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3604,7 +3846,6 @@
         <v>45188</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3627,7 +3868,6 @@
         <v>45189</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3650,7 +3890,6 @@
         <v>45190</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3673,7 +3912,6 @@
         <v>45191</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3696,7 +3934,6 @@
         <v>45192</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3719,7 +3956,6 @@
         <v>45193</v>
       </c>
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3742,7 +3978,6 @@
         <v>45194</v>
       </c>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3765,7 +4000,6 @@
         <v>45195</v>
       </c>
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -3788,7 +4022,6 @@
         <v>45196</v>
       </c>
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -3811,7 +4044,6 @@
         <v>45197</v>
       </c>
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3834,7 +4066,6 @@
         <v>45198</v>
       </c>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3857,7 +4088,6 @@
         <v>45199</v>
       </c>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -3880,7 +4110,6 @@
         <v>45200</v>
       </c>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -3903,7 +4132,6 @@
         <v>45201</v>
       </c>
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -3926,7 +4154,6 @@
         <v>45202</v>
       </c>
       <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3949,7 +4176,6 @@
         <v>45203</v>
       </c>
       <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3972,7 +4198,6 @@
         <v>45204</v>
       </c>
       <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -3995,7 +4220,6 @@
         <v>45205</v>
       </c>
       <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4018,7 +4242,6 @@
         <v>45206</v>
       </c>
       <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4041,7 +4264,6 @@
         <v>45207</v>
       </c>
       <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4064,7 +4286,6 @@
         <v>45208</v>
       </c>
       <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4087,7 +4308,6 @@
         <v>45209</v>
       </c>
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -4110,7 +4330,6 @@
         <v>45210</v>
       </c>
       <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -4133,7 +4352,6 @@
         <v>45211</v>
       </c>
       <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -4156,7 +4374,6 @@
         <v>45212</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -4179,7 +4396,6 @@
         <v>45213</v>
       </c>
       <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4202,7 +4418,6 @@
         <v>45214</v>
       </c>
       <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4225,7 +4440,6 @@
         <v>45215</v>
       </c>
       <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -4248,7 +4462,6 @@
         <v>45216</v>
       </c>
       <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -4271,7 +4484,6 @@
         <v>45217</v>
       </c>
       <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -4294,7 +4506,6 @@
         <v>45218</v>
       </c>
       <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -4317,7 +4528,6 @@
         <v>45219</v>
       </c>
       <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -4340,7 +4550,6 @@
         <v>45220</v>
       </c>
       <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -4363,7 +4572,6 @@
         <v>45221</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -4386,7 +4594,6 @@
         <v>45222</v>
       </c>
       <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -4409,7 +4616,6 @@
         <v>45223</v>
       </c>
       <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4432,7 +4638,6 @@
         <v>45224</v>
       </c>
       <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -4455,7 +4660,6 @@
         <v>45225</v>
       </c>
       <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -4478,7 +4682,6 @@
         <v>45226</v>
       </c>
       <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -4501,7 +4704,6 @@
         <v>45227</v>
       </c>
       <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -4524,7 +4726,6 @@
         <v>45228</v>
       </c>
       <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -4547,7 +4748,6 @@
         <v>45229</v>
       </c>
       <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -4570,7 +4770,6 @@
         <v>45230</v>
       </c>
       <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -4593,7 +4792,6 @@
         <v>45231</v>
       </c>
       <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -4616,7 +4814,6 @@
         <v>45232</v>
       </c>
       <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -4639,7 +4836,6 @@
         <v>45233</v>
       </c>
       <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -4662,7 +4858,6 @@
         <v>45234</v>
       </c>
       <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -4685,7 +4880,6 @@
         <v>45235</v>
       </c>
       <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -4708,7 +4902,6 @@
         <v>45236</v>
       </c>
       <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -4731,7 +4924,6 @@
         <v>45237</v>
       </c>
       <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -4754,7 +4946,6 @@
         <v>45238</v>
       </c>
       <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -4777,7 +4968,6 @@
         <v>45239</v>
       </c>
       <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -4800,7 +4990,6 @@
         <v>45240</v>
       </c>
       <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -4823,7 +5012,6 @@
         <v>45241</v>
       </c>
       <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -4846,7 +5034,6 @@
         <v>45242</v>
       </c>
       <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -4869,7 +5056,6 @@
         <v>45243</v>
       </c>
       <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -4892,7 +5078,6 @@
         <v>45244</v>
       </c>
       <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -4915,7 +5100,6 @@
         <v>45245</v>
       </c>
       <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -4938,7 +5122,6 @@
         <v>45246</v>
       </c>
       <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -4961,7 +5144,6 @@
         <v>45247</v>
       </c>
       <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -4984,7 +5166,6 @@
         <v>45248</v>
       </c>
       <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -5007,7 +5188,6 @@
         <v>45249</v>
       </c>
       <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -5030,7 +5210,6 @@
         <v>45250</v>
       </c>
       <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -5053,7 +5232,6 @@
         <v>45251</v>
       </c>
       <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -5076,7 +5254,6 @@
         <v>45252</v>
       </c>
       <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -5099,7 +5276,6 @@
         <v>45253</v>
       </c>
       <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -5122,7 +5298,6 @@
         <v>45254</v>
       </c>
       <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -5145,7 +5320,6 @@
         <v>45255</v>
       </c>
       <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -5168,7 +5342,6 @@
         <v>45256</v>
       </c>
       <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -5191,7 +5364,6 @@
         <v>45257</v>
       </c>
       <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -5214,7 +5386,6 @@
         <v>45258</v>
       </c>
       <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -5237,7 +5408,6 @@
         <v>45259</v>
       </c>
       <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -5260,7 +5430,6 @@
         <v>45260</v>
       </c>
       <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -5281,7 +5450,6 @@
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -5302,7 +5470,6 @@
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -5323,7 +5490,6 @@
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -5344,7 +5510,6 @@
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -5365,7 +5530,6 @@
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -5386,7 +5550,6 @@
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -5407,7 +5570,6 @@
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
@@ -5428,7 +5590,6 @@
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
@@ -5449,7 +5610,6 @@
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
@@ -5470,7 +5630,6 @@
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -5491,7 +5650,6 @@
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
@@ -5512,7 +5670,6 @@
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -5533,7 +5690,6 @@
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -5554,7 +5710,6 @@
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -5575,7 +5730,6 @@
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -5596,7 +5750,6 @@
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -5617,7 +5770,6 @@
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -5638,7 +5790,6 @@
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
@@ -5659,7 +5810,6 @@
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -5680,7 +5830,6 @@
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -5701,7 +5850,6 @@
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
@@ -5722,7 +5870,6 @@
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
@@ -5743,7 +5890,6 @@
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
@@ -5764,7 +5910,6 @@
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -5785,7 +5930,6 @@
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
@@ -5806,7 +5950,6 @@
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -5827,7 +5970,6 @@
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -5848,7 +5990,6 @@
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
@@ -5869,7 +6010,6 @@
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -5890,7 +6030,6 @@
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -5911,7 +6050,6 @@
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -5932,7 +6070,6 @@
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -5953,7 +6090,6 @@
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -5974,7 +6110,6 @@
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -5995,7 +6130,6 @@
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
@@ -6016,7 +6150,6 @@
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -6037,7 +6170,6 @@
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -6058,7 +6190,6 @@
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -6079,7 +6210,6 @@
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
@@ -6100,7 +6230,6 @@
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -6121,7 +6250,6 @@
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -6142,7 +6270,6 @@
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -6163,7 +6290,6 @@
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -6184,7 +6310,6 @@
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -6205,7 +6330,6 @@
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -6226,7 +6350,6 @@
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -6247,7 +6370,6 @@
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -6268,7 +6390,6 @@
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -6289,7 +6410,6 @@
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -6310,7 +6430,6 @@
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -6331,7 +6450,6 @@
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -6352,7 +6470,6 @@
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -6373,7 +6490,6 @@
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -6394,7 +6510,6 @@
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -6415,7 +6530,6 @@
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -6436,7 +6550,6 @@
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
@@ -6457,7 +6570,6 @@
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -6478,7 +6590,6 @@
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
@@ -6499,7 +6610,6 @@
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -6520,7 +6630,6 @@
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -6541,7 +6650,6 @@
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -6562,7 +6670,6 @@
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -6583,7 +6690,6 @@
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -6604,7 +6710,6 @@
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -6625,7 +6730,6 @@
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -6646,7 +6750,6 @@
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
@@ -6667,7 +6770,6 @@
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
@@ -6688,7 +6790,6 @@
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -6709,7 +6810,6 @@
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -6730,7 +6830,6 @@
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -6751,7 +6850,6 @@
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -6772,7 +6870,6 @@
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -6793,7 +6890,6 @@
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
@@ -6814,7 +6910,6 @@
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -6835,7 +6930,6 @@
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -6856,7 +6950,6 @@
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -6877,7 +6970,6 @@
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
@@ -6898,7 +6990,6 @@
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -6919,7 +7010,6 @@
     <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -6940,7 +7030,6 @@
     <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -6961,7 +7050,6 @@
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -6982,7 +7070,6 @@
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
@@ -7003,7 +7090,6 @@
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
@@ -7024,7 +7110,6 @@
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -7045,7 +7130,6 @@
     <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
@@ -7066,7 +7150,6 @@
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
@@ -7087,7 +7170,6 @@
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -7108,7 +7190,6 @@
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
@@ -7129,7 +7210,6 @@
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
@@ -7150,7 +7230,6 @@
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
@@ -7171,7 +7250,6 @@
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
@@ -7192,7 +7270,6 @@
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
@@ -7213,7 +7290,6 @@
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
@@ -7234,7 +7310,6 @@
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
@@ -7255,7 +7330,6 @@
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
@@ -7276,7 +7350,6 @@
     <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
@@ -7297,7 +7370,6 @@
     <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
@@ -7318,7 +7390,6 @@
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
@@ -7339,7 +7410,6 @@
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
@@ -7360,7 +7430,6 @@
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
@@ -7381,7 +7450,6 @@
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
@@ -7402,7 +7470,6 @@
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
@@ -7423,7 +7490,6 @@
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
@@ -7444,7 +7510,6 @@
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
@@ -7465,7 +7530,6 @@
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
@@ -7486,7 +7550,6 @@
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
@@ -7507,7 +7570,6 @@
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
@@ -7528,7 +7590,6 @@
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
@@ -7549,7 +7610,6 @@
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
@@ -7570,7 +7630,6 @@
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
@@ -7591,7 +7650,6 @@
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
@@ -7612,7 +7670,6 @@
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
@@ -7633,7 +7690,6 @@
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
@@ -7654,7 +7710,6 @@
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
@@ -7675,7 +7730,6 @@
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
@@ -7696,7 +7750,6 @@
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
@@ -7717,7 +7770,6 @@
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
@@ -7738,7 +7790,6 @@
     <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
@@ -7759,7 +7810,6 @@
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
@@ -7780,7 +7830,6 @@
     <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
@@ -7801,7 +7850,6 @@
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
@@ -7822,7 +7870,6 @@
     <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
@@ -7843,7 +7890,6 @@
     <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
@@ -7864,7 +7910,6 @@
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
@@ -7885,7 +7930,6 @@
     <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
@@ -7906,7 +7950,6 @@
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
@@ -7927,7 +7970,6 @@
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
@@ -7948,7 +7990,6 @@
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
@@ -7969,7 +8010,6 @@
     <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
@@ -7990,7 +8030,6 @@
     <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
@@ -8011,7 +8050,6 @@
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
@@ -8032,7 +8070,6 @@
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
@@ -8053,7 +8090,6 @@
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
@@ -8074,7 +8110,6 @@
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
@@ -8095,7 +8130,6 @@
     <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
@@ -8116,7 +8150,6 @@
     <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
@@ -8137,7 +8170,6 @@
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
@@ -8158,7 +8190,6 @@
     <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
@@ -8179,7 +8210,6 @@
     <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
@@ -8200,7 +8230,6 @@
     <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
-      <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
@@ -8221,7 +8250,6 @@
     <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
@@ -8242,7 +8270,6 @@
     <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
@@ -8263,7 +8290,6 @@
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
@@ -8284,7 +8310,6 @@
     <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
@@ -8305,7 +8330,6 @@
     <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
@@ -8326,7 +8350,6 @@
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
@@ -8347,7 +8370,6 @@
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
@@ -8368,7 +8390,6 @@
     <row r="271" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
@@ -8389,7 +8410,6 @@
     <row r="272" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
@@ -8410,7 +8430,6 @@
     <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
-      <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
@@ -8431,7 +8450,6 @@
     <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
-      <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
@@ -8452,7 +8470,6 @@
     <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
@@ -8473,7 +8490,6 @@
     <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
-      <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
@@ -8494,7 +8510,6 @@
     <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
-      <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
@@ -8515,7 +8530,6 @@
     <row r="278" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
@@ -8536,7 +8550,6 @@
     <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
-      <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
@@ -8557,7 +8570,6 @@
     <row r="280" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
@@ -8578,7 +8590,6 @@
     <row r="281" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
-      <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
@@ -8599,7 +8610,6 @@
     <row r="282" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
@@ -8620,7 +8630,6 @@
     <row r="283" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
-      <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
@@ -8641,7 +8650,6 @@
     <row r="284" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
@@ -8662,7 +8670,6 @@
     <row r="285" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
@@ -8683,7 +8690,6 @@
     <row r="286" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
-      <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
@@ -8704,7 +8710,6 @@
     <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
-      <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
@@ -8725,7 +8730,6 @@
     <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
-      <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
@@ -8746,7 +8750,6 @@
     <row r="289" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
-      <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
@@ -8767,7 +8770,6 @@
     <row r="290" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
-      <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
@@ -8788,7 +8790,6 @@
     <row r="291" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
-      <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
@@ -8809,7 +8810,6 @@
     <row r="292" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
@@ -8830,7 +8830,6 @@
     <row r="293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
-      <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
@@ -8851,7 +8850,6 @@
     <row r="294" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
-      <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
@@ -8872,7 +8870,6 @@
     <row r="295" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
-      <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
@@ -8893,7 +8890,6 @@
     <row r="296" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
-      <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
@@ -8914,7 +8910,6 @@
     <row r="297" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
-      <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
@@ -8935,7 +8930,6 @@
     <row r="298" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
-      <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
@@ -8956,7 +8950,6 @@
     <row r="299" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
-      <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
@@ -8977,7 +8970,6 @@
     <row r="300" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
-      <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
@@ -8998,7 +8990,6 @@
     <row r="301" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
-      <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
@@ -9019,7 +9010,6 @@
     <row r="302" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
-      <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
@@ -9040,7 +9030,6 @@
     <row r="303" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
-      <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
@@ -9061,7 +9050,6 @@
     <row r="304" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
-      <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
@@ -9082,7 +9070,6 @@
     <row r="305" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
-      <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
@@ -9103,7 +9090,6 @@
     <row r="306" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
-      <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
@@ -9124,7 +9110,6 @@
     <row r="307" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
-      <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
@@ -9145,7 +9130,6 @@
     <row r="308" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
-      <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
@@ -9166,7 +9150,6 @@
     <row r="309" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
-      <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
@@ -9187,7 +9170,6 @@
     <row r="310" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
@@ -9208,7 +9190,6 @@
     <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
-      <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
@@ -9229,7 +9210,6 @@
     <row r="312" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
-      <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
@@ -9250,7 +9230,6 @@
     <row r="313" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
-      <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
@@ -9271,7 +9250,6 @@
     <row r="314" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
-      <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
@@ -9292,7 +9270,6 @@
     <row r="315" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
-      <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
@@ -9313,7 +9290,6 @@
     <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
-      <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
@@ -9334,7 +9310,6 @@
     <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
-      <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
@@ -9355,7 +9330,6 @@
     <row r="318" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
-      <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
@@ -9376,7 +9350,6 @@
     <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
-      <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
@@ -9397,7 +9370,6 @@
     <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
-      <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
@@ -9418,7 +9390,6 @@
     <row r="321" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
@@ -9439,7 +9410,6 @@
     <row r="322" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
@@ -9460,7 +9430,6 @@
     <row r="323" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
@@ -9481,7 +9450,6 @@
     <row r="324" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
-      <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
@@ -9502,7 +9470,6 @@
     <row r="325" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
-      <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
@@ -9523,7 +9490,6 @@
     <row r="326" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
-      <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
@@ -9544,7 +9510,6 @@
     <row r="327" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
-      <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
@@ -9565,7 +9530,6 @@
     <row r="328" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
-      <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
@@ -9586,7 +9550,6 @@
     <row r="329" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
-      <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
@@ -9607,7 +9570,6 @@
     <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
-      <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
@@ -9628,7 +9590,6 @@
     <row r="331" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
-      <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
@@ -9649,7 +9610,6 @@
     <row r="332" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
-      <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
@@ -9670,7 +9630,6 @@
     <row r="333" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
-      <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
@@ -9691,7 +9650,6 @@
     <row r="334" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
-      <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
@@ -9712,7 +9670,6 @@
     <row r="335" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
-      <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
@@ -9733,7 +9690,6 @@
     <row r="336" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
-      <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
@@ -9754,7 +9710,6 @@
     <row r="337" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
-      <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
@@ -9775,7 +9730,6 @@
     <row r="338" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
-      <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
@@ -9796,7 +9750,6 @@
     <row r="339" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
-      <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
@@ -9817,7 +9770,6 @@
     <row r="340" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
-      <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
@@ -9838,7 +9790,6 @@
     <row r="341" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
-      <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
@@ -9859,7 +9810,6 @@
     <row r="342" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
-      <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
@@ -9880,7 +9830,6 @@
     <row r="343" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
@@ -9901,7 +9850,6 @@
     <row r="344" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
-      <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
@@ -9922,7 +9870,6 @@
     <row r="345" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
-      <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
@@ -9943,7 +9890,6 @@
     <row r="346" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
@@ -9964,7 +9910,6 @@
     <row r="347" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
-      <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
@@ -9985,7 +9930,6 @@
     <row r="348" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
-      <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
@@ -10006,7 +9950,6 @@
     <row r="349" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
-      <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
@@ -10027,7 +9970,6 @@
     <row r="350" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
-      <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
@@ -10048,7 +9990,6 @@
     <row r="351" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
-      <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
@@ -10069,7 +10010,6 @@
     <row r="352" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
-      <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
@@ -10090,7 +10030,6 @@
     <row r="353" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
-      <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
@@ -10111,7 +10050,6 @@
     <row r="354" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
-      <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
@@ -10132,7 +10070,6 @@
     <row r="355" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
-      <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
@@ -10153,7 +10090,6 @@
     <row r="356" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
-      <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
@@ -10174,7 +10110,6 @@
     <row r="357" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
-      <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
@@ -10195,7 +10130,6 @@
     <row r="358" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
-      <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
@@ -10216,7 +10150,6 @@
     <row r="359" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
-      <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
@@ -10237,7 +10170,6 @@
     <row r="360" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
-      <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
@@ -10258,7 +10190,6 @@
     <row r="361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
-      <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
@@ -10279,7 +10210,6 @@
     <row r="362" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
-      <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
@@ -10300,7 +10230,6 @@
     <row r="363" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
-      <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
@@ -10321,7 +10250,6 @@
     <row r="364" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
-      <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
@@ -10342,7 +10270,6 @@
     <row r="365" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
-      <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
@@ -10363,7 +10290,6 @@
     <row r="366" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
-      <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
@@ -10384,7 +10310,6 @@
     <row r="367" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
-      <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
@@ -10405,7 +10330,6 @@
     <row r="368" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
-      <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
@@ -10426,7 +10350,6 @@
     <row r="369" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
-      <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
@@ -10447,7 +10370,6 @@
     <row r="370" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
-      <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
@@ -10468,7 +10390,6 @@
     <row r="371" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
-      <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
@@ -10489,7 +10410,6 @@
     <row r="372" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
-      <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
@@ -10510,7 +10430,6 @@
     <row r="373" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
-      <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
@@ -10531,7 +10450,6 @@
     <row r="374" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
-      <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
@@ -10552,7 +10470,6 @@
     <row r="375" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
-      <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
@@ -10573,7 +10490,6 @@
     <row r="376" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
-      <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
@@ -10594,7 +10510,6 @@
     <row r="377" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
-      <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
@@ -10615,7 +10530,6 @@
     <row r="378" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
-      <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
@@ -10636,7 +10550,6 @@
     <row r="379" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
-      <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
@@ -10657,7 +10570,6 @@
     <row r="380" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
-      <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
@@ -10678,7 +10590,6 @@
     <row r="381" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
-      <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
@@ -10699,7 +10610,6 @@
     <row r="382" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
-      <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
@@ -10720,7 +10630,6 @@
     <row r="383" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
-      <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
@@ -10741,7 +10650,6 @@
     <row r="384" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
-      <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
@@ -10762,7 +10670,6 @@
     <row r="385" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
-      <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
@@ -10783,7 +10690,6 @@
     <row r="386" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
-      <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
@@ -10804,7 +10710,6 @@
     <row r="387" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
-      <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
@@ -10825,7 +10730,6 @@
     <row r="388" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
-      <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
@@ -10846,7 +10750,6 @@
     <row r="389" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
-      <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
@@ -10867,7 +10770,6 @@
     <row r="390" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
@@ -10888,7 +10790,6 @@
     <row r="391" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
-      <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
@@ -10909,7 +10810,6 @@
     <row r="392" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
-      <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
@@ -10930,7 +10830,6 @@
     <row r="393" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
-      <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
@@ -10951,7 +10850,6 @@
     <row r="394" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
-      <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
@@ -10972,7 +10870,6 @@
     <row r="395" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
-      <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
@@ -10993,7 +10890,6 @@
     <row r="396" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
-      <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
@@ -11014,7 +10910,6 @@
     <row r="397" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
-      <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
@@ -11035,7 +10930,6 @@
     <row r="398" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
-      <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
@@ -11056,7 +10950,6 @@
     <row r="399" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
-      <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
@@ -11077,7 +10970,6 @@
     <row r="400" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
-      <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
@@ -11098,7 +10990,6 @@
     <row r="401" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
-      <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
@@ -11119,7 +11010,6 @@
     <row r="402" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
@@ -11140,7 +11030,6 @@
     <row r="403" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
-      <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
@@ -11161,7 +11050,6 @@
     <row r="404" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
-      <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
@@ -11182,7 +11070,6 @@
     <row r="405" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
-      <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
@@ -11203,7 +11090,6 @@
     <row r="406" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
-      <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
@@ -11224,7 +11110,6 @@
     <row r="407" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
-      <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
@@ -11245,7 +11130,6 @@
     <row r="408" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
-      <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
@@ -11266,7 +11150,6 @@
     <row r="409" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
-      <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
@@ -11287,7 +11170,6 @@
     <row r="410" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
-      <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
@@ -11308,7 +11190,6 @@
     <row r="411" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
-      <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
@@ -11329,7 +11210,6 @@
     <row r="412" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
-      <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
@@ -11350,7 +11230,6 @@
     <row r="413" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
-      <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
@@ -11371,7 +11250,6 @@
     <row r="414" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
-      <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
@@ -11392,7 +11270,6 @@
     <row r="415" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
-      <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
@@ -11413,7 +11290,6 @@
     <row r="416" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
-      <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
@@ -11434,7 +11310,6 @@
     <row r="417" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
-      <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
@@ -11455,7 +11330,6 @@
     <row r="418" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
-      <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
@@ -11476,7 +11350,6 @@
     <row r="419" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
-      <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
@@ -11497,7 +11370,6 @@
     <row r="420" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
-      <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
@@ -11518,7 +11390,6 @@
     <row r="421" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
-      <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
@@ -11539,7 +11410,6 @@
     <row r="422" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
-      <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
@@ -11560,7 +11430,6 @@
     <row r="423" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
-      <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
@@ -11581,7 +11450,6 @@
     <row r="424" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
-      <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
@@ -11602,7 +11470,6 @@
     <row r="425" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
-      <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
@@ -11623,7 +11490,6 @@
     <row r="426" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
-      <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
@@ -11644,7 +11510,6 @@
     <row r="427" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
-      <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
@@ -11665,7 +11530,6 @@
     <row r="428" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
-      <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
@@ -11686,7 +11550,6 @@
     <row r="429" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
-      <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
@@ -11707,7 +11570,6 @@
     <row r="430" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
-      <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
@@ -11728,7 +11590,6 @@
     <row r="431" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
-      <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
@@ -11749,7 +11610,6 @@
     <row r="432" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
-      <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
@@ -11770,7 +11630,6 @@
     <row r="433" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
-      <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
@@ -11791,7 +11650,6 @@
     <row r="434" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
-      <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
@@ -11812,7 +11670,6 @@
     <row r="435" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
-      <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
@@ -11833,7 +11690,6 @@
     <row r="436" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
-      <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
@@ -11854,7 +11710,6 @@
     <row r="437" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
-      <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
@@ -11875,7 +11730,6 @@
     <row r="438" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
-      <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
@@ -11896,7 +11750,6 @@
     <row r="439" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
-      <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
@@ -11917,7 +11770,6 @@
     <row r="440" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
-      <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
@@ -11938,7 +11790,6 @@
     <row r="441" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
-      <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
@@ -11959,7 +11810,6 @@
     <row r="442" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
-      <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
@@ -11980,7 +11830,6 @@
     <row r="443" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
-      <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
@@ -12001,7 +11850,6 @@
     <row r="444" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
-      <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
@@ -12022,7 +11870,6 @@
     <row r="445" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
-      <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
@@ -12043,7 +11890,6 @@
     <row r="446" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
-      <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
@@ -12064,7 +11910,6 @@
     <row r="447" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
-      <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
@@ -12085,7 +11930,6 @@
     <row r="448" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
-      <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
@@ -12106,7 +11950,6 @@
     <row r="449" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
-      <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
@@ -12127,7 +11970,6 @@
     <row r="450" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
-      <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
@@ -12148,7 +11990,6 @@
     <row r="451" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
-      <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
@@ -12169,7 +12010,6 @@
     <row r="452" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
-      <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
@@ -12190,7 +12030,6 @@
     <row r="453" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
-      <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
@@ -12211,7 +12050,6 @@
     <row r="454" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
-      <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
@@ -12232,7 +12070,6 @@
     <row r="455" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
-      <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
@@ -12253,7 +12090,6 @@
     <row r="456" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
-      <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
@@ -12274,7 +12110,6 @@
     <row r="457" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
-      <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
@@ -12295,7 +12130,6 @@
     <row r="458" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
-      <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
@@ -12316,7 +12150,6 @@
     <row r="459" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
-      <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
@@ -12337,7 +12170,6 @@
     <row r="460" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
-      <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
@@ -12358,7 +12190,6 @@
     <row r="461" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
-      <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
@@ -12379,7 +12210,6 @@
     <row r="462" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
-      <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
@@ -12400,7 +12230,6 @@
     <row r="463" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
-      <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
@@ -12421,7 +12250,6 @@
     <row r="464" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
-      <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
@@ -12442,7 +12270,6 @@
     <row r="465" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
-      <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
@@ -12463,7 +12290,6 @@
     <row r="466" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
-      <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
@@ -12484,7 +12310,6 @@
     <row r="467" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
-      <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
@@ -12505,7 +12330,6 @@
     <row r="468" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
-      <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
@@ -12526,7 +12350,6 @@
     <row r="469" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
-      <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
@@ -12547,7 +12370,6 @@
     <row r="470" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
-      <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
@@ -12568,7 +12390,6 @@
     <row r="471" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
-      <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
@@ -12589,7 +12410,6 @@
     <row r="472" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
-      <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
@@ -12610,7 +12430,6 @@
     <row r="473" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
-      <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
@@ -12631,7 +12450,6 @@
     <row r="474" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
-      <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
@@ -12652,7 +12470,6 @@
     <row r="475" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
-      <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
@@ -12673,7 +12490,6 @@
     <row r="476" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
-      <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
@@ -12694,7 +12510,6 @@
     <row r="477" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
-      <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
@@ -12715,7 +12530,6 @@
     <row r="478" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
-      <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
@@ -12736,7 +12550,6 @@
     <row r="479" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
-      <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
@@ -12757,7 +12570,6 @@
     <row r="480" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
@@ -12778,7 +12590,6 @@
     <row r="481" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
-      <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
@@ -12799,7 +12610,6 @@
     <row r="482" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
-      <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
@@ -12820,7 +12630,6 @@
     <row r="483" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
-      <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
@@ -12841,7 +12650,6 @@
     <row r="484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
-      <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
@@ -12862,7 +12670,6 @@
     <row r="485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
-      <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
@@ -12883,7 +12690,6 @@
     <row r="486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
-      <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
@@ -12904,7 +12710,6 @@
     <row r="487" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
-      <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
@@ -12925,7 +12730,6 @@
     <row r="488" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
-      <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
@@ -12946,7 +12750,6 @@
     <row r="489" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
-      <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
@@ -12967,7 +12770,6 @@
     <row r="490" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
-      <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
@@ -12988,7 +12790,6 @@
     <row r="491" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
-      <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
@@ -13009,7 +12810,6 @@
     <row r="492" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
-      <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
@@ -13030,7 +12830,6 @@
     <row r="493" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
-      <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
@@ -13051,7 +12850,6 @@
     <row r="494" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
-      <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
@@ -13072,7 +12870,6 @@
     <row r="495" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
@@ -13093,7 +12890,6 @@
     <row r="496" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
-      <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
@@ -13114,7 +12910,6 @@
     <row r="497" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
-      <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
@@ -13135,7 +12930,6 @@
     <row r="498" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
-      <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
@@ -13156,7 +12950,6 @@
     <row r="499" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
-      <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
@@ -13177,7 +12970,6 @@
     <row r="500" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
-      <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
@@ -13198,7 +12990,6 @@
     <row r="501" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
-      <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
@@ -13219,7 +13010,6 @@
     <row r="502" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
-      <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
@@ -13240,7 +13030,6 @@
     <row r="503" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
-      <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
@@ -13261,7 +13050,6 @@
     <row r="504" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
-      <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
@@ -13282,7 +13070,6 @@
     <row r="505" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
-      <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
@@ -13303,7 +13090,6 @@
     <row r="506" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
-      <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
@@ -13324,7 +13110,6 @@
     <row r="507" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
-      <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
@@ -13345,7 +13130,6 @@
     <row r="508" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
-      <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
@@ -13366,7 +13150,6 @@
     <row r="509" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
-      <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
@@ -13387,7 +13170,6 @@
     <row r="510" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
-      <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
@@ -13408,7 +13190,6 @@
     <row r="511" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
-      <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
@@ -13429,7 +13210,6 @@
     <row r="512" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
-      <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
@@ -13450,7 +13230,6 @@
     <row r="513" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
-      <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
@@ -13471,7 +13250,6 @@
     <row r="514" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
-      <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
@@ -13492,7 +13270,6 @@
     <row r="515" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
-      <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
@@ -13513,7 +13290,6 @@
     <row r="516" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
-      <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
@@ -13534,7 +13310,6 @@
     <row r="517" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
-      <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
@@ -13555,7 +13330,6 @@
     <row r="518" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
-      <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
@@ -13576,7 +13350,6 @@
     <row r="519" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
-      <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
@@ -13597,7 +13370,6 @@
     <row r="520" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
-      <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
@@ -13618,7 +13390,6 @@
     <row r="521" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
-      <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
@@ -13639,7 +13410,6 @@
     <row r="522" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
-      <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
@@ -13660,7 +13430,6 @@
     <row r="523" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
-      <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
@@ -13681,7 +13450,6 @@
     <row r="524" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
-      <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
@@ -13702,7 +13470,6 @@
     <row r="525" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
-      <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
@@ -13723,7 +13490,6 @@
     <row r="526" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
-      <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
@@ -13744,7 +13510,6 @@
     <row r="527" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
-      <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
@@ -13765,7 +13530,6 @@
     <row r="528" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
-      <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
@@ -13786,7 +13550,6 @@
     <row r="529" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
-      <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
@@ -13807,7 +13570,6 @@
     <row r="530" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
-      <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
@@ -13828,7 +13590,6 @@
     <row r="531" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
-      <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
@@ -13849,7 +13610,6 @@
     <row r="532" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
-      <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
@@ -13870,7 +13630,6 @@
     <row r="533" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
-      <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
@@ -13891,7 +13650,6 @@
     <row r="534" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
-      <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
@@ -13912,7 +13670,6 @@
     <row r="535" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
-      <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
@@ -13933,7 +13690,6 @@
     <row r="536" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
-      <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
@@ -13954,7 +13710,6 @@
     <row r="537" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
-      <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
@@ -13975,7 +13730,6 @@
     <row r="538" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
-      <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
@@ -13996,7 +13750,6 @@
     <row r="539" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
-      <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
@@ -14017,7 +13770,6 @@
     <row r="540" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
-      <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
@@ -14038,7 +13790,6 @@
     <row r="541" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
-      <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
@@ -14059,7 +13810,6 @@
     <row r="542" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
-      <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
@@ -14080,7 +13830,6 @@
     <row r="543" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
-      <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
@@ -14101,7 +13850,6 @@
     <row r="544" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
-      <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
@@ -14122,7 +13870,6 @@
     <row r="545" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
-      <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
@@ -14143,7 +13890,6 @@
     <row r="546" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
-      <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
@@ -14164,7 +13910,6 @@
     <row r="547" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
-      <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
@@ -14185,7 +13930,6 @@
     <row r="548" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
-      <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
@@ -14206,7 +13950,6 @@
     <row r="549" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
-      <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
@@ -14227,7 +13970,6 @@
     <row r="550" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
-      <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
@@ -14248,7 +13990,6 @@
     <row r="551" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
-      <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
@@ -14269,7 +14010,6 @@
     <row r="552" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
-      <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
@@ -14290,7 +14030,6 @@
     <row r="553" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
-      <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
@@ -14311,7 +14050,6 @@
     <row r="554" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
-      <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
@@ -14332,7 +14070,6 @@
     <row r="555" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
-      <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
@@ -14353,7 +14090,6 @@
     <row r="556" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
-      <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
@@ -14374,7 +14110,6 @@
     <row r="557" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
-      <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
@@ -14395,7 +14130,6 @@
     <row r="558" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
-      <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
@@ -14416,7 +14150,6 @@
     <row r="559" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
-      <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
@@ -14437,7 +14170,6 @@
     <row r="560" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
-      <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
@@ -14458,7 +14190,6 @@
     <row r="561" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
-      <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
@@ -14479,7 +14210,6 @@
     <row r="562" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
-      <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
@@ -14500,7 +14230,6 @@
     <row r="563" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
-      <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
@@ -14521,7 +14250,6 @@
     <row r="564" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
-      <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
@@ -14542,7 +14270,6 @@
     <row r="565" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
-      <c r="C565" s="3"/>
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
@@ -14563,7 +14290,6 @@
     <row r="566" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
-      <c r="C566" s="3"/>
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
@@ -14584,7 +14310,6 @@
     <row r="567" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
-      <c r="C567" s="3"/>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
@@ -14605,7 +14330,6 @@
     <row r="568" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
-      <c r="C568" s="3"/>
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
@@ -14626,7 +14350,6 @@
     <row r="569" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
-      <c r="C569" s="3"/>
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
@@ -14647,7 +14370,6 @@
     <row r="570" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
-      <c r="C570" s="3"/>
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
@@ -14668,7 +14390,6 @@
     <row r="571" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
-      <c r="C571" s="3"/>
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
@@ -14689,7 +14410,6 @@
     <row r="572" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
-      <c r="C572" s="3"/>
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
@@ -14710,7 +14430,6 @@
     <row r="573" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
-      <c r="C573" s="3"/>
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
@@ -14731,7 +14450,6 @@
     <row r="574" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
-      <c r="C574" s="3"/>
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
@@ -14752,7 +14470,6 @@
     <row r="575" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
-      <c r="C575" s="3"/>
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
@@ -14773,7 +14490,6 @@
     <row r="576" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
-      <c r="C576" s="3"/>
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
@@ -14794,7 +14510,6 @@
     <row r="577" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
-      <c r="C577" s="3"/>
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
@@ -14815,7 +14530,6 @@
     <row r="578" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
-      <c r="C578" s="3"/>
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
@@ -14836,7 +14550,6 @@
     <row r="579" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
-      <c r="C579" s="3"/>
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
@@ -14857,7 +14570,6 @@
     <row r="580" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
-      <c r="C580" s="3"/>
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
@@ -14878,7 +14590,6 @@
     <row r="581" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
-      <c r="C581" s="3"/>
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
@@ -14899,7 +14610,6 @@
     <row r="582" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
-      <c r="C582" s="3"/>
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
@@ -14920,7 +14630,6 @@
     <row r="583" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
-      <c r="C583" s="3"/>
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
@@ -14941,7 +14650,6 @@
     <row r="584" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
-      <c r="C584" s="3"/>
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
@@ -14962,7 +14670,6 @@
     <row r="585" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
-      <c r="C585" s="3"/>
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
@@ -14983,7 +14690,6 @@
     <row r="586" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
-      <c r="C586" s="3"/>
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
@@ -15004,7 +14710,6 @@
     <row r="587" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
-      <c r="C587" s="3"/>
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
@@ -15025,7 +14730,6 @@
     <row r="588" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
-      <c r="C588" s="3"/>
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
@@ -15046,7 +14750,6 @@
     <row r="589" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
-      <c r="C589" s="3"/>
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
@@ -15067,7 +14770,6 @@
     <row r="590" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
-      <c r="C590" s="3"/>
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
@@ -15088,7 +14790,6 @@
     <row r="591" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
-      <c r="C591" s="3"/>
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
@@ -15109,7 +14810,6 @@
     <row r="592" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
-      <c r="C592" s="3"/>
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
@@ -15130,7 +14830,6 @@
     <row r="593" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
-      <c r="C593" s="3"/>
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
@@ -15151,7 +14850,6 @@
     <row r="594" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
-      <c r="C594" s="3"/>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
@@ -15172,7 +14870,6 @@
     <row r="595" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
-      <c r="C595" s="3"/>
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
@@ -15193,7 +14890,6 @@
     <row r="596" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
-      <c r="C596" s="3"/>
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
@@ -15214,7 +14910,6 @@
     <row r="597" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
-      <c r="C597" s="3"/>
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
@@ -15235,7 +14930,6 @@
     <row r="598" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
-      <c r="C598" s="3"/>
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
@@ -15256,7 +14950,6 @@
     <row r="599" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
-      <c r="C599" s="3"/>
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
@@ -15277,7 +14970,6 @@
     <row r="600" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
-      <c r="C600" s="3"/>
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
@@ -15298,7 +14990,6 @@
     <row r="601" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
-      <c r="C601" s="3"/>
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
@@ -15319,7 +15010,6 @@
     <row r="602" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
-      <c r="C602" s="3"/>
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
@@ -15340,7 +15030,6 @@
     <row r="603" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
-      <c r="C603" s="3"/>
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
@@ -15361,7 +15050,6 @@
     <row r="604" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
-      <c r="C604" s="3"/>
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
@@ -15382,7 +15070,6 @@
     <row r="605" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
-      <c r="C605" s="3"/>
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
@@ -15403,7 +15090,6 @@
     <row r="606" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
-      <c r="C606" s="3"/>
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
@@ -15424,7 +15110,6 @@
     <row r="607" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
-      <c r="C607" s="3"/>
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
@@ -15445,7 +15130,6 @@
     <row r="608" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
-      <c r="C608" s="3"/>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
@@ -15466,7 +15150,6 @@
     <row r="609" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
-      <c r="C609" s="3"/>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
@@ -15487,7 +15170,6 @@
     <row r="610" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
-      <c r="C610" s="3"/>
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
@@ -15508,7 +15190,6 @@
     <row r="611" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
-      <c r="C611" s="3"/>
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
@@ -15529,7 +15210,6 @@
     <row r="612" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
-      <c r="C612" s="3"/>
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
@@ -15550,7 +15230,6 @@
     <row r="613" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
-      <c r="C613" s="3"/>
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
@@ -15571,7 +15250,6 @@
     <row r="614" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
-      <c r="C614" s="3"/>
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
@@ -15592,7 +15270,6 @@
     <row r="615" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
-      <c r="C615" s="3"/>
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
@@ -15613,7 +15290,6 @@
     <row r="616" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
-      <c r="C616" s="3"/>
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
@@ -15634,7 +15310,6 @@
     <row r="617" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
-      <c r="C617" s="3"/>
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
@@ -15655,7 +15330,6 @@
     <row r="618" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
-      <c r="C618" s="3"/>
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
@@ -15676,7 +15350,6 @@
     <row r="619" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
-      <c r="C619" s="3"/>
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
@@ -15697,7 +15370,6 @@
     <row r="620" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
-      <c r="C620" s="3"/>
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
@@ -15718,7 +15390,6 @@
     <row r="621" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
-      <c r="C621" s="3"/>
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
@@ -15739,7 +15410,6 @@
     <row r="622" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
-      <c r="C622" s="3"/>
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
@@ -15760,7 +15430,6 @@
     <row r="623" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
-      <c r="C623" s="3"/>
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
@@ -15781,7 +15450,6 @@
     <row r="624" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
-      <c r="C624" s="3"/>
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
@@ -15802,7 +15470,6 @@
     <row r="625" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
-      <c r="C625" s="3"/>
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
@@ -15823,7 +15490,6 @@
     <row r="626" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
-      <c r="C626" s="3"/>
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
@@ -15844,7 +15510,6 @@
     <row r="627" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
-      <c r="C627" s="3"/>
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
@@ -15865,7 +15530,6 @@
     <row r="628" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
-      <c r="C628" s="3"/>
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
@@ -15886,7 +15550,6 @@
     <row r="629" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
-      <c r="C629" s="3"/>
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
@@ -15907,7 +15570,6 @@
     <row r="630" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
-      <c r="C630" s="3"/>
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
@@ -15928,7 +15590,6 @@
     <row r="631" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
-      <c r="C631" s="3"/>
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
@@ -15949,7 +15610,6 @@
     <row r="632" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
-      <c r="C632" s="3"/>
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
@@ -15970,7 +15630,6 @@
     <row r="633" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
-      <c r="C633" s="3"/>
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
@@ -15991,7 +15650,6 @@
     <row r="634" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
-      <c r="C634" s="3"/>
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
@@ -16012,7 +15670,6 @@
     <row r="635" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
-      <c r="C635" s="3"/>
       <c r="D635" s="3"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
@@ -16033,7 +15690,6 @@
     <row r="636" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
-      <c r="C636" s="3"/>
       <c r="D636" s="3"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
@@ -16054,7 +15710,6 @@
     <row r="637" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
-      <c r="C637" s="3"/>
       <c r="D637" s="3"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
@@ -16075,7 +15730,6 @@
     <row r="638" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
-      <c r="C638" s="3"/>
       <c r="D638" s="3"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
@@ -16096,7 +15750,6 @@
     <row r="639" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
-      <c r="C639" s="3"/>
       <c r="D639" s="3"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
@@ -16117,7 +15770,6 @@
     <row r="640" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
-      <c r="C640" s="3"/>
       <c r="D640" s="3"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
@@ -16138,7 +15790,6 @@
     <row r="641" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
-      <c r="C641" s="3"/>
       <c r="D641" s="3"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
@@ -16159,7 +15810,6 @@
     <row r="642" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
-      <c r="C642" s="3"/>
       <c r="D642" s="3"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
@@ -16180,7 +15830,6 @@
     <row r="643" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
-      <c r="C643" s="3"/>
       <c r="D643" s="3"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
@@ -16201,7 +15850,6 @@
     <row r="644" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
-      <c r="C644" s="3"/>
       <c r="D644" s="3"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
@@ -16222,7 +15870,6 @@
     <row r="645" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
-      <c r="C645" s="3"/>
       <c r="D645" s="3"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
@@ -16243,7 +15890,6 @@
     <row r="646" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
-      <c r="C646" s="3"/>
       <c r="D646" s="3"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
@@ -16264,7 +15910,6 @@
     <row r="647" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
-      <c r="C647" s="3"/>
       <c r="D647" s="3"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
@@ -16285,7 +15930,6 @@
     <row r="648" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
-      <c r="C648" s="3"/>
       <c r="D648" s="3"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
@@ -16306,7 +15950,6 @@
     <row r="649" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
-      <c r="C649" s="3"/>
       <c r="D649" s="3"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
@@ -16327,7 +15970,6 @@
     <row r="650" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
-      <c r="C650" s="3"/>
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
@@ -16348,7 +15990,6 @@
     <row r="651" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
-      <c r="C651" s="3"/>
       <c r="D651" s="3"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
@@ -16369,7 +16010,6 @@
     <row r="652" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
-      <c r="C652" s="3"/>
       <c r="D652" s="3"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
@@ -16390,7 +16030,6 @@
     <row r="653" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
-      <c r="C653" s="3"/>
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
@@ -16411,7 +16050,6 @@
     <row r="654" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
-      <c r="C654" s="3"/>
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
@@ -16432,7 +16070,6 @@
     <row r="655" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
-      <c r="C655" s="3"/>
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
@@ -16453,7 +16090,6 @@
     <row r="656" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
-      <c r="C656" s="3"/>
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
@@ -16474,7 +16110,6 @@
     <row r="657" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
-      <c r="C657" s="3"/>
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
@@ -16495,7 +16130,6 @@
     <row r="658" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
-      <c r="C658" s="3"/>
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
@@ -16516,7 +16150,6 @@
     <row r="659" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
-      <c r="C659" s="3"/>
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
@@ -16537,7 +16170,6 @@
     <row r="660" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
-      <c r="C660" s="3"/>
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
@@ -16558,7 +16190,6 @@
     <row r="661" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
-      <c r="C661" s="3"/>
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
@@ -16579,7 +16210,6 @@
     <row r="662" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
-      <c r="C662" s="3"/>
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
@@ -16600,7 +16230,6 @@
     <row r="663" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
-      <c r="C663" s="3"/>
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
@@ -16621,7 +16250,6 @@
     <row r="664" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
-      <c r="C664" s="3"/>
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
@@ -16642,7 +16270,6 @@
     <row r="665" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
-      <c r="C665" s="3"/>
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
@@ -16663,7 +16290,6 @@
     <row r="666" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
-      <c r="C666" s="3"/>
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
@@ -16684,7 +16310,6 @@
     <row r="667" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
-      <c r="C667" s="3"/>
       <c r="D667" s="3"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
@@ -16705,7 +16330,6 @@
     <row r="668" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
-      <c r="C668" s="3"/>
       <c r="D668" s="3"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
@@ -16726,7 +16350,6 @@
     <row r="669" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
-      <c r="C669" s="3"/>
       <c r="D669" s="3"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
@@ -16747,7 +16370,6 @@
     <row r="670" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
-      <c r="C670" s="3"/>
       <c r="D670" s="3"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
@@ -16768,7 +16390,6 @@
     <row r="671" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
-      <c r="C671" s="3"/>
       <c r="D671" s="3"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
@@ -16789,7 +16410,6 @@
     <row r="672" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
-      <c r="C672" s="3"/>
       <c r="D672" s="3"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
@@ -16810,7 +16430,6 @@
     <row r="673" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
-      <c r="C673" s="3"/>
       <c r="D673" s="3"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
@@ -16831,7 +16450,6 @@
     <row r="674" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
-      <c r="C674" s="3"/>
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
@@ -16852,7 +16470,6 @@
     <row r="675" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
-      <c r="C675" s="3"/>
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
@@ -16873,7 +16490,6 @@
     <row r="676" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
-      <c r="C676" s="3"/>
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
@@ -16894,7 +16510,6 @@
     <row r="677" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
-      <c r="C677" s="3"/>
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
@@ -16915,7 +16530,6 @@
     <row r="678" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
-      <c r="C678" s="3"/>
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
@@ -16936,7 +16550,6 @@
     <row r="679" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
-      <c r="C679" s="3"/>
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
@@ -16957,7 +16570,6 @@
     <row r="680" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
-      <c r="C680" s="3"/>
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
@@ -16978,7 +16590,6 @@
     <row r="681" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
-      <c r="C681" s="3"/>
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
@@ -16999,7 +16610,6 @@
     <row r="682" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
-      <c r="C682" s="3"/>
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
@@ -17020,7 +16630,6 @@
     <row r="683" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
-      <c r="C683" s="3"/>
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
@@ -17041,7 +16650,6 @@
     <row r="684" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
-      <c r="C684" s="3"/>
       <c r="D684" s="3"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
@@ -17062,7 +16670,6 @@
     <row r="685" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
-      <c r="C685" s="3"/>
       <c r="D685" s="3"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
@@ -17083,7 +16690,6 @@
     <row r="686" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
-      <c r="C686" s="3"/>
       <c r="D686" s="3"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
@@ -17104,7 +16710,6 @@
     <row r="687" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
-      <c r="C687" s="3"/>
       <c r="D687" s="3"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
@@ -17125,7 +16730,6 @@
     <row r="688" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
-      <c r="C688" s="3"/>
       <c r="D688" s="3"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
@@ -17146,7 +16750,6 @@
     <row r="689" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
-      <c r="C689" s="3"/>
       <c r="D689" s="3"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
@@ -17167,7 +16770,6 @@
     <row r="690" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
-      <c r="C690" s="3"/>
       <c r="D690" s="3"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
@@ -17188,7 +16790,6 @@
     <row r="691" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
-      <c r="C691" s="3"/>
       <c r="D691" s="3"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
@@ -17209,7 +16810,6 @@
     <row r="692" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
-      <c r="C692" s="3"/>
       <c r="D692" s="3"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
@@ -17230,7 +16830,6 @@
     <row r="693" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
-      <c r="C693" s="3"/>
       <c r="D693" s="3"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
@@ -17251,7 +16850,6 @@
     <row r="694" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
-      <c r="C694" s="3"/>
       <c r="D694" s="3"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
@@ -17272,7 +16870,6 @@
     <row r="695" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
-      <c r="C695" s="3"/>
       <c r="D695" s="3"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
@@ -17293,7 +16890,6 @@
     <row r="696" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
-      <c r="C696" s="3"/>
       <c r="D696" s="3"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
@@ -17314,7 +16910,6 @@
     <row r="697" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
-      <c r="C697" s="3"/>
       <c r="D697" s="3"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
@@ -17335,7 +16930,6 @@
     <row r="698" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
-      <c r="C698" s="3"/>
       <c r="D698" s="3"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
@@ -17356,7 +16950,6 @@
     <row r="699" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
-      <c r="C699" s="3"/>
       <c r="D699" s="3"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
@@ -17377,7 +16970,6 @@
     <row r="700" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
-      <c r="C700" s="3"/>
       <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
@@ -17398,7 +16990,6 @@
     <row r="701" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
-      <c r="C701" s="3"/>
       <c r="D701" s="3"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
@@ -17419,7 +17010,6 @@
     <row r="702" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
-      <c r="C702" s="3"/>
       <c r="D702" s="3"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
@@ -17440,7 +17030,6 @@
     <row r="703" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
-      <c r="C703" s="3"/>
       <c r="D703" s="3"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
@@ -17461,7 +17050,6 @@
     <row r="704" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
-      <c r="C704" s="3"/>
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
@@ -17482,7 +17070,6 @@
     <row r="705" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
-      <c r="C705" s="3"/>
       <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
@@ -17503,7 +17090,6 @@
     <row r="706" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
-      <c r="C706" s="3"/>
       <c r="D706" s="3"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
@@ -17524,7 +17110,6 @@
     <row r="707" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
-      <c r="C707" s="3"/>
       <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
@@ -17545,7 +17130,6 @@
     <row r="708" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
-      <c r="C708" s="3"/>
       <c r="D708" s="3"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
@@ -17566,7 +17150,6 @@
     <row r="709" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
-      <c r="C709" s="3"/>
       <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
@@ -17587,7 +17170,6 @@
     <row r="710" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
-      <c r="C710" s="3"/>
       <c r="D710" s="3"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
@@ -17608,7 +17190,6 @@
     <row r="711" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
-      <c r="C711" s="3"/>
       <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
@@ -17629,7 +17210,6 @@
     <row r="712" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
-      <c r="C712" s="3"/>
       <c r="D712" s="3"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
@@ -17650,7 +17230,6 @@
     <row r="713" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
-      <c r="C713" s="3"/>
       <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
@@ -17671,7 +17250,6 @@
     <row r="714" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
-      <c r="C714" s="3"/>
       <c r="D714" s="3"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
@@ -17692,7 +17270,6 @@
     <row r="715" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
-      <c r="C715" s="3"/>
       <c r="D715" s="3"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
@@ -17713,7 +17290,6 @@
     <row r="716" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
-      <c r="C716" s="3"/>
       <c r="D716" s="3"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
@@ -17734,7 +17310,6 @@
     <row r="717" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
-      <c r="C717" s="3"/>
       <c r="D717" s="3"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
@@ -17755,7 +17330,6 @@
     <row r="718" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
-      <c r="C718" s="3"/>
       <c r="D718" s="3"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
@@ -17776,7 +17350,6 @@
     <row r="719" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
-      <c r="C719" s="3"/>
       <c r="D719" s="3"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
@@ -17797,7 +17370,6 @@
     <row r="720" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
-      <c r="C720" s="3"/>
       <c r="D720" s="3"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
@@ -17818,7 +17390,6 @@
     <row r="721" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
-      <c r="C721" s="3"/>
       <c r="D721" s="3"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
@@ -17839,7 +17410,6 @@
     <row r="722" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
-      <c r="C722" s="3"/>
       <c r="D722" s="3"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
@@ -17860,7 +17430,6 @@
     <row r="723" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
-      <c r="C723" s="3"/>
       <c r="D723" s="3"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
@@ -17881,7 +17450,6 @@
     <row r="724" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
-      <c r="C724" s="3"/>
       <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
@@ -17902,7 +17470,6 @@
     <row r="725" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
-      <c r="C725" s="3"/>
       <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
@@ -17923,7 +17490,6 @@
     <row r="726" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
-      <c r="C726" s="3"/>
       <c r="D726" s="3"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
@@ -17944,7 +17510,6 @@
     <row r="727" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
-      <c r="C727" s="3"/>
       <c r="D727" s="3"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
@@ -17965,7 +17530,6 @@
     <row r="728" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
-      <c r="C728" s="3"/>
       <c r="D728" s="3"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
@@ -17986,7 +17550,6 @@
     <row r="729" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
-      <c r="C729" s="3"/>
       <c r="D729" s="3"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
@@ -18007,7 +17570,6 @@
     <row r="730" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
-      <c r="C730" s="3"/>
       <c r="D730" s="3"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
@@ -18028,7 +17590,6 @@
     <row r="731" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
-      <c r="C731" s="3"/>
       <c r="D731" s="3"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
@@ -18049,7 +17610,6 @@
     <row r="732" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
-      <c r="C732" s="3"/>
       <c r="D732" s="3"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
@@ -18070,7 +17630,6 @@
     <row r="733" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
-      <c r="C733" s="3"/>
       <c r="D733" s="3"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
@@ -18091,7 +17650,6 @@
     <row r="734" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
-      <c r="C734" s="3"/>
       <c r="D734" s="3"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
@@ -18112,7 +17670,6 @@
     <row r="735" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
-      <c r="C735" s="3"/>
       <c r="D735" s="3"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
@@ -18133,7 +17690,6 @@
     <row r="736" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
-      <c r="C736" s="3"/>
       <c r="D736" s="3"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
@@ -18154,7 +17710,6 @@
     <row r="737" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
-      <c r="C737" s="3"/>
       <c r="D737" s="3"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
@@ -18175,7 +17730,6 @@
     <row r="738" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
-      <c r="C738" s="3"/>
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
@@ -18196,7 +17750,6 @@
     <row r="739" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
-      <c r="C739" s="3"/>
       <c r="D739" s="3"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
@@ -18217,7 +17770,6 @@
     <row r="740" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
-      <c r="C740" s="3"/>
       <c r="D740" s="3"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
@@ -18238,7 +17790,6 @@
     <row r="741" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
-      <c r="C741" s="3"/>
       <c r="D741" s="3"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
@@ -18259,7 +17810,6 @@
     <row r="742" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
-      <c r="C742" s="3"/>
       <c r="D742" s="3"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
@@ -18284,10 +17834,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B25 D11:H15 J18:P123 H3 B3:G4 J2:P6 B8:H10 B2:H2 B5:H6 F22:H22 D23:H25 D18:H21 B26:H1048576 J124:K1048576 L9 J8:P8 J11:P15 J9:K10 M9:P10" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B25 D11:H15 J18:P123 H3 D8:H10 J2:P6 D2:H2 D5:H6 D26:H1048576 F22:H22 D23:H25 D18:H21 M9:P10 J124:K1048576 L9 J8:P8 J11:P15 J9:K10 B26:B1048576 B5:B6 B2 B8:B10 B3:B4 D3:G4" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576 L10 C11 C12" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576 L10 C2:C1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BEE328-B761-4619-9846-1EC9A50BAEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8025ECC8-FC12-491F-ADDD-6A9F4E8A6177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1633,7 +1633,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2221,9 +2221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3057,45 +3057,125 @@
       <c r="A14" s="4">
         <v>45151</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="B14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>45152</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="10">
+        <v>16</v>
+      </c>
+      <c r="S15" s="11">
+        <v>10</v>
+      </c>
+      <c r="T15" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -17834,10 +17914,10 @@
   <dataConsolidate/>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:B25 D11:H15 J18:P123 H3 D8:H10 J2:P6 D2:H2 D5:H6 D26:H1048576 F22:H22 D23:H25 D18:H21 M9:P10 J124:K1048576 L9 J8:P8 J11:P15 J9:K10 B26:B1048576 B5:B6 B2 B8:B10 B3:B4 D3:G4" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18:P123 H3 J15:P15 J2:P6 D2:H2 D5:H6 F22:H22 D23:H1048576 D18:H21 M9:P10 J124:K1048576 L9 J8:P8 B15:B1048576 J9:K10 B2:B6 D3:G4 B8:B13 J11:P13 D8:H13 D15:H15" xr:uid="{FD213E24-5FFB-4E4A-B5C9-E949D8E50480}">
       <formula1>"PRESENT, ABSENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 Q8:Q123 I1:I1048576 L10 C2:C1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 H4 Q2:Q6 L10 C2:C1048576 I1:I1048576 Q8:Q13 Q15:Q123" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40C8592-7118-45C5-9391-C98E669F88CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EA5A5A-F621-4846-9666-A34F94EF1732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -1628,6 +1628,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{C23D94CB-E7AF-4CC2-B129-424562133E4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D15" authorId="0" shapeId="0" xr:uid="{13B65EF3-631B-4111-A323-6F088CA8570F}">
       <text>
         <r>
@@ -1649,6 +1673,30 @@
           </rPr>
           <t xml:space="preserve">
 Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{205372FC-C977-4DBA-8F7A-8A906D74ABF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
         </r>
       </text>
     </comment>
@@ -1817,6 +1865,150 @@
           </rPr>
           <t xml:space="preserve">
 Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{4408E2ED-4681-48CD-A9D1-06672E620964}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{AF97CDEA-3CA3-4242-AC3D-041BF45CBAEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Present in only first meeting not in second meeting due to office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{BADD8DE6-05BE-473A-B6A6-963081765D82}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{F1DA001B-AB2E-4B6C-844C-EF74D24CC80F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{82349F4F-C7BE-4CF5-AB09-50EC7CE83215}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0" shapeId="0" xr:uid="{A9B24FD6-7C5F-4E67-9FEC-0EA2BF13B220}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
         </r>
       </text>
     </comment>
@@ -1825,7 +2017,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2413,9 +2605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3433,9 +3625,63 @@
       <c r="A17" s="4">
         <v>45154</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="10">
+        <v>16</v>
+      </c>
+      <c r="S17" s="11">
+        <v>11</v>
+      </c>
+      <c r="T17" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -8008,7 +8254,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:Q1048576 B17:P17 B1:Q16" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:Q1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$U$5:$U$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EA5A5A-F621-4846-9666-A34F94EF1732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951112C3-0C03-409F-94A7-B52F61FFFC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2012,12 +2012,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{E0F7FAFC-8927-40C1-90C4-9C4BC3352BD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{7A0D24CF-3C05-4EAE-8023-521DE0E02706}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{579E5D88-956E-4EC0-8477-6910F38621FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P18" authorId="0" shapeId="0" xr:uid="{86D47E90-EDBA-48FA-9B94-F196A63C2C65}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2605,9 +2701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3687,9 +3783,63 @@
       <c r="A18" s="4">
         <v>45155</v>
       </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="10">
+        <v>16</v>
+      </c>
+      <c r="S18" s="11">
+        <v>12</v>
+      </c>
+      <c r="T18" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951112C3-0C03-409F-94A7-B52F61FFFC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B287CC-1644-41D7-A597-572D4BFDE23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2108,12 +2108,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{9E218420-79B5-4DED-8526-68B913437137}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{4DFBBFF8-5B28-4A55-B63B-88EF7D34A1FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0" shapeId="0" xr:uid="{B5966EDD-C9D3-45FD-8635-41EDDAC8D40D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{BD42DDF4-D425-4837-BCFD-38365E74E284}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Outside Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O19" authorId="0" shapeId="0" xr:uid="{C76AD26A-CB85-4E8D-8AB2-9D4B9B423FD0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Present in only first session absent in second session due to power failure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P19" authorId="0" shapeId="0" xr:uid="{11592296-2DE5-4777-9573-6E646872E2DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2701,9 +2845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:U742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3845,9 +3989,63 @@
       <c r="A19" s="4">
         <v>45156</v>
       </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="10">
+        <v>16</v>
+      </c>
+      <c r="S19" s="11">
+        <v>6</v>
+      </c>
+      <c r="T19" s="12">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B287CC-1644-41D7-A597-572D4BFDE23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2586AA25-B6DA-46C0-B5C3-192C5266F63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2180,6 +2180,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{7EAB3C2F-F3F9-47FD-AFEE-CB2B36A7DB24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N19" authorId="0" shapeId="0" xr:uid="{BD42DDF4-D425-4837-BCFD-38365E74E284}">
       <text>
         <r>
@@ -2229,6 +2253,150 @@
       </text>
     </comment>
     <comment ref="P19" authorId="0" shapeId="0" xr:uid="{11592296-2DE5-4777-9573-6E646872E2DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{CCDA3DF8-04B1-48B3-9885-2D74B8579EFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{78710C50-5210-4581-897A-298E4051597D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{FEE76E76-7082-4F67-A169-00A55658BAA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{8823DE1E-8B41-4C55-81D9-35807324E417}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{880942CD-32C1-45A2-9ED9-5FC21F7C2079}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P20" authorId="0" shapeId="0" xr:uid="{5F56F8A9-AFAA-47C0-870E-A5C50F2C7FBE}">
       <text>
         <r>
           <rPr>
@@ -2257,7 +2425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -2847,7 +3015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4051,9 +4219,63 @@
       <c r="A20" s="4">
         <v>45157</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="10">
+        <v>16</v>
+      </c>
+      <c r="S20" s="11">
+        <v>10</v>
+      </c>
+      <c r="T20" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35DCAAF-F97E-44FE-9445-751CB63484A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44987890-FB4B-49C8-8BF7-70DD1AFE578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2420,7 +2420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{D805C94A-959E-496F-897F-536A7F027B2D}">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{1224DECD-2681-478D-9447-AC573F05ACEF}">
       <text>
         <r>
           <rPr>
@@ -2440,11 +2440,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+Trevelling Outside of city</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{BA188090-E954-4CB0-952A-A597EC4C1CB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 Not responded</t>
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{1224DECD-2681-478D-9447-AC573F05ACEF}">
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{38D6EF27-BF89-4216-BF0A-A1517DDA7B63}">
       <text>
         <r>
           <rPr>
@@ -2464,11 +2488,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Trevelling Outside of city</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{BA188090-E954-4CB0-952A-A597EC4C1CB3}">
+Not responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{D2745FA8-0A1E-439F-954B-1CCC85B9DF90}">
       <text>
         <r>
           <rPr>
@@ -2492,7 +2516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{38D6EF27-BF89-4216-BF0A-A1517DDA7B63}">
+    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{C3CD6DE4-4327-4C62-B8FB-7164E228319E}">
       <text>
         <r>
           <rPr>
@@ -2516,51 +2540,147 @@
         </r>
       </text>
     </comment>
-    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{D2745FA8-0A1E-439F-954B-1CCC85B9DF90}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not responded</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{C3CD6DE4-4327-4C62-B8FB-7164E228319E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not responded</t>
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{E3E7C423-241D-4929-BBA6-9917145F86B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{C7DC7E35-6100-4968-8649-39864264985E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+family function</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{7A690DE2-7F2F-410D-9DC9-87DF57486C53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{4CE42885-B17A-440A-BF7D-DE30F8413F4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{2E0F014B-CA1A-4D5A-87D5-5077AE433C6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P23" authorId="0" shapeId="0" xr:uid="{3C4028ED-8E0F-4EB3-A982-E1D8DA2BC488}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
         </r>
       </text>
     </comment>
@@ -2569,7 +2689,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3158,8 +3278,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4494,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>2</v>
@@ -4533,10 +4653,10 @@
         <v>15</v>
       </c>
       <c r="R22" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S22" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>2</v>
@@ -4546,9 +4666,60 @@
       <c r="A23" s="4">
         <v>45160</v>
       </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>15</v>
+      </c>
+      <c r="R23" s="11">
+        <v>9</v>
+      </c>
+      <c r="S23" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44987890-FB4B-49C8-8BF7-70DD1AFE578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1118CA6F-31FD-4751-8E54-5E7E6BA9FF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2684,12 +2684,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{319695E3-ED31-449C-A46E-29C0C02B114C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{B5DFBE91-A735-4A60-857F-6EF4D1CA38AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{6DBA05E6-AFAF-432B-9173-DA2D8BF714B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{B7C9EA69-B2DE-402A-83D6-38B0D8A898BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0" shapeId="0" xr:uid="{9295209E-E243-4FCD-8B16-767583B659E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O24" authorId="0" shapeId="0" xr:uid="{C1ABA544-9299-435E-A31B-8E15A10A8BE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P24" authorId="0" shapeId="0" xr:uid="{F9D9BC9C-86CE-4DF6-BACD-C366578D7855}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3277,9 +3445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4725,9 +4893,60 @@
       <c r="A24" s="4">
         <v>45161</v>
       </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>15</v>
+      </c>
+      <c r="R24" s="11">
+        <v>8</v>
+      </c>
+      <c r="S24" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -9242,7 +9461,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 N24 B1:P23 B26:P1048576 B24:M25 O24:P25" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1118CA6F-31FD-4751-8E54-5E7E6BA9FF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA28BC38-E77D-4918-9036-5C5494B5B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2852,12 +2852,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{B4E01069-1816-4F33-9574-46EA55EFB78F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{9BBD42C6-69FB-4007-BF2C-78F0840A5D93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Other classes and exam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K25" authorId="0" shapeId="0" xr:uid="{3E50D415-F088-4CD6-A021-71D7D1000898}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L25" authorId="0" shapeId="0" xr:uid="{C868AB04-0CEB-42D2-85C3-54C9A7C0A789}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O25" authorId="0" shapeId="0" xr:uid="{911619F5-74FC-449D-9940-9459E7E629D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3445,9 +3565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4952,9 +5072,60 @@
       <c r="A25" s="4">
         <v>45162</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>15</v>
+      </c>
+      <c r="R25" s="11">
+        <v>10</v>
+      </c>
+      <c r="S25" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -9461,7 +9632,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 N24 B1:P23 B26:P1048576 B24:M25 O24:P25" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 N24 B1:P23 B26:P1048576 B24:M25 O24:P25 N25" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA28BC38-E77D-4918-9036-5C5494B5B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A704FD6C-84F5-4926-9D30-8CAECCD0DE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -2972,12 +2972,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{4DEE87DC-A896-4F0F-9E82-7FC38E60BEBF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Out for travel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{0C92B4FD-D5E7-4975-90DA-7C9ABE160EDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Other classes and exam</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K26" authorId="0" shapeId="0" xr:uid="{DB1FBBD9-8003-42CC-A6DE-050866DEC484}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{0BB05591-519E-47B3-983C-4E06182C1FC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Note Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O26" authorId="0" shapeId="0" xr:uid="{73DDEAF1-19FF-443C-B41D-0FAB897C7EA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3565,9 +3685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5131,9 +5251,60 @@
       <c r="A26" s="4">
         <v>45163</v>
       </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>15</v>
+      </c>
+      <c r="R26" s="11">
+        <v>10</v>
+      </c>
+      <c r="S26" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A704FD6C-84F5-4926-9D30-8CAECCD0DE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59F8D0-3A91-4C6F-9235-9642DED022FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -5310,17 +5310,11 @@
       <c r="A27" s="4">
         <v>45164</v>
       </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45165</v>
       </c>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -9803,7 +9797,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 N24 B1:P23 B26:P1048576 B24:M25 O24:P25 N25" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P26 B29:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59F8D0-3A91-4C6F-9235-9642DED022FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA7BE13-90EE-4FD8-AA99-7803219C993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3092,12 +3092,276 @@
         </r>
       </text>
     </comment>
+    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{919A5A0A-80DF-4DB7-B5B1-47814E190B51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K27" authorId="0" shapeId="0" xr:uid="{DE75150F-42CE-46F2-9A4C-873DDDF20011}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{483D6C54-7EF5-4C4C-AF57-3E2250D87749}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{06B3FFE7-6B73-42F0-ADC2-7879D93678DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{B4DE87A7-BB03-4E5F-ACE3-8D482001B17E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{90FDD82B-F307-4C87-9AA6-F894695BE196}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{8A5D8F95-A82C-43EA-9B8C-55EB44C079FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K29" authorId="0" shapeId="0" xr:uid="{B5BF7ED3-C636-48F7-AD8B-7D3FFB2B85FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L29" authorId="0" shapeId="0" xr:uid="{B1453DC1-D169-4B73-8BCA-8B9C441D2C76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M29" authorId="0" shapeId="0" xr:uid="{6B83094C-1EEA-44CC-8118-F06B3CC689A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Went to Home</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{2DAB23AB-5076-4461-91C0-F833C8BEB305}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3685,9 +3949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5310,19 +5574,178 @@
       <c r="A27" s="4">
         <v>45164</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>15</v>
+      </c>
+      <c r="R27" s="11">
+        <v>11</v>
+      </c>
+      <c r="S27" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>45165</v>
       </c>
+      <c r="B28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>45166</v>
       </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>15</v>
+      </c>
+      <c r="R29" s="11">
+        <v>8</v>
+      </c>
+      <c r="S29" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -9797,7 +10220,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P26 B29:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA7BE13-90EE-4FD8-AA99-7803219C993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6389C9-EA75-48DC-8AAA-DD8D7A35E924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3356,12 +3356,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{1C27803D-B496-495B-968A-2ACCDCB24B92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Went to Home Town</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H30" authorId="0" shapeId="0" xr:uid="{D046AC12-E11B-4DBC-94B7-88802C63AD24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K30" authorId="0" shapeId="0" xr:uid="{BEA22ABF-8CCD-46A2-B648-D958EC1D6E69}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L30" authorId="0" shapeId="0" xr:uid="{7A75E0C7-A352-4717-85FB-CF1BE747CE79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M30" authorId="0" shapeId="0" xr:uid="{E70911EB-8EF1-4335-B865-CA38975756F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Went to Home Town</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O30" authorId="0" shapeId="0" xr:uid="{B84A9B8A-3448-4F8E-A5FF-AD916F0EAB99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -3949,9 +4093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5751,9 +5895,60 @@
       <c r="A30" s="4">
         <v>45167</v>
       </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>15</v>
+      </c>
+      <c r="R30" s="11">
+        <v>9</v>
+      </c>
+      <c r="S30" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6389C9-EA75-48DC-8AAA-DD8D7A35E924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAEB8C-73A0-4B68-9232-47D526293BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3505,7 +3505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -3580,6 +3580,12 @@
   </si>
   <si>
     <t>SUNDAY OFF</t>
+  </si>
+  <si>
+    <t>Rakshabandhan Grp Holiday</t>
+  </si>
+  <si>
+    <t>Poll Result- Yes-1, No-9</t>
   </si>
 </sst>
 </file>
@@ -4095,7 +4101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5954,9 +5960,63 @@
       <c r="A31" s="4">
         <v>45168</v>
       </c>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="B31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -10415,7 +10475,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAEB8C-73A0-4B68-9232-47D526293BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196E82A-28DF-4FD6-A566-4DC365F6BED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3500,12 +3500,228 @@
         </r>
       </text>
     </comment>
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{7C6D7745-82EF-4748-850C-6B548E8AB608}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{A2057527-0B24-4A52-8117-FB112BCD5700}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{917FD1C0-FDC1-4E01-942A-DD6FA52FB5B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{004D0ECD-0FB6-4ECE-BF07-BC319AAA2A9E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+External Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{C3866FEE-88C5-4556-9B0F-08BEA6ADA91B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K32" authorId="0" shapeId="0" xr:uid="{4C0F46C6-68E2-4023-96F7-AABC73CD3571}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{CB9786DB-E383-44AA-9C9A-CF9ABBFDA82E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{4A803132-D54F-4D10-9BDD-D4C706552ED9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P32" authorId="0" shapeId="0" xr:uid="{30474783-C962-4795-8C01-A0EFCAF347FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4101,7 +4317,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6022,9 +6238,60 @@
       <c r="A32" s="4">
         <v>45169</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>15</v>
+      </c>
+      <c r="R32" s="11">
+        <v>6</v>
+      </c>
+      <c r="S32" s="12">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196E82A-28DF-4FD6-A566-4DC365F6BED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE202DAA-3269-424F-9EC4-546ECF7EF159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3544,11 +3544,83 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Medical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{917FD1C0-FDC1-4E01-942A-DD6FA52FB5B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 Not Responded</t>
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{917FD1C0-FDC1-4E01-942A-DD6FA52FB5B5}">
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{004D0ECD-0FB6-4ECE-BF07-BC319AAA2A9E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+External Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{C3866FEE-88C5-4556-9B0F-08BEA6ADA91B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Atteneded Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K32" authorId="0" shapeId="0" xr:uid="{4C0F46C6-68E2-4023-96F7-AABC73CD3571}">
       <text>
         <r>
           <rPr>
@@ -3572,31 +3644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{004D0ECD-0FB6-4ECE-BF07-BC319AAA2A9E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-External Study</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{C3866FEE-88C5-4556-9B0F-08BEA6ADA91B}">
+    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{CB9786DB-E383-44AA-9C9A-CF9ABBFDA82E}">
       <text>
         <r>
           <rPr>
@@ -3620,7 +3668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K32" authorId="0" shapeId="0" xr:uid="{4C0F46C6-68E2-4023-96F7-AABC73CD3571}">
+    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{4A803132-D54F-4D10-9BDD-D4C706552ED9}">
       <text>
         <r>
           <rPr>
@@ -3644,54 +3692,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{CB9786DB-E383-44AA-9C9A-CF9ABBFDA82E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Responded</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O32" authorId="0" shapeId="0" xr:uid="{4A803132-D54F-4D10-9BDD-D4C706552ED9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Not Responded</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="P32" authorId="0" shapeId="0" xr:uid="{30474783-C962-4795-8C01-A0EFCAF347FF}">
       <text>
         <r>
@@ -3712,7 +3712,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Not Responded</t>
+Travelling Outside</t>
         </r>
       </text>
     </comment>
@@ -4317,7 +4317,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6263,7 +6263,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>1</v>
@@ -6287,10 +6287,10 @@
         <v>15</v>
       </c>
       <c r="R32" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S32" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE202DAA-3269-424F-9EC4-546ECF7EF159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FD077-2783-4C0D-A61A-8381EE281C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3716,12 +3716,156 @@
         </r>
       </text>
     </comment>
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{D38A728C-384B-4089-8302-2338D653A3EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{302D648A-87C0-42FB-B5FF-AC6129507CDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{F79A7CD9-FD26-4C9F-A83F-9971BE89715A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K33" authorId="0" shapeId="0" xr:uid="{284D179C-2E73-40A0-B554-76F521F6E33C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L33" authorId="0" shapeId="0" xr:uid="{0917DC80-A29E-4566-A9EC-FEF033C00E01}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O33" authorId="0" shapeId="0" xr:uid="{5ABEDCF9-714A-4BC2-9162-54B54757177F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4315,9 +4459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6297,9 +6441,60 @@
       <c r="A33" s="4">
         <v>45170</v>
       </c>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>15</v>
+      </c>
+      <c r="R33" s="11">
+        <v>10</v>
+      </c>
+      <c r="S33" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FD077-2783-4C0D-A61A-8381EE281C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7540D-9011-437B-9857-AF5E87E2FCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3860,12 +3860,228 @@
         </r>
       </text>
     </comment>
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{D5001D8A-3722-4963-9DF9-813685DC0DF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{19E74949-FE74-4BF2-A20D-AFC59CE7D4D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{4E1CA7AB-B817-4051-B675-4E7B798B1245}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Outside travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{FDA096EA-E987-48E3-9ABC-8F5FBD13F78B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I34" authorId="0" shapeId="0" xr:uid="{EDB4E1AE-D971-4195-AC2A-479BF5EAFD2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K34" authorId="0" shapeId="0" xr:uid="{33068B92-0A99-447F-B1BB-7AF5F20D2989}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L34" authorId="0" shapeId="0" xr:uid="{744C3BB7-9B21-4E75-BD7E-FA36A77C5AC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N34" authorId="0" shapeId="0" xr:uid="{7002939E-8EF6-4811-BE73-F71244CDA738}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{B4D17993-7566-4AD2-A2E8-9042EBEC4F11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4460,8 +4676,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6500,9 +6716,60 @@
       <c r="A34" s="4">
         <v>45171</v>
       </c>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>15</v>
+      </c>
+      <c r="R34" s="11">
+        <v>6</v>
+      </c>
+      <c r="S34" s="12">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A7540D-9011-437B-9857-AF5E87E2FCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1928E-9669-4EB1-AEAA-E296F3635A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -3880,11 +3880,107 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Office work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{19E74949-FE74-4BF2-A20D-AFC59CE7D4D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 Not Responded</t>
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{19E74949-FE74-4BF2-A20D-AFC59CE7D4D0}">
+    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{4E1CA7AB-B817-4051-B675-4E7B798B1245}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Outside travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{FDA096EA-E987-48E3-9ABC-8F5FBD13F78B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I34" authorId="0" shapeId="0" xr:uid="{EDB4E1AE-D971-4195-AC2A-479BF5EAFD2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K34" authorId="0" shapeId="0" xr:uid="{33068B92-0A99-447F-B1BB-7AF5F20D2989}">
       <text>
         <r>
           <rPr>
@@ -3908,79 +4004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{4E1CA7AB-B817-4051-B675-4E7B798B1245}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Outside travelling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H34" authorId="0" shapeId="0" xr:uid="{FDA096EA-E987-48E3-9ABC-8F5FBD13F78B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Extra Studies</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I34" authorId="0" shapeId="0" xr:uid="{EDB4E1AE-D971-4195-AC2A-479BF5EAFD2C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Medical Reason</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K34" authorId="0" shapeId="0" xr:uid="{33068B92-0A99-447F-B1BB-7AF5F20D2989}">
+    <comment ref="L34" authorId="0" shapeId="0" xr:uid="{744C3BB7-9B21-4E75-BD7E-FA36A77C5AC2}">
       <text>
         <r>
           <rPr>
@@ -4004,7 +4028,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="L34" authorId="0" shapeId="0" xr:uid="{744C3BB7-9B21-4E75-BD7E-FA36A77C5AC2}">
+    <comment ref="N34" authorId="0" shapeId="0" xr:uid="{7002939E-8EF6-4811-BE73-F71244CDA738}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{B4D17993-7566-4AD2-A2E8-9042EBEC4F11}">
       <text>
         <r>
           <rPr>
@@ -4028,31 +4076,127 @@
         </r>
       </text>
     </comment>
-    <comment ref="N34" authorId="0" shapeId="0" xr:uid="{7002939E-8EF6-4811-BE73-F71244CDA738}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Travelling</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{B4D17993-7566-4AD2-A2E8-9042EBEC4F11}">
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{3B8A67B5-EFE4-4A03-AEA8-DFC6DFC8B6D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{25EF9EAB-AD94-48B0-8595-70F8897CA807}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{5F35A3F7-2659-484A-8B95-8024EFECDFEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{FCD6221C-EAFD-464C-848A-4FD14B8F2CDF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{5CB83E8D-846C-48C1-8B31-992FD55F4356}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{C9B8A76E-0EB6-46D7-9538-7CBF4FBCE1C8}">
       <text>
         <r>
           <rPr>
@@ -4081,7 +4225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4676,8 +4820,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6775,17 +6919,119 @@
       <c r="A35" s="4">
         <v>45172</v>
       </c>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="B35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>45173</v>
       </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>15</v>
+      </c>
+      <c r="R36" s="11">
+        <v>9</v>
+      </c>
+      <c r="S36" s="12">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1928E-9669-4EB1-AEAA-E296F3635A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA384E91-DDC5-4FD2-AD7D-B3781DA250B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -4096,11 +4096,59 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{25EF9EAB-AD94-48B0-8595-70F8897CA807}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 Not Responded</t>
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{25EF9EAB-AD94-48B0-8595-70F8897CA807}">
+    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{5F35A3F7-2659-484A-8B95-8024EFECDFEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{FCD6221C-EAFD-464C-848A-4FD14B8F2CDF}">
       <text>
         <r>
           <rPr>
@@ -4124,7 +4172,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="H36" authorId="0" shapeId="0" xr:uid="{5F35A3F7-2659-484A-8B95-8024EFECDFEF}">
+    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{5CB83E8D-846C-48C1-8B31-992FD55F4356}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{C9B8A76E-0EB6-46D7-9538-7CBF4FBCE1C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{C55BAE70-D05E-4FE1-9C06-E9AD4B51A38F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{CB52CCBD-689B-4114-99F4-F411CD8F7BC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{08CD4C26-8E13-47F5-B7F3-6FAE47F7D09D}">
       <text>
         <r>
           <rPr>
@@ -4148,7 +4292,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{FCD6221C-EAFD-464C-848A-4FD14B8F2CDF}">
+    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{BB95C043-3942-411F-9C8F-B6D608C6A468}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K37" authorId="0" shapeId="0" xr:uid="{16780C0C-1A7C-4468-AAFC-D95182B04FA7}">
       <text>
         <r>
           <rPr>
@@ -4172,7 +4340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{5CB83E8D-846C-48C1-8B31-992FD55F4356}">
+    <comment ref="L37" authorId="0" shapeId="0" xr:uid="{723AC145-B7CF-430E-A578-8B50DB23F3C6}">
       <text>
         <r>
           <rPr>
@@ -4196,7 +4364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{C9B8A76E-0EB6-46D7-9538-7CBF4FBCE1C8}">
+    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{67BB5F91-AF4C-4A08-9A23-230558D8E17B}">
       <text>
         <r>
           <rPr>
@@ -4225,7 +4393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4819,9 +4987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7037,9 +7205,60 @@
       <c r="A37" s="4">
         <v>45174</v>
       </c>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>15</v>
+      </c>
+      <c r="R37" s="11">
+        <v>8</v>
+      </c>
+      <c r="S37" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA384E91-DDC5-4FD2-AD7D-B3781DA250B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81875051-EB97-4C01-8097-421AD547FD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -4264,11 +4264,179 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Medical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{08CD4C26-8E13-47F5-B7F3-6FAE47F7D09D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{BB95C043-3942-411F-9C8F-B6D608C6A468}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K37" authorId="0" shapeId="0" xr:uid="{16780C0C-1A7C-4468-AAFC-D95182B04FA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 Not Responded</t>
         </r>
       </text>
     </comment>
-    <comment ref="H37" authorId="0" shapeId="0" xr:uid="{08CD4C26-8E13-47F5-B7F3-6FAE47F7D09D}">
+    <comment ref="L37" authorId="0" shapeId="0" xr:uid="{723AC145-B7CF-430E-A578-8B50DB23F3C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{67BB5F91-AF4C-4A08-9A23-230558D8E17B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{BBB0D313-531A-42E9-9A06-7CA20659E2A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{160063A0-C281-454D-BEB0-934724504CEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Medical Reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H38" authorId="0" shapeId="0" xr:uid="{DC4FD730-EF31-4758-81EF-957DCDA0B5B0}">
       <text>
         <r>
           <rPr>
@@ -4292,7 +4460,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="J37" authorId="0" shapeId="0" xr:uid="{BB95C043-3942-411F-9C8F-B6D608C6A468}">
+    <comment ref="I38" authorId="0" shapeId="0" xr:uid="{1A3A3E46-472A-4564-A7A7-3A22FB5A2EAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J38" authorId="0" shapeId="0" xr:uid="{9F235BBC-37C6-43FA-AF91-2B39F10E4D10}">
       <text>
         <r>
           <rPr>
@@ -4316,7 +4508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K37" authorId="0" shapeId="0" xr:uid="{16780C0C-1A7C-4468-AAFC-D95182B04FA7}">
+    <comment ref="K38" authorId="0" shapeId="0" xr:uid="{BD4F6F87-97EF-4548-9B80-B7572D60C8AA}">
       <text>
         <r>
           <rPr>
@@ -4340,7 +4532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L37" authorId="0" shapeId="0" xr:uid="{723AC145-B7CF-430E-A578-8B50DB23F3C6}">
+    <comment ref="L38" authorId="0" shapeId="0" xr:uid="{BA82DE96-A662-4DF3-A149-5E4F1150529A}">
       <text>
         <r>
           <rPr>
@@ -4364,7 +4556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{67BB5F91-AF4C-4A08-9A23-230558D8E17B}">
+    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{B42E0C47-4FA2-4BCA-8937-B7550D7216F8}">
       <text>
         <r>
           <rPr>
@@ -4393,7 +4585,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4686,6 +4878,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4987,9 +5183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7264,9 +7460,60 @@
       <c r="A38" s="4">
         <v>45175</v>
       </c>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>15</v>
+      </c>
+      <c r="R38" s="11">
+        <v>7</v>
+      </c>
+      <c r="S38" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81875051-EB97-4C01-8097-421AD547FD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDB17EF-1EA0-48FC-A463-670CD313B75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -4580,12 +4580,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{C14F8461-BD8D-4A04-BCB1-38EB7410E384}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{613D55E0-36F2-4914-82CD-C49202D7DE45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{E4D46A88-73BC-4296-90FE-03E85CC04B74}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J39" authorId="0" shapeId="0" xr:uid="{8DE3A059-0B31-478E-8654-5D0B0F93925B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Study</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K39" authorId="0" shapeId="0" xr:uid="{9C4AF9A4-110D-45DD-BABA-D05D1A0FF5DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L39" authorId="0" shapeId="0" xr:uid="{466AAF94-DC9C-4CC1-AB83-F844BBE8A19C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O39" authorId="0" shapeId="0" xr:uid="{204071DB-B97C-430F-9B9F-FF7615B1D899}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -4878,10 +5046,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5184,8 +5348,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7519,9 +7683,60 @@
       <c r="A39" s="4">
         <v>45176</v>
       </c>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>15</v>
+      </c>
+      <c r="R39" s="11">
+        <v>8</v>
+      </c>
+      <c r="S39" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDB17EF-1EA0-48FC-A463-670CD313B75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD3BCFC-A581-47B5-914C-AD6D33A33E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -4748,12 +4748,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{2AA7D563-30F4-4CA3-AD48-10ACDAB77F1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{626B281E-B972-4C6D-A385-6EC9AB36394D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="0" shapeId="0" xr:uid="{3F229FD4-2511-4308-AE83-A5EAFF4B44F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J40" authorId="0" shapeId="0" xr:uid="{D548CF75-BB1D-4F69-9067-EA8F1C942D4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Office Work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K40" authorId="0" shapeId="0" xr:uid="{75F4C83C-1B52-4BE2-BED0-FB9B5619CE6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O40" authorId="0" shapeId="0" xr:uid="{F2C28198-A932-41BD-99EE-4DD2042F0C1F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P40" authorId="0" shapeId="0" xr:uid="{55387CE3-A6C4-4202-B8BE-91569E6B72DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -5348,8 +5516,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7742,9 +7910,60 @@
       <c r="A40" s="4">
         <v>45177</v>
       </c>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>15</v>
+      </c>
+      <c r="R40" s="11">
+        <v>8</v>
+      </c>
+      <c r="S40" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="4">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17AF42B-690C-49B4-A023-2EA9917D4B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369FD5A8-5D86-494A-B31C-B89635A6912F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -5516,12 +5516,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{97927CB7-3D2F-4633-9D66-318CB69E6A92}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{E1059D41-C72D-45EF-BA81-420FDE09C142}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H46" authorId="0" shapeId="0" xr:uid="{01ED797B-EAA0-499A-AD15-4FA874427EEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J46" authorId="0" shapeId="0" xr:uid="{868D0140-8584-4E53-80DA-E648260EBBB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K46" authorId="0" shapeId="0" xr:uid="{66B7771D-25BB-4F44-BDF4-260497563A61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M46" authorId="0" shapeId="0" xr:uid="{21606701-601D-419B-BCFD-1526B9DBC16C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Outside Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N46" authorId="0" shapeId="0" xr:uid="{8FCAA3FF-2BA8-48E5-94F7-0BA65A8F609D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O46" authorId="0" shapeId="0" xr:uid="{9B30DB1C-7013-4779-AFF1-E414EE4D0D41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -6147,8 +6339,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8895,9 +9087,60 @@
       <c r="A46" s="12">
         <v>45183</v>
       </c>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
+      <c r="B46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>15</v>
+      </c>
+      <c r="R46" s="2">
+        <v>7</v>
+      </c>
+      <c r="S46" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
@@ -13252,7 +13495,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 B42:B1048576 C42:S42 C43:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 B42:B1048576 C43:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369FD5A8-5D86-494A-B31C-B89635A6912F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B9450-9394-484D-B73F-C57E13E13C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -5708,12 +5708,276 @@
         </r>
       </text>
     </comment>
+    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{1F3CA100-B5B3-4A76-B8DC-8916B1D5CF03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{92B1D9E2-2744-414E-9F1B-38651D6C6350}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{91106197-48DD-4934-8BB2-F095F5E35A04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H47" authorId="0" shapeId="0" xr:uid="{C3FB7C31-2983-4187-A04D-BA9B03E5C67E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I47" authorId="0" shapeId="0" xr:uid="{DA28A625-9049-4BF2-89A7-2760EB99FBE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J47" authorId="0" shapeId="0" xr:uid="{9B6F85DD-F069-42FD-96D8-628283A8996A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K47" authorId="0" shapeId="0" xr:uid="{E19DE3A7-405A-4C85-8D88-A08EF16ABE7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L47" authorId="0" shapeId="0" xr:uid="{FF02DE48-30E9-4020-9BE6-5EA49FF5078C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M47" authorId="0" shapeId="0" xr:uid="{C1932DCB-4CF6-474A-B5AA-9C866FF2AD4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Outside Travelling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N47" authorId="0" shapeId="0" xr:uid="{A84CCDF9-565C-4A72-8ECF-FD37FFE4CD07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O47" authorId="0" shapeId="0" xr:uid="{B8715F1F-09C5-472A-A1DD-7456F33C3D6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -6338,9 +6602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:V742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9146,9 +9410,60 @@
       <c r="A47" s="12">
         <v>45184</v>
       </c>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>15</v>
+      </c>
+      <c r="R47" s="2">
+        <v>7</v>
+      </c>
+      <c r="S47" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="12">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B9450-9394-484D-B73F-C57E13E13C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8D2866-D7AA-4BC8-8BDA-CDEEC15AB0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -5972,12 +5972,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{0C2CC8BF-F883-4ADE-B4FB-DAFBACC192BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{8C0948D1-6569-448E-877D-6C1BAED0CD6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{6CE3520A-3696-4274-A8B5-4D0F927AA31E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{3D99DE63-8DD3-474E-979C-C6F7BD4E598F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{EA01C709-939D-486F-864E-108BDD7F5CAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joined Only 1st session</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J48" authorId="0" shapeId="0" xr:uid="{0145C9C1-D06A-4740-805A-B80546FD015C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K48" authorId="0" shapeId="0" xr:uid="{410AB793-6742-430F-8852-0BA56C550D95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L48" authorId="0" shapeId="0" xr:uid="{9AC9E368-CC8A-4FF1-8579-5ED9C4FDAAAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -6604,7 +6796,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9469,9 +9661,60 @@
       <c r="A48" s="12">
         <v>45185</v>
       </c>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>15</v>
+      </c>
+      <c r="R48" s="2">
+        <v>6</v>
+      </c>
+      <c r="S48" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="12">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8D2866-D7AA-4BC8-8BDA-CDEEC15AB0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F6B673-7B76-430D-B942-EA62CFDFC250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -5996,7 +5996,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0" xr:uid="{8C0948D1-6569-448E-877D-6C1BAED0CD6A}">
+    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{6CE3520A-3696-4274-A8B5-4D0F927AA31E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{3D99DE63-8DD3-474E-979C-C6F7BD4E598F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{EA01C709-939D-486F-864E-108BDD7F5CAC}">
       <text>
         <r>
           <rPr>
@@ -6020,7 +6068,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{6CE3520A-3696-4274-A8B5-4D0F927AA31E}">
+    <comment ref="J48" authorId="0" shapeId="0" xr:uid="{0145C9C1-D06A-4740-805A-B80546FD015C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K48" authorId="0" shapeId="0" xr:uid="{410AB793-6742-430F-8852-0BA56C550D95}">
       <text>
         <r>
           <rPr>
@@ -6044,7 +6116,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="H48" authorId="0" shapeId="0" xr:uid="{3D99DE63-8DD3-474E-979C-C6F7BD4E598F}">
+    <comment ref="L48" authorId="0" shapeId="0" xr:uid="{9AC9E368-CC8A-4FF1-8579-5ED9C4FDAAAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O48" authorId="0" shapeId="0" xr:uid="{E768848A-46CE-4892-9C95-92FDDCCA80D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{757930A9-1E82-455F-8360-4509CCCD26F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{C468986F-5C1E-4E72-9339-2FA8973133D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H50" authorId="0" shapeId="0" xr:uid="{D73C652B-4F50-4A25-B694-8963AF164568}">
       <text>
         <r>
           <rPr>
@@ -6068,31 +6236,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{EA01C709-939D-486F-864E-108BDD7F5CAC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Joined Only 1st session</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J48" authorId="0" shapeId="0" xr:uid="{0145C9C1-D06A-4740-805A-B80546FD015C}">
+    <comment ref="I50" authorId="0" shapeId="0" xr:uid="{909DBE35-205D-4FCC-96D2-3BD3AC91A463}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J50" authorId="0" shapeId="0" xr:uid="{320C7517-DA85-44C5-8357-445445F11FBB}">
       <text>
         <r>
           <rPr>
@@ -6116,7 +6284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K48" authorId="0" shapeId="0" xr:uid="{410AB793-6742-430F-8852-0BA56C550D95}">
+    <comment ref="K50" authorId="0" shapeId="0" xr:uid="{45259C79-D789-4A81-AD01-34BFB2CFFAD7}">
       <text>
         <r>
           <rPr>
@@ -6140,7 +6308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L48" authorId="0" shapeId="0" xr:uid="{9AC9E368-CC8A-4FF1-8579-5ED9C4FDAAAC}">
+    <comment ref="L50" authorId="0" shapeId="0" xr:uid="{21E583A2-C8DA-476E-866C-ECB36AF7F0F5}">
       <text>
         <r>
           <rPr>
@@ -6161,6 +6329,78 @@
           </rPr>
           <t xml:space="preserve">
 Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N50" authorId="0" shapeId="0" xr:uid="{CC8B6101-3785-49ED-8C7D-D31F9A3D155E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O50" authorId="0" shapeId="0" xr:uid="{5701182F-AC76-4DBE-A59E-CBB02E7006DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P50" authorId="0" shapeId="0" xr:uid="{1D7814A8-81F9-4FC7-B4C3-CD80401AD5A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
         </r>
       </text>
     </comment>
@@ -6169,7 +6409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -6253,6 +6493,9 @@
   </si>
   <si>
     <t>Common-Off</t>
+  </si>
+  <si>
+    <t>Ganesh Chaturthi Holiday</t>
   </si>
 </sst>
 </file>
@@ -6795,8 +7038,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9667,7 +9910,7 @@
       <c r="C48" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="13" t="s">
@@ -9700,7 +9943,7 @@
       <c r="N48" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="13" t="s">
         <v>1</v>
       </c>
       <c r="P48" s="11" t="s">
@@ -9720,25 +9963,178 @@
       <c r="A49" s="12">
         <v>45186</v>
       </c>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
+      <c r="B49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>45187</v>
       </c>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>15</v>
+      </c>
+      <c r="R50" s="2">
+        <v>5</v>
+      </c>
+      <c r="S50" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>45188</v>
       </c>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
+      <c r="B51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S51" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
@@ -14053,7 +14449,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 B42:B1048576 C43:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 B42:B1048576 C50:P50 C52:P1048576 C51:S51" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F6B673-7B76-430D-B942-EA62CFDFC250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C66473D-F66E-4FB8-9D8B-E5D32EBC1FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -6404,12 +6404,444 @@
         </r>
       </text>
     </comment>
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{8634A2B1-7954-4C79-8879-5C035D871DE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{577CCB1C-01E8-45E7-8166-1FCA061CC271}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H52" authorId="0" shapeId="0" xr:uid="{1A5CE4AA-0744-470E-8DE7-70FE29B34254}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J52" authorId="0" shapeId="0" xr:uid="{4BC65D57-DFCB-42FF-A1D5-B3BB166C40FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K52" authorId="0" shapeId="0" xr:uid="{D18EE897-E9B2-41F9-BF6F-056D9F296089}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L52" authorId="0" shapeId="0" xr:uid="{F674DD01-A355-4E67-B28D-77A0DACFB195}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O52" authorId="0" shapeId="0" xr:uid="{29A9148F-9802-4F23-96B6-15312EC47711}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P52" authorId="0" shapeId="0" xr:uid="{1C4CC23F-E0F8-47CB-AB45-97AD37C8DFB1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{7AEF97D6-D05A-425F-AC53-EDF44F08A11D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E53" authorId="0" shapeId="0" xr:uid="{158E1BFE-43D5-4CC3-AE63-D77CBFE70A2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F53" authorId="0" shapeId="0" xr:uid="{EB0E0BF6-5C14-4AB5-8A43-DD34245010BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Home Festival</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H53" authorId="0" shapeId="0" xr:uid="{BF2162F8-C41A-4079-B2AF-F5739751F6D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I53" authorId="0" shapeId="0" xr:uid="{57E98BC7-B5AD-4B0C-A1E1-7FCAB80B5478}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J53" authorId="0" shapeId="0" xr:uid="{DFC84EA5-92C9-4AD9-A37D-B9E5288365BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K53" authorId="0" shapeId="0" xr:uid="{0F757210-B898-453C-A363-73A4EDA4B17C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L53" authorId="0" shapeId="0" xr:uid="{DFB7F0E7-4968-4ABD-97AF-5E96DBC2F9A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O53" authorId="0" shapeId="0" xr:uid="{3D49D00E-E460-42F5-982B-3E789DB88B59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P53" authorId="0" shapeId="0" xr:uid="{63557FCA-71B3-4AED-B2EC-4D0E45167AD1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -6738,6 +7170,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7039,7 +7475,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10140,17 +10576,119 @@
       <c r="A52" s="12">
         <v>45189</v>
       </c>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
+      <c r="B52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>15</v>
+      </c>
+      <c r="R52" s="2">
+        <v>7</v>
+      </c>
+      <c r="S52" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>45190</v>
       </c>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
+      <c r="B53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>15</v>
+      </c>
+      <c r="R53" s="2">
+        <v>5</v>
+      </c>
+      <c r="S53" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
@@ -14449,7 +14987,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 B42:B1048576 C50:P50 C52:P1048576 C51:S51" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 B42:B1048576 C50:P50 C51:S51 C52:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C66473D-F66E-4FB8-9D8B-E5D32EBC1FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CDD551-3986-46CD-9F7C-85B1688CD696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -6836,12 +6836,252 @@
         </r>
       </text>
     </comment>
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{22A69ED2-2BD1-44DA-86A5-AF9A0F2E4402}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{8BC6CD21-0510-478D-9052-02E384DE76B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F54" authorId="0" shapeId="0" xr:uid="{EFC0F49D-186E-4812-B202-6F0FD594312F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Home Festival</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H54" authorId="0" shapeId="0" xr:uid="{26EFE158-C8F1-44CD-8D2F-8BD697EB4BFC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I54" authorId="0" shapeId="0" xr:uid="{88A797B7-A5FA-49B6-8409-611954B93691}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J54" authorId="0" shapeId="0" xr:uid="{5DA24021-337C-4617-91DB-099DE520AEEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K54" authorId="0" shapeId="0" xr:uid="{84801A86-E498-4E41-8A79-3D056DA23F68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L54" authorId="0" shapeId="0" xr:uid="{1727B4FC-5802-46AF-86F4-7C272C1DC58C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O54" authorId="0" shapeId="0" xr:uid="{56B2548F-6E0A-4FE9-AE84-7D11A6183BC9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P54" authorId="0" shapeId="0" xr:uid="{C208DB06-94E4-4895-ABD1-E5064C3FFD88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -7170,10 +7410,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7475,7 +7711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10694,9 +10930,60 @@
       <c r="A54" s="12">
         <v>45191</v>
       </c>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>15</v>
+      </c>
+      <c r="R54" s="2">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
@@ -14987,7 +15274,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 B42:B1048576 C50:P50 C51:S51 C52:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 C50:P50 C51:S51 C52:P1048576 B42:B1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CDD551-3986-46CD-9F7C-85B1688CD696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23FB19-DF8F-4685-BEAE-39CC39BFCF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -7076,12 +7076,276 @@
         </r>
       </text>
     </comment>
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{EF2D4FEC-8AB7-442A-A89A-1E8C650C7B33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E57" authorId="0" shapeId="0" xr:uid="{3348A774-4907-48CA-BF80-AD0A460B7D1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H57" authorId="0" shapeId="0" xr:uid="{DADAB51F-84E9-4B11-9119-AB3C9335EDBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{C94ECF42-277C-49FD-8237-AA515E67B441}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J57" authorId="0" shapeId="0" xr:uid="{3599FD9B-0D25-42C5-878F-41CC47B3FA15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K57" authorId="0" shapeId="0" xr:uid="{4DCF1288-CEF3-4511-9E8A-5632FB4CE3A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L57" authorId="0" shapeId="0" xr:uid="{AA90E556-3384-4FDE-9778-1DD6E993D1BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M57" authorId="0" shapeId="0" xr:uid="{50366D8F-5731-4C1F-8B8F-D04F8F594D2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Went to home town</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N57" authorId="0" shapeId="0" xr:uid="{AC68D392-7904-4407-95E3-15B984D2EFC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O57" authorId="0" shapeId="0" xr:uid="{4BB00F9C-C793-4556-AE43-97865821E70E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P57" authorId="0" shapeId="0" xr:uid="{0B01D433-BDA4-4567-97AA-561F537EC956}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -7168,6 +7432,9 @@
   </si>
   <si>
     <t>Ganesh Chaturthi Holiday</t>
+  </si>
+  <si>
+    <t>Ganesh Visarjan Holiday</t>
   </si>
 </sst>
 </file>
@@ -7710,8 +7977,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10989,25 +11256,178 @@
       <c r="A55" s="12">
         <v>45192</v>
       </c>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
+      <c r="B55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>45193</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
+      <c r="B56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>45194</v>
       </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
+      <c r="B57" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>15</v>
+      </c>
+      <c r="R57" s="2">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
@@ -15274,7 +15694,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 C50:P50 C51:S51 C52:P1048576 B42:B1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 C50:P50 C51:S51 B42:B54 C52:P54 B56:S56 B57:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23FB19-DF8F-4685-BEAE-39CC39BFCF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D76A41-AD46-4808-9F18-0783C376FA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -7340,12 +7340,276 @@
         </r>
       </text>
     </comment>
+    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{64E3FFBD-11CB-46E8-9097-7D87D0972EBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E58" authorId="0" shapeId="0" xr:uid="{34D28541-A560-4121-A0FC-68B6895F3903}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H58" authorId="0" shapeId="0" xr:uid="{9B3A3332-2BA9-4562-937B-FA340FD89ACE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I58" authorId="0" shapeId="0" xr:uid="{62C495A1-D2C2-4AD5-848D-ED9967A91E19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J58" authorId="0" shapeId="0" xr:uid="{10E3AEDC-F3D9-4839-B105-AB3BA536A8FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra Studies</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K58" authorId="0" shapeId="0" xr:uid="{C212349C-7418-4F5B-A9F8-5DA83B400698}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L58" authorId="0" shapeId="0" xr:uid="{FC8FF5AA-BF2D-4260-A2EA-7845C2951814}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Network issue occurred joined the metting only foe 10 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M58" authorId="0" shapeId="0" xr:uid="{6CB60CE0-3C89-4059-9004-76FF1AA82391}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Went to home town</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N58" authorId="0" shapeId="0" xr:uid="{D84CE2A4-BEC2-40CB-83FC-A494A85DC08E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O58" authorId="0" shapeId="0" xr:uid="{A4E8ABD8-5E5D-490E-B8D7-FE33DFEDA4BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P58" authorId="0" shapeId="0" xr:uid="{9A2E1BC9-1362-4D1B-A0CF-E4EB113ECD29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Parth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not Responded</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -7977,8 +8241,8 @@
   <dimension ref="A1:V742"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11433,9 +11697,60 @@
       <c r="A58" s="12">
         <v>45195</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
+      <c r="B58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>15</v>
+      </c>
+      <c r="R58" s="2">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="12">

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D76A41-AD46-4808-9F18-0783C376FA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73753A4E-8ED4-4AAF-BBEE-6A86465BC864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -7609,7 +7609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -8242,7 +8242,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11756,9 +11756,60 @@
       <c r="A59" s="12">
         <v>45196</v>
       </c>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
+      <c r="B59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R59" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S59" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
@@ -16009,7 +16060,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 C50:P50 C51:S51 B42:B54 C52:P54 B56:S56 B57:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 C50:P50 C51:S51 B42:B54 C52:P54 B56:S56 B57:P58 B60:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/React-B1-Attendance_Management.xlsx
+++ b/React-B1-Attendance_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\React-JS\JSLearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73753A4E-8ED4-4AAF-BBEE-6A86465BC864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0DC9E4-6FBC-4A92-9D3C-A207E55F51EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -7609,7 +7609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -7700,12 +7700,15 @@
   <si>
     <t>Ganesh Visarjan Holiday</t>
   </si>
+  <si>
+    <t>Ananth Chaturthi Holiday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7774,6 +7777,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -7862,7 +7872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7917,6 +7927,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8242,7 +8255,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11815,17 +11828,119 @@
       <c r="A60" s="12">
         <v>45197</v>
       </c>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
+      <c r="B60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S60" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>45198</v>
       </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
+      <c r="B61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R61" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S61" s="20" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
@@ -16060,7 +16175,7 @@
   <dataConsolidate/>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{D476CE6D-C367-4374-BD3C-CF68DE92BAD3}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 C50:P50 C51:S51 B42:B54 C52:P54 B56:S56 B57:P58 B60:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 B1:P30 B32:P40 C42:S42 C49:S49 C43:P48 C50:P50 C51:S51 B42:B54 C52:P54 B56:S56 B57:P58 B62:P1048576" xr:uid="{45B840A5-FD6B-42D2-8519-5F95CF7645C3}">
       <formula1>$T$5:$T$6</formula1>
     </dataValidation>
   </dataValidations>
